--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
   <si>
     <t>流程</t>
   </si>
@@ -316,66 +316,69 @@
     <t>报价更新（具体报价）</t>
   </si>
   <si>
+    <t>OutPut5.9</t>
+  </si>
+  <si>
+    <t>风险清单管理文档</t>
+  </si>
+  <si>
+    <t>完成数/流程任务数</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>week_OutPut3.1</t>
+  </si>
+  <si>
+    <t>10/18小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut3.2</t>
+  </si>
+  <si>
+    <t>10/21小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut3.3</t>
+  </si>
+  <si>
+    <t>week_OutPut3.4</t>
+  </si>
+  <si>
+    <t>week_OutPut3.5</t>
+  </si>
+  <si>
+    <t>part6</t>
+  </si>
+  <si>
+    <t>OutPut6.1</t>
+  </si>
+  <si>
+    <t>内部评审计划</t>
+  </si>
+  <si>
+    <t>OutPut6.2</t>
+  </si>
+  <si>
+    <t>外部评审计划</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>OutPut6.3</t>
+  </si>
+  <si>
+    <t>内部评审报告</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>OutPut5.9</t>
-  </si>
-  <si>
-    <t>风险清单管理文档</t>
-  </si>
-  <si>
-    <t>完成数/流程任务数</t>
-  </si>
-  <si>
-    <t>8/4</t>
-  </si>
-  <si>
-    <t>week3</t>
-  </si>
-  <si>
-    <t>week_OutPut3.1</t>
-  </si>
-  <si>
-    <t>10/18小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut3.2</t>
-  </si>
-  <si>
-    <t>10/21小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut3.3</t>
-  </si>
-  <si>
-    <t>week_OutPut3.4</t>
-  </si>
-  <si>
-    <t>week_OutPut3.5</t>
-  </si>
-  <si>
-    <t>part6</t>
-  </si>
-  <si>
-    <t>OutPut6.1</t>
-  </si>
-  <si>
-    <t>内部评审计划</t>
-  </si>
-  <si>
-    <t>OutPut6.2</t>
-  </si>
-  <si>
-    <t>外部评审计划</t>
-  </si>
-  <si>
-    <t>OutPut6.3</t>
-  </si>
-  <si>
-    <t>内部评审报告</t>
-  </si>
-  <si>
     <t>OutPut6.4</t>
   </si>
   <si>
@@ -406,7 +409,7 @@
     <t>10/25小组会议记录(内部评审)</t>
   </si>
   <si>
-    <t>.</t>
+    <t>时间冲突</t>
   </si>
   <si>
     <t>week_OutPut4.2</t>
@@ -418,13 +421,40 @@
     <t>week_OutPut4.3</t>
   </si>
   <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>week_OutPut4.4</t>
+  </si>
+  <si>
+    <t>week_OutPut4.5</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>week_OutPut5.1</t>
+  </si>
+  <si>
+    <t>11/1小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut5.2</t>
+  </si>
+  <si>
+    <t>11/4小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut5.3</t>
+  </si>
+  <si>
+    <t>week_OutPut5.4</t>
+  </si>
+  <si>
     <t>0/5</t>
   </si>
   <si>
-    <t>week_OutPut4.4</t>
-  </si>
-  <si>
-    <t>week_OutPut4.5</t>
+    <t>week_OutPut5.5</t>
   </si>
 </sst>
 </file>
@@ -435,40 +465,40 @@
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="182" formatCode="yy/m/d"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="183" formatCode="mmmmm"/>
+    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="190" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="#\ ??"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="180" formatCode="yy/m/d"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="184" formatCode="m/d"/>
-    <numFmt numFmtId="185" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="187" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="188" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="190" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="mmmmm"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="196" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="198" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="200" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="200" formatCode="mmmmm\-yy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -497,6 +527,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -513,22 +557,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,38 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,14 +619,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -603,9 +626,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +643,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,15 +670,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,7 +698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +836,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,37 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,30 +903,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +975,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -943,16 +1000,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,30 +1025,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,155 +1054,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1177,7 +1225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1226,9 +1274,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,46 +1289,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,7 +1370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1304,19 +1382,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1641,12 +1719,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29:I54"/>
+      <selection pane="bottomLeft" activeCell="N55" sqref="N55:N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1682,16 +1760,16 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1720,16 +1798,16 @@
       <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="35">
         <v>44468</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="36">
         <v>44469</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="35">
         <v>44469</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="36">
         <v>44470</v>
       </c>
       <c r="I2" s="8">
@@ -1756,16 +1834,16 @@
       <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="37">
         <v>44468</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="38">
         <v>44468</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="37">
         <v>44468</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="38">
         <v>44468</v>
       </c>
       <c r="I3" s="8">
@@ -1792,16 +1870,16 @@
       <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="37">
         <v>44466</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="38">
         <v>44466</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="37">
         <v>44466</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="38">
         <v>44466</v>
       </c>
       <c r="I4" s="8">
@@ -1828,16 +1906,16 @@
       <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="37">
         <v>44469</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="38">
         <v>44470</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="37">
         <v>44469</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="38">
         <v>44470</v>
       </c>
       <c r="I5" s="8">
@@ -1866,22 +1944,22 @@
       <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="39">
         <v>44475</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="40">
         <v>44476</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="39">
         <v>44475</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="40">
         <v>44476</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="50">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="50">
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -1902,22 +1980,22 @@
       <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="39">
         <v>44475</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="40">
         <v>44475</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="39">
         <v>44475</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="39">
         <v>44475</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="50">
         <v>1</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="50">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -1938,22 +2016,22 @@
       <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="41">
         <v>44469</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="42">
         <v>44470</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="41">
         <v>44469</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="42">
         <v>44470</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="51">
         <v>2</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="51">
         <v>2</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -1976,16 +2054,16 @@
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="37">
         <v>44469</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="38">
         <v>44476</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="38">
         <v>44475</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="38">
         <v>44475</v>
       </c>
       <c r="I9" s="8">
@@ -2012,16 +2090,16 @@
       <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="37">
         <v>44469</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="38">
         <v>44476</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="38">
         <v>44475</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="38">
         <v>44475</v>
       </c>
       <c r="I10" s="8">
@@ -2048,16 +2126,16 @@
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="37">
         <v>44475</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="38">
         <v>44476</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="37">
         <v>44476</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="38">
         <v>44476</v>
       </c>
       <c r="I11" s="8">
@@ -2084,16 +2162,16 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="35">
         <v>44474</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="36">
         <v>44475</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="35">
         <v>44477</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="36">
         <v>44478</v>
       </c>
       <c r="I12" s="8">
@@ -2120,22 +2198,22 @@
       <c r="D13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="35">
         <v>44475</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="36">
         <v>44475</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="35">
         <v>44477</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="36">
         <v>44478</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="52">
         <v>1.5</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="52">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2158,22 +2236,22 @@
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="38">
         <v>44467</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="38">
         <v>44467</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="38">
         <v>44467</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="38">
         <v>44467</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="51">
         <v>1</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="51">
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -2194,22 +2272,22 @@
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="38">
         <v>44476</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="38">
         <v>44476</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="38">
         <v>44476</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="38">
         <v>44476</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="51">
         <v>1</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="51">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -2230,19 +2308,19 @@
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="41">
         <v>44479</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="38">
         <v>44479</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="38">
         <v>44476</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="38">
         <v>44476</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="51">
         <v>3</v>
       </c>
       <c r="J16" s="8">
@@ -2266,19 +2344,19 @@
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="41">
         <v>44479</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="38">
         <v>44479</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="38">
         <v>44479</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="38">
         <v>44479</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="51">
         <v>1</v>
       </c>
       <c r="J17" s="8">
@@ -2302,19 +2380,19 @@
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="41">
         <v>44468</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="38">
         <v>44479</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="38">
         <v>44468</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="38">
         <v>44479</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="51">
         <v>4</v>
       </c>
       <c r="J18" s="8">
@@ -2340,16 +2418,16 @@
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="36">
         <v>44480</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="36">
         <v>44480</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="36">
         <v>44483</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="36">
         <v>44483</v>
       </c>
       <c r="I19" s="8">
@@ -2376,16 +2454,16 @@
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="38">
         <v>44484</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="38">
         <v>44485</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="38">
         <v>44483</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="38">
         <v>44483</v>
       </c>
       <c r="I20" s="8">
@@ -2412,16 +2490,16 @@
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="36">
         <v>44481</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="36">
         <v>44482</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="36">
         <v>44483</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="36">
         <v>44483</v>
       </c>
       <c r="I21" s="8">
@@ -2448,16 +2526,16 @@
       <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="38">
         <v>44482</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="38">
         <v>44483</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="38">
         <v>44483</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="38">
         <v>44483</v>
       </c>
       <c r="I22" s="8">
@@ -2484,16 +2562,16 @@
       <c r="D23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="38">
         <v>44483</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="38">
         <v>44484</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="38">
         <v>44481</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="38">
         <v>44481</v>
       </c>
       <c r="I23" s="8">
@@ -2522,22 +2600,22 @@
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="36">
         <v>44480</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="36">
         <v>44480</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="36">
         <v>44481</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="36">
         <v>44481</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="52">
         <v>1</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="52">
         <v>2</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -2558,16 +2636,16 @@
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="38">
         <v>44483</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="38">
         <v>44483</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="38">
         <v>44483</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="38">
         <v>44483</v>
       </c>
       <c r="I25" s="8">
@@ -2594,16 +2672,16 @@
       <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="38">
         <v>44480</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="38">
         <v>44486</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="38">
         <v>44483</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="38">
         <v>44486</v>
       </c>
       <c r="I26" s="8">
@@ -2630,19 +2708,19 @@
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="37">
         <v>44486</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="38">
         <v>44486</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="38">
         <v>44486</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="38">
         <v>44486</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="51">
         <v>1</v>
       </c>
       <c r="J27" s="8">
@@ -2666,19 +2744,19 @@
       <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="37">
         <v>44486</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="38">
         <v>44486</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="38">
         <v>44484</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="38">
         <v>44486</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="51">
         <v>4</v>
       </c>
       <c r="J28" s="8">
@@ -2704,16 +2782,16 @@
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="37">
         <v>44487</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="38">
         <v>44489</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G29" s="38">
         <v>44488</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="38">
         <v>44488</v>
       </c>
       <c r="I29" s="8">
@@ -2725,16 +2803,16 @@
       <c r="K29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="47" t="s">
+      <c r="M29" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="47" t="s">
+      <c r="N29" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="O29" s="60" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2749,37 +2827,37 @@
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="41">
         <v>44487</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="38">
         <v>44493</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G30" s="38">
         <v>44487</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H30" s="38">
         <v>44493</v>
       </c>
-      <c r="I30" s="42">
+      <c r="I30" s="52">
         <v>12</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="52">
         <v>18</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="50">
+      <c r="N30" s="57">
         <v>8</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="57">
         <v>11</v>
       </c>
     </row>
@@ -2794,16 +2872,16 @@
       <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="41">
         <v>44487</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="38">
         <v>44492</v>
       </c>
       <c r="G31" s="3">
         <v>44487</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="38">
         <v>44491</v>
       </c>
       <c r="I31" s="8">
@@ -2815,16 +2893,16 @@
       <c r="K31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="49" t="s">
+      <c r="M31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="50">
+      <c r="N31" s="57">
         <v>8.5</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="57">
         <v>11</v>
       </c>
     </row>
@@ -2839,16 +2917,16 @@
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="38">
         <v>44492</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="38">
         <v>44495</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="38">
         <v>44487</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="38">
         <v>44492</v>
       </c>
       <c r="I32" s="8">
@@ -2860,16 +2938,16 @@
       <c r="K32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="M32" s="49" t="s">
+      <c r="M32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="50">
+      <c r="N32" s="57">
         <v>7.5</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="57">
         <v>10</v>
       </c>
     </row>
@@ -2884,16 +2962,16 @@
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="38">
         <v>44487</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="38">
         <v>44491</v>
       </c>
-      <c r="G33" s="32">
+      <c r="G33" s="38">
         <v>44488</v>
       </c>
-      <c r="H33" s="32">
+      <c r="H33" s="38">
         <v>44489</v>
       </c>
       <c r="I33" s="8">
@@ -2905,16 +2983,16 @@
       <c r="K33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="44" t="s">
+      <c r="L33" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="49" t="s">
+      <c r="M33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="50">
+      <c r="N33" s="57">
         <v>8</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="57">
         <v>7</v>
       </c>
     </row>
@@ -2929,16 +3007,16 @@
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="41">
         <v>44491</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="38">
         <v>44494</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="38">
         <v>44488</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="38">
         <v>44491</v>
       </c>
       <c r="I34" s="8">
@@ -2950,16 +3028,16 @@
       <c r="K34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="44" t="s">
+      <c r="L34" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="49" t="s">
+      <c r="M34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="50">
+      <c r="N34" s="57">
         <v>9</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="57">
         <v>11</v>
       </c>
     </row>
@@ -2974,16 +3052,16 @@
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="41">
         <v>44491</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="38">
         <v>44494</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="38">
         <v>44488</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="38">
         <v>44491</v>
       </c>
       <c r="I35" s="8">
@@ -2995,16 +3073,16 @@
       <c r="K35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="L35" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="M35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="50">
+      <c r="N35" s="57">
         <v>10</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="57">
         <v>12</v>
       </c>
     </row>
@@ -3016,35 +3094,41 @@
       <c r="C36" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="35">
+      <c r="D36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="41">
         <v>44494</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="38">
         <v>44497</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="G36" s="38">
+        <v>44494</v>
+      </c>
+      <c r="H36" s="38">
+        <v>44497</v>
+      </c>
       <c r="I36" s="8">
         <v>4</v>
       </c>
-      <c r="J36" s="8"/>
+      <c r="J36" s="8">
+        <v>4</v>
+      </c>
       <c r="K36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="50" t="s">
+      <c r="M36" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="50">
+      <c r="N36" s="57">
         <f>SUM(N30:N35)</f>
         <v>51</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="57">
         <f>SUM(O30:O35)</f>
         <v>62</v>
       </c>
@@ -3052,24 +3136,24 @@
     <row r="37" spans="1:15">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="42">
         <v>44494</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="38">
         <v>44497</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="38">
         <v>44488</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="38">
         <v>44491</v>
       </c>
       <c r="I37" s="8">
@@ -3081,40 +3165,40 @@
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="44" t="s">
+      <c r="L37" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="46" t="s">
+      <c r="M37" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="N37" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="O37" s="46"/>
+      <c r="O37" s="57"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="D38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="38">
         <v>44487</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="38">
         <v>44487</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="38">
         <v>44487</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="38">
         <v>44487</v>
       </c>
       <c r="I38" s="8">
@@ -3133,24 +3217,24 @@
     <row r="39" spans="1:12">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>108</v>
-      </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="42">
         <v>44490</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="38">
         <v>44490</v>
       </c>
-      <c r="G39" s="32">
+      <c r="G39" s="38">
         <v>44490</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="38">
         <v>44490</v>
       </c>
       <c r="I39" s="8">
@@ -3169,7 +3253,7 @@
     <row r="40" spans="1:12">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>51</v>
@@ -3177,16 +3261,16 @@
       <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="38">
         <v>44487</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="38">
         <v>44493</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="38">
         <v>44493</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="38">
         <v>44493</v>
       </c>
       <c r="I40" s="8">
@@ -3205,7 +3289,7 @@
     <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>53</v>
@@ -3213,16 +3297,16 @@
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="38">
         <v>44493</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="38">
         <v>44493</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="38">
         <v>44493</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="38">
         <v>44493</v>
       </c>
       <c r="I41" s="8">
@@ -3239,431 +3323,860 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="43">
+        <v>44487</v>
+      </c>
+      <c r="F42" s="44">
+        <v>44493</v>
+      </c>
+      <c r="G42" s="44">
+        <v>44493</v>
+      </c>
+      <c r="H42" s="44">
+        <v>44493</v>
+      </c>
+      <c r="I42" s="20">
+        <v>4</v>
+      </c>
+      <c r="J42" s="20">
+        <v>3</v>
+      </c>
+      <c r="K42" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="37">
-        <v>44487</v>
-      </c>
-      <c r="F42" s="38">
-        <v>44493</v>
-      </c>
-      <c r="G42" s="38">
-        <v>44493</v>
-      </c>
-      <c r="H42" s="38">
-        <v>44493</v>
-      </c>
-      <c r="I42" s="21">
+      <c r="B43" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="45">
+        <v>44495</v>
+      </c>
+      <c r="F43" s="45">
+        <v>44498</v>
+      </c>
+      <c r="G43" s="45">
+        <v>44500</v>
+      </c>
+      <c r="H43" s="45">
+        <v>44500</v>
+      </c>
+      <c r="I43" s="56">
+        <v>2</v>
+      </c>
+      <c r="J43" s="56">
         <v>4</v>
       </c>
-      <c r="J42" s="21">
+      <c r="K43" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N43" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="45">
+        <v>44495</v>
+      </c>
+      <c r="F44" s="45">
+        <v>44498</v>
+      </c>
+      <c r="G44" s="45">
+        <v>44499</v>
+      </c>
+      <c r="H44" s="45"/>
+      <c r="I44" s="56">
+        <v>2</v>
+      </c>
+      <c r="J44" s="56"/>
+      <c r="K44" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" s="57">
+        <v>4.5</v>
+      </c>
+      <c r="O44" s="57">
         <v>3</v>
       </c>
-      <c r="K42" s="45" t="s">
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="46">
+        <v>44495</v>
+      </c>
+      <c r="F45" s="46">
+        <v>44498</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="I45" s="23">
+        <v>2</v>
+      </c>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N45" s="57">
+        <v>7</v>
+      </c>
+      <c r="O45" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="46">
+        <v>44495</v>
+      </c>
+      <c r="F46" s="46">
+        <v>44498</v>
+      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="23">
+        <v>2</v>
+      </c>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L46" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="57">
+        <v>5</v>
+      </c>
+      <c r="O46" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="46">
+        <v>44497</v>
+      </c>
+      <c r="F47" s="46">
+        <v>44504</v>
+      </c>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="23">
+        <v>14</v>
+      </c>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="57">
+        <v>6.5</v>
+      </c>
+      <c r="O47" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="46">
+        <v>44497</v>
+      </c>
+      <c r="F48" s="46">
+        <v>44504</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="23">
+        <v>21</v>
+      </c>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" s="57">
+        <v>8</v>
+      </c>
+      <c r="O48" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="47">
+        <v>44494</v>
+      </c>
+      <c r="F49" s="47">
+        <v>44494</v>
+      </c>
+      <c r="G49" s="47">
+        <v>44500</v>
+      </c>
+      <c r="H49" s="47">
+        <v>44500</v>
+      </c>
+      <c r="I49" s="29">
+        <v>2</v>
+      </c>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" s="57">
+        <v>8</v>
+      </c>
+      <c r="O49" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="47">
+        <v>44497</v>
+      </c>
+      <c r="F50" s="47">
+        <v>44497</v>
+      </c>
+      <c r="G50" s="47">
+        <v>44500</v>
+      </c>
+      <c r="H50" s="47">
+        <v>44500</v>
+      </c>
+      <c r="I50" s="29">
+        <v>2</v>
+      </c>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="39">
-        <v>44495</v>
-      </c>
-      <c r="F43" s="39">
-        <v>44498</v>
-      </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="24">
-        <v>2</v>
-      </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N43" s="48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="39">
-        <v>44495</v>
-      </c>
-      <c r="F44" s="39">
-        <v>44498</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="24">
-        <v>2</v>
-      </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" s="46">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="39">
-        <v>44495</v>
-      </c>
-      <c r="F45" s="39">
-        <v>44498</v>
-      </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="24">
-        <v>2</v>
-      </c>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="39">
-        <v>44495</v>
-      </c>
-      <c r="F46" s="39">
-        <v>44498</v>
-      </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="24">
-        <v>2</v>
-      </c>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="39">
-        <v>44497</v>
-      </c>
-      <c r="F47" s="39">
-        <v>44504</v>
-      </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="24">
-        <v>14</v>
-      </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L47" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="46">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="39">
-        <v>44497</v>
-      </c>
-      <c r="F48" s="39">
-        <v>44504</v>
-      </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="24">
-        <v>21</v>
-      </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L48" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="39">
-        <v>44494</v>
-      </c>
-      <c r="F49" s="39">
-        <v>44494</v>
-      </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="24">
-        <v>2</v>
-      </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="M49" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="39">
-        <v>44497</v>
-      </c>
-      <c r="F50" s="39">
-        <v>44497</v>
-      </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="24">
-        <v>2</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="N50" s="46">
+      <c r="N50" s="57">
         <f>SUM(N44:N49)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="27" t="s">
+      <c r="O50" s="57">
+        <f>SUM(O44:O49)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="39">
+      <c r="D51" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="46">
         <v>44494</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="46">
         <v>44500</v>
       </c>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="24">
-        <v>3</v>
-      </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24" t="s">
+      <c r="G51" s="46">
+        <v>44500</v>
+      </c>
+      <c r="H51" s="46">
+        <v>44500</v>
+      </c>
+      <c r="I51" s="23">
+        <v>2</v>
+      </c>
+      <c r="J51" s="23">
+        <v>2</v>
+      </c>
+      <c r="K51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L51" s="24" t="s">
+      <c r="L51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="N51" s="51" t="s">
-        <v>133</v>
-      </c>
+      <c r="M51" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="N51" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="O51" s="61"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="39">
+      <c r="D52" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="46">
         <v>44500</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="46">
         <v>44500</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="24">
+      <c r="G52" s="46">
+        <v>44500</v>
+      </c>
+      <c r="H52" s="46">
+        <v>44500</v>
+      </c>
+      <c r="I52" s="23">
+        <v>2</v>
+      </c>
+      <c r="J52" s="23">
         <v>1</v>
       </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24" t="s">
+      <c r="K52" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="46">
+        <v>44494</v>
+      </c>
+      <c r="F53" s="46">
+        <v>44500</v>
+      </c>
+      <c r="G53" s="46">
+        <v>44500</v>
+      </c>
+      <c r="H53" s="46">
+        <v>44500</v>
+      </c>
+      <c r="I53" s="23">
+        <v>4</v>
+      </c>
+      <c r="J53" s="23">
+        <v>4</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="48">
+        <v>44501</v>
+      </c>
+      <c r="F54" s="48">
+        <v>44501</v>
+      </c>
+      <c r="G54" s="48"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="58">
+        <v>4</v>
+      </c>
+      <c r="J54" s="58"/>
+      <c r="K54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="O54" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="46">
+        <v>44502</v>
+      </c>
+      <c r="F55" s="46">
+        <v>44503</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="23">
+        <v>2</v>
+      </c>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="57">
+        <v>4</v>
+      </c>
+      <c r="O55" s="57"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="46">
+        <v>44502</v>
+      </c>
+      <c r="F56" s="46">
+        <v>44503</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="23">
+        <v>2</v>
+      </c>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="N56" s="57">
+        <v>9</v>
+      </c>
+      <c r="O56" s="57"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="46">
+        <v>44504</v>
+      </c>
+      <c r="F57" s="46">
+        <v>44507</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="23">
+        <v>14</v>
+      </c>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="27" t="s">
+      <c r="L57" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="57">
+        <v>9</v>
+      </c>
+      <c r="O57" s="57"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="46">
+        <v>44506</v>
+      </c>
+      <c r="F58" s="46">
+        <v>44514</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="23">
+        <v>8</v>
+      </c>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="57">
+        <v>6</v>
+      </c>
+      <c r="O58" s="57"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="49">
+        <v>44494</v>
+      </c>
+      <c r="F59" s="49">
+        <v>44494</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="32">
+        <v>2</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" s="57">
+        <v>8</v>
+      </c>
+      <c r="O59" s="57"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" s="49">
+        <v>44497</v>
+      </c>
+      <c r="F60" s="49">
+        <v>44497</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="32">
+        <v>2</v>
+      </c>
+      <c r="J60" s="32"/>
+      <c r="K60" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" s="57">
+        <v>6</v>
+      </c>
+      <c r="O60" s="57"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="46">
+        <v>44494</v>
+      </c>
+      <c r="F61" s="46">
+        <v>44500</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="23">
+        <v>2</v>
+      </c>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" s="57">
+        <f>SUM(N55:N60)</f>
+        <v>42</v>
+      </c>
+      <c r="O61" s="57"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="46">
+        <v>44500</v>
+      </c>
+      <c r="F62" s="46">
+        <v>44500</v>
+      </c>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="23">
+        <v>2</v>
+      </c>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="N62" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="O62" s="61"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="39">
+      <c r="D63" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="46">
         <v>44494</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F63" s="46">
         <v>44500</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="24">
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="23">
         <v>4</v>
       </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24" t="s">
+      <c r="J63" s="23"/>
+      <c r="K63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="46" t="s">
+      <c r="L63" s="57" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3672,7 +4185,7 @@
   <autoFilter ref="A1:L53">
     <extLst/>
   </autoFilter>
-  <mergeCells count="11">
+  <mergeCells count="14">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -3684,6 +4197,9 @@
     <mergeCell ref="A43:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A63"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$72</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="162">
   <si>
     <t>流程</t>
   </si>
@@ -367,39 +367,36 @@
     <t>外部评审计划</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>OutPut6.3</t>
   </si>
   <si>
     <t>内部评审报告</t>
   </si>
   <si>
+    <t>OutPut6.4</t>
+  </si>
+  <si>
+    <t>外部评审报告</t>
+  </si>
+  <si>
+    <t>part7</t>
+  </si>
+  <si>
+    <t>OutPut7.1</t>
+  </si>
+  <si>
+    <t>接口设计计划</t>
+  </si>
+  <si>
+    <t>OutPut7.2</t>
+  </si>
+  <si>
+    <t>接口设计文档</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>OutPut6.4</t>
-  </si>
-  <si>
-    <t>外部评审报告</t>
-  </si>
-  <si>
-    <t>part7</t>
-  </si>
-  <si>
-    <t>OutPut7.1</t>
-  </si>
-  <si>
-    <t>接口设计计划</t>
-  </si>
-  <si>
-    <t>OutPut7.2</t>
-  </si>
-  <si>
-    <t>接口设计文档</t>
-  </si>
-  <si>
     <t>week4</t>
   </si>
   <si>
@@ -451,10 +448,61 @@
     <t>week_OutPut5.4</t>
   </si>
   <si>
-    <t>0/5</t>
+    <t>4/4</t>
   </si>
   <si>
     <t>week_OutPut5.5</t>
+  </si>
+  <si>
+    <t>part8</t>
+  </si>
+  <si>
+    <t>OutPut8.1</t>
+  </si>
+  <si>
+    <t>开发计划</t>
+  </si>
+  <si>
+    <t>王文军、唐海龙</t>
+  </si>
+  <si>
+    <t>week6</t>
+  </si>
+  <si>
+    <t>week_OutPut6.1</t>
+  </si>
+  <si>
+    <t>11/8小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut6.2</t>
+  </si>
+  <si>
+    <t>11/11小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut6.3</t>
+  </si>
+  <si>
+    <t>week_OutPut6.4</t>
+  </si>
+  <si>
+    <t>week_OutPut6.5</t>
+  </si>
+  <si>
+    <t>OutPut8.2</t>
+  </si>
+  <si>
+    <t>代码管理仓库（代码开发）</t>
+  </si>
+  <si>
+    <t>OutPut8.3</t>
+  </si>
+  <si>
+    <t>代码评审报告</t>
+  </si>
+  <si>
+    <t>0/2</t>
   </si>
 </sst>
 </file>
@@ -462,45 +510,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="37">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="186" formatCode="m/d"/>
+    <numFmt numFmtId="187" formatCode="yy/m/d"/>
+    <numFmt numFmtId="188" formatCode="mmmmm"/>
+    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="m/d"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="182" formatCode="yy/m/d"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="183" formatCode="mmmmm"/>
-    <numFmt numFmtId="184" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="189" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="190" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="#\ ??"/>
+    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="196" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="197" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="198" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="#\ ??"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="198" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="200" formatCode="mmmmm\-yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,15 +575,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,17 +596,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +618,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -588,32 +640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,10 +663,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,8 +687,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,16 +724,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,12 +747,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +830,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +896,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,103 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,15 +1033,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1029,21 +1068,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1069,88 +1093,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,65 +1207,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,13 +1340,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1307,61 +1364,49 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1370,7 +1415,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1382,24 +1427,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1719,12 +1777,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N55" sqref="N55:N61"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54:O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1956,10 +2014,10 @@
       <c r="H6" s="40">
         <v>44476</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="49">
         <v>1</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="49">
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -1992,10 +2050,10 @@
       <c r="H7" s="39">
         <v>44475</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="49">
         <v>1</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="49">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -2028,10 +2086,10 @@
       <c r="H8" s="42">
         <v>44470</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>2</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="50">
         <v>2</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -2210,10 +2268,10 @@
       <c r="H13" s="36">
         <v>44478</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="51">
         <v>1.5</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="51">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2248,10 +2306,10 @@
       <c r="H14" s="38">
         <v>44467</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <v>1</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="50">
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -2284,10 +2342,10 @@
       <c r="H15" s="38">
         <v>44476</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <v>1</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="50">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -2320,7 +2378,7 @@
       <c r="H16" s="38">
         <v>44476</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <v>3</v>
       </c>
       <c r="J16" s="8">
@@ -2356,7 +2414,7 @@
       <c r="H17" s="38">
         <v>44479</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>1</v>
       </c>
       <c r="J17" s="8">
@@ -2392,7 +2450,7 @@
       <c r="H18" s="38">
         <v>44479</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <v>4</v>
       </c>
       <c r="J18" s="8">
@@ -2612,10 +2670,10 @@
       <c r="H24" s="36">
         <v>44481</v>
       </c>
-      <c r="I24" s="52">
+      <c r="I24" s="51">
         <v>1</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="51">
         <v>2</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -2720,7 +2778,7 @@
       <c r="H27" s="38">
         <v>44486</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <v>1</v>
       </c>
       <c r="J27" s="8">
@@ -2756,7 +2814,7 @@
       <c r="H28" s="38">
         <v>44486</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="50">
         <v>4</v>
       </c>
       <c r="J28" s="8">
@@ -2803,16 +2861,16 @@
       <c r="K29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="O29" s="58" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2839,25 +2897,25 @@
       <c r="H30" s="38">
         <v>44493</v>
       </c>
-      <c r="I30" s="52">
+      <c r="I30" s="51">
         <v>12</v>
       </c>
-      <c r="J30" s="52">
+      <c r="J30" s="51">
         <v>18</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="52" t="s">
         <v>84</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="57">
+      <c r="N30" s="56">
         <v>8</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="56">
         <v>11</v>
       </c>
     </row>
@@ -2893,16 +2951,16 @@
       <c r="K31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="54" t="s">
+      <c r="L31" s="53" t="s">
         <v>87</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="56">
         <v>8.5</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="56">
         <v>11</v>
       </c>
     </row>
@@ -2938,16 +2996,16 @@
       <c r="K32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="52" t="s">
         <v>90</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="57">
+      <c r="N32" s="56">
         <v>7.5</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="56">
         <v>10</v>
       </c>
     </row>
@@ -2983,16 +3041,16 @@
       <c r="K33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="L33" s="53" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="57">
+      <c r="N33" s="56">
         <v>8</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="56">
         <v>7</v>
       </c>
     </row>
@@ -3028,16 +3086,16 @@
       <c r="K34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="54" t="s">
+      <c r="L34" s="53" t="s">
         <v>22</v>
       </c>
       <c r="M34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="57">
+      <c r="N34" s="56">
         <v>9</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="56">
         <v>11</v>
       </c>
     </row>
@@ -3073,16 +3131,16 @@
       <c r="K35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="54" t="s">
+      <c r="L35" s="53" t="s">
         <v>22</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="57">
+      <c r="N35" s="56">
         <v>10</v>
       </c>
-      <c r="O35" s="57">
+      <c r="O35" s="56">
         <v>12</v>
       </c>
     </row>
@@ -3118,17 +3176,17 @@
       <c r="K36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="54" t="s">
+      <c r="L36" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="57" t="s">
+      <c r="M36" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="57">
+      <c r="N36" s="56">
         <f>SUM(N30:N35)</f>
         <v>51</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="56">
         <f>SUM(O30:O35)</f>
         <v>62</v>
       </c>
@@ -3165,16 +3223,16 @@
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="54" t="s">
+      <c r="L37" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="57" t="s">
+      <c r="M37" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="61" t="s">
+      <c r="N37" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="O37" s="57"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
@@ -3351,7 +3409,7 @@
       <c r="J42" s="20">
         <v>3</v>
       </c>
-      <c r="K42" s="55" t="s">
+      <c r="K42" s="54" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="20" t="s">
@@ -3383,10 +3441,10 @@
       <c r="H43" s="45">
         <v>44500</v>
       </c>
-      <c r="I43" s="56">
+      <c r="I43" s="55">
         <v>2</v>
       </c>
-      <c r="J43" s="56">
+      <c r="J43" s="55">
         <v>4</v>
       </c>
       <c r="K43" s="23" t="s">
@@ -3395,13 +3453,13 @@
       <c r="L43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="60" t="s">
+      <c r="M43" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="N43" s="60" t="s">
+      <c r="N43" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="O43" s="60" t="s">
+      <c r="O43" s="58" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3413,8 +3471,8 @@
       <c r="C44" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>116</v>
+      <c r="D44" s="25" t="s">
+        <v>15</v>
       </c>
       <c r="E44" s="45">
         <v>44495</v>
@@ -3423,13 +3481,17 @@
         <v>44498</v>
       </c>
       <c r="G44" s="45">
-        <v>44499</v>
-      </c>
-      <c r="H44" s="45"/>
-      <c r="I44" s="56">
+        <v>44501</v>
+      </c>
+      <c r="H44" s="45">
+        <v>44501</v>
+      </c>
+      <c r="I44" s="55">
         <v>2</v>
       </c>
-      <c r="J44" s="56"/>
+      <c r="J44" s="55">
+        <v>4</v>
+      </c>
       <c r="K44" s="23" t="s">
         <v>22</v>
       </c>
@@ -3439,35 +3501,42 @@
       <c r="M44" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N44" s="57">
+      <c r="N44" s="56">
         <v>4.5</v>
       </c>
-      <c r="O44" s="57">
+      <c r="O44" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="23"/>
       <c r="B45" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="46">
+      <c r="D45" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="45">
         <v>44495</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="45">
         <v>44498</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="45">
+        <v>44502</v>
+      </c>
+      <c r="H45" s="45">
+        <v>44502</v>
+      </c>
       <c r="I45" s="23">
         <v>2</v>
       </c>
-      <c r="J45" s="23"/>
+      <c r="J45" s="23">
+        <v>2</v>
+      </c>
       <c r="K45" s="23" t="s">
         <v>25</v>
       </c>
@@ -3477,36 +3546,42 @@
       <c r="M45" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N45" s="57">
+      <c r="N45" s="56">
         <v>7</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="56">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="23"/>
       <c r="B46" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="E46" s="46">
+      <c r="D46" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="45">
         <v>44495</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="45">
         <v>44498</v>
       </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
+      <c r="G46" s="45">
+        <v>44504</v>
+      </c>
+      <c r="H46" s="45">
+        <v>44504</v>
+      </c>
       <c r="I46" s="23">
         <v>2</v>
       </c>
-      <c r="J46" s="23"/>
+      <c r="J46" s="23">
+        <v>2</v>
+      </c>
       <c r="K46" s="23" t="s">
         <v>22</v>
       </c>
@@ -3516,64 +3591,70 @@
       <c r="M46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="57">
+      <c r="N46" s="56">
         <v>5</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="46">
+      <c r="D47" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="45">
         <v>44497</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="45">
         <v>44504</v>
       </c>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
+      <c r="G47" s="45">
+        <v>44504</v>
+      </c>
+      <c r="H47" s="45">
+        <v>44507</v>
+      </c>
       <c r="I47" s="23">
-        <v>14</v>
-      </c>
-      <c r="J47" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="J47" s="23">
+        <v>6</v>
+      </c>
       <c r="K47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="57" t="s">
+      <c r="L47" s="56" t="s">
         <v>87</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N47" s="57">
+      <c r="N47" s="56">
         <v>6.5</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="23"/>
       <c r="B48" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="E48" s="46">
         <v>44497</v>
@@ -3584,37 +3665,37 @@
       <c r="G48" s="46"/>
       <c r="H48" s="46"/>
       <c r="I48" s="23">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="57" t="s">
+      <c r="L48" s="56" t="s">
         <v>78</v>
       </c>
       <c r="M48" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="56">
         <v>8</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>130</v>
       </c>
       <c r="E49" s="47">
         <v>44494</v>
@@ -3628,36 +3709,36 @@
       <c r="H49" s="47">
         <v>44500</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="27">
         <v>2</v>
       </c>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29" t="s">
+      <c r="J49" s="27"/>
+      <c r="K49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="29" t="s">
+      <c r="L49" s="27" t="s">
         <v>19</v>
       </c>
       <c r="M49" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N49" s="57">
+      <c r="N49" s="56">
         <v>8</v>
       </c>
-      <c r="O49" s="57">
+      <c r="O49" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="23"/>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>130</v>
+      <c r="D50" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="E50" s="47">
         <v>44497</v>
@@ -3671,24 +3752,24 @@
       <c r="H50" s="47">
         <v>44500</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="27">
         <v>2</v>
       </c>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29" t="s">
+      <c r="J50" s="27"/>
+      <c r="K50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L50" s="29" t="s">
+      <c r="L50" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="57" t="s">
+      <c r="M50" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="N50" s="57">
+      <c r="N50" s="56">
         <f>SUM(N44:N49)</f>
         <v>39</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="56">
         <f>SUM(O44:O49)</f>
         <v>20</v>
       </c>
@@ -3696,7 +3777,7 @@
     <row r="51" spans="1:15">
       <c r="A51" s="23"/>
       <c r="B51" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>51</v>
@@ -3728,18 +3809,18 @@
       <c r="L51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="57" t="s">
+      <c r="M51" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N51" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="O51" s="61"/>
+      <c r="N51" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="O51" s="59"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="23"/>
       <c r="B52" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>53</v>
@@ -3775,7 +3856,7 @@
     <row r="53" spans="1:12">
       <c r="A53" s="23"/>
       <c r="B53" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>55</v>
@@ -3804,12 +3885,12 @@
       <c r="K53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="57" t="s">
+      <c r="L53" s="56" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="30" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -3818,47 +3899,53 @@
       <c r="C54" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E54" s="48">
+      <c r="D54" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="46">
         <v>44501</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="46">
         <v>44501</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="58">
+      <c r="G54" s="46">
+        <v>44501</v>
+      </c>
+      <c r="H54" s="46">
+        <v>44501</v>
+      </c>
+      <c r="I54" s="23">
+        <v>2</v>
+      </c>
+      <c r="J54" s="23">
         <v>4</v>
       </c>
-      <c r="J54" s="58"/>
       <c r="K54" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="L54" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="60" t="s">
+      <c r="M54" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="N54" s="60" t="s">
+      <c r="N54" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="O54" s="60" t="s">
+      <c r="O54" s="58" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="23"/>
       <c r="B55" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>119</v>
+      <c r="D55" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E55" s="46">
         <v>44502</v>
@@ -3866,75 +3953,91 @@
       <c r="F55" s="46">
         <v>44503</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="46">
+        <v>44502</v>
+      </c>
+      <c r="H55" s="46">
+        <v>44502</v>
+      </c>
       <c r="I55" s="23">
         <v>2</v>
       </c>
-      <c r="J55" s="23"/>
+      <c r="J55" s="23">
+        <v>2</v>
+      </c>
       <c r="K55" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="23" t="s">
+      <c r="L55" s="56" t="s">
         <v>25</v>
       </c>
       <c r="M55" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N55" s="57">
-        <v>4</v>
-      </c>
-      <c r="O55" s="57"/>
+      <c r="N55" s="56">
+        <v>2</v>
+      </c>
+      <c r="O55" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="23"/>
       <c r="B56" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="28" t="s">
         <v>119</v>
       </c>
+      <c r="D56" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="E56" s="46">
-        <v>44502</v>
+        <v>44473</v>
       </c>
       <c r="F56" s="46">
-        <v>44503</v>
-      </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+        <v>44473</v>
+      </c>
+      <c r="G56" s="46">
+        <v>44504</v>
+      </c>
+      <c r="H56" s="46">
+        <v>44504</v>
+      </c>
       <c r="I56" s="23">
         <v>2</v>
       </c>
-      <c r="J56" s="23"/>
+      <c r="J56" s="23">
+        <v>2</v>
+      </c>
       <c r="K56" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="L56" s="56" t="s">
         <v>22</v>
       </c>
       <c r="M56" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="57">
-        <v>9</v>
-      </c>
-      <c r="O56" s="57"/>
+      <c r="N56" s="56">
+        <v>6</v>
+      </c>
+      <c r="O56" s="56">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>119</v>
+      <c r="D57" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E57" s="46">
         <v>44504</v>
@@ -3942,89 +4045,105 @@
       <c r="F57" s="46">
         <v>44507</v>
       </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+      <c r="G57" s="46">
+        <v>44504</v>
+      </c>
+      <c r="H57" s="46">
+        <v>44507</v>
+      </c>
       <c r="I57" s="23">
-        <v>14</v>
-      </c>
-      <c r="J57" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="J57" s="23">
+        <v>6</v>
+      </c>
       <c r="K57" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="57" t="s">
+      <c r="L57" s="56" t="s">
         <v>87</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="57">
-        <v>9</v>
-      </c>
-      <c r="O57" s="57"/>
+      <c r="N57" s="56">
+        <v>6</v>
+      </c>
+      <c r="O57" s="56">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="23"/>
       <c r="B58" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="E58" s="46">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="F58" s="46">
-        <v>44514</v>
+        <v>44511</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="46"/>
       <c r="I58" s="23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J58" s="23"/>
       <c r="K58" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="57" t="s">
+      <c r="L58" s="56" t="s">
         <v>78</v>
       </c>
       <c r="M58" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="57">
-        <v>6</v>
-      </c>
-      <c r="O58" s="57"/>
+      <c r="N58" s="56">
+        <v>4</v>
+      </c>
+      <c r="O58" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="C59" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="49">
-        <v>44494</v>
-      </c>
-      <c r="F59" s="49">
-        <v>44494</v>
-      </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
+      <c r="D59" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="48">
+        <v>44501</v>
+      </c>
+      <c r="F59" s="48">
+        <v>44501</v>
+      </c>
+      <c r="G59" s="48">
+        <v>44501</v>
+      </c>
+      <c r="H59" s="48">
+        <v>44501</v>
+      </c>
       <c r="I59" s="32">
-        <v>2</v>
-      </c>
-      <c r="J59" s="32"/>
-      <c r="K59" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59" s="32">
+        <v>1</v>
+      </c>
+      <c r="K59" s="30" t="s">
         <v>16</v>
       </c>
       <c r="L59" s="23" t="s">
@@ -4033,34 +4152,42 @@
       <c r="M59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N59" s="57">
-        <v>8</v>
-      </c>
-      <c r="O59" s="57"/>
+      <c r="N59" s="56">
+        <v>6</v>
+      </c>
+      <c r="O59" s="56">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="23"/>
       <c r="B60" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="49">
-        <v>44497</v>
-      </c>
-      <c r="F60" s="49">
-        <v>44497</v>
-      </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
+      <c r="D60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="48">
+        <v>44504</v>
+      </c>
+      <c r="F60" s="48">
+        <v>44504</v>
+      </c>
+      <c r="G60" s="48">
+        <v>44504</v>
+      </c>
+      <c r="H60" s="48">
+        <v>44504</v>
+      </c>
       <c r="I60" s="32">
-        <v>2</v>
-      </c>
-      <c r="J60" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="32">
+        <v>1</v>
+      </c>
       <c r="K60" s="23" t="s">
         <v>33</v>
       </c>
@@ -4070,122 +4197,469 @@
       <c r="M60" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N60" s="57">
-        <v>6</v>
-      </c>
-      <c r="O60" s="57"/>
+      <c r="N60" s="56">
+        <v>3</v>
+      </c>
+      <c r="O60" s="56">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="23"/>
       <c r="B61" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="28" t="s">
-        <v>119</v>
+      <c r="D61" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E61" s="46">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="F61" s="46">
-        <v>44500</v>
-      </c>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+        <v>44507</v>
+      </c>
+      <c r="G61" s="46">
+        <v>44507</v>
+      </c>
+      <c r="H61" s="46">
+        <v>44507</v>
+      </c>
       <c r="I61" s="23">
         <v>2</v>
       </c>
-      <c r="J61" s="23"/>
+      <c r="J61" s="23">
+        <v>2</v>
+      </c>
       <c r="K61" s="23" t="s">
         <v>19</v>
       </c>
       <c r="L61" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="57" t="s">
+      <c r="M61" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="N61" s="57">
+      <c r="N61" s="56">
         <f>SUM(N55:N60)</f>
-        <v>42</v>
-      </c>
-      <c r="O61" s="57"/>
+        <v>27</v>
+      </c>
+      <c r="O61" s="56">
+        <f>SUM(O55:O60)</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="23"/>
       <c r="B62" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="28" t="s">
-        <v>119</v>
+      <c r="D62" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E62" s="46">
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="F62" s="46">
-        <v>44500</v>
-      </c>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+        <v>44507</v>
+      </c>
+      <c r="G62" s="46">
+        <v>44507</v>
+      </c>
+      <c r="H62" s="46">
+        <v>44507</v>
+      </c>
       <c r="I62" s="23">
-        <v>2</v>
-      </c>
-      <c r="J62" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="J62" s="23">
+        <v>1</v>
+      </c>
       <c r="K62" s="23" t="s">
         <v>25</v>
       </c>
       <c r="L62" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="57" t="s">
+      <c r="M62" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N62" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="O62" s="61"/>
+      <c r="N62" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="O62" s="59"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="23"/>
       <c r="B63" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>119</v>
+      <c r="D63" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="E63" s="46">
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="F63" s="46">
-        <v>44500</v>
-      </c>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+        <v>44507</v>
+      </c>
+      <c r="G63" s="46">
+        <v>44501</v>
+      </c>
+      <c r="H63" s="46">
+        <v>44507</v>
+      </c>
       <c r="I63" s="23">
         <v>4</v>
       </c>
-      <c r="J63" s="23"/>
+      <c r="J63" s="23">
+        <v>4</v>
+      </c>
       <c r="K63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L63" s="57" t="s">
+      <c r="L63" s="56" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="46">
+        <v>44507</v>
+      </c>
+      <c r="F64" s="46">
+        <v>44511</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="23">
+        <v>14</v>
+      </c>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="N64" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="O64" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="46">
+        <v>44511</v>
+      </c>
+      <c r="F65" s="46">
+        <v>44515</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="23">
+        <v>4</v>
+      </c>
+      <c r="J65" s="23"/>
+      <c r="K65" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="56">
+        <v>7</v>
+      </c>
+      <c r="O65" s="56"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="46">
+        <v>44508</v>
+      </c>
+      <c r="F66" s="46">
+        <v>44508</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="23">
+        <v>1</v>
+      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N66" s="56">
+        <v>2</v>
+      </c>
+      <c r="O66" s="56"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="46">
+        <v>44511</v>
+      </c>
+      <c r="F67" s="46">
+        <v>44511</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="23">
+        <v>1</v>
+      </c>
+      <c r="J67" s="23"/>
+      <c r="K67" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="56">
+        <v>3</v>
+      </c>
+      <c r="O67" s="56"/>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="46">
+        <v>44508</v>
+      </c>
+      <c r="F68" s="46">
+        <v>44514</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="23">
+        <v>2</v>
+      </c>
+      <c r="J68" s="23"/>
+      <c r="K68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="56">
+        <v>8</v>
+      </c>
+      <c r="O68" s="56"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="46">
+        <v>44514</v>
+      </c>
+      <c r="F69" s="46">
+        <v>44514</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="23">
+        <v>1</v>
+      </c>
+      <c r="J69" s="23"/>
+      <c r="K69" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" s="56">
+        <v>1</v>
+      </c>
+      <c r="O69" s="56"/>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="46">
+        <v>44508</v>
+      </c>
+      <c r="F70" s="46">
+        <v>44514</v>
+      </c>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="23">
+        <v>4</v>
+      </c>
+      <c r="J70" s="23"/>
+      <c r="K70" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="56">
+        <v>2</v>
+      </c>
+      <c r="O70" s="56"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="N71" s="56">
+        <f>SUM(N65:N70)</f>
+        <v>23</v>
+      </c>
+      <c r="O71" s="56"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="23"/>
+      <c r="B72" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="N72" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="O72" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L53">
+  <autoFilter ref="A1:L72">
     <extLst/>
   </autoFilter>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -4200,6 +4674,8 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="174">
   <si>
     <t>流程</t>
   </si>
@@ -394,115 +394,151 @@
     <t>接口设计文档</t>
   </si>
   <si>
+    <t>week4</t>
+  </si>
+  <si>
+    <t>week_OutPut4.1</t>
+  </si>
+  <si>
+    <t>10/25小组会议记录(内部评审)</t>
+  </si>
+  <si>
+    <t>时间冲突</t>
+  </si>
+  <si>
+    <t>week_OutPut4.2</t>
+  </si>
+  <si>
+    <t>10/28小组会议记录(外部评审)</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>week_OutPut4.3</t>
+  </si>
+  <si>
+    <t>week_OutPut4.4</t>
+  </si>
+  <si>
+    <t>week_OutPut4.5</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>week_OutPut5.1</t>
+  </si>
+  <si>
+    <t>11/1小组会议记录</t>
+  </si>
+  <si>
+    <t>4/4</t>
+  </si>
+  <si>
+    <t>week_OutPut5.2</t>
+  </si>
+  <si>
+    <t>11/4小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut5.3</t>
+  </si>
+  <si>
+    <t>week_OutPut5.4</t>
+  </si>
+  <si>
+    <t>week_OutPut5.5</t>
+  </si>
+  <si>
+    <t>part8</t>
+  </si>
+  <si>
+    <t>OutPut8.1</t>
+  </si>
+  <si>
+    <t>开发计划</t>
+  </si>
+  <si>
+    <t>王文军、唐海龙</t>
+  </si>
+  <si>
+    <t>OutPut8.2</t>
+  </si>
+  <si>
+    <t>代码管理仓库</t>
+  </si>
+  <si>
+    <t>week6</t>
+  </si>
+  <si>
+    <t>week_OutPut6.1</t>
+  </si>
+  <si>
+    <t>11/8小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut6.2</t>
+  </si>
+  <si>
+    <t>11/11小组会议记录</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>week_OutPut6.3</t>
+  </si>
+  <si>
+    <t>week_OutPut6.4</t>
+  </si>
+  <si>
+    <t>week_OutPut6.5</t>
+  </si>
+  <si>
+    <t>OutPut8.3</t>
+  </si>
+  <si>
+    <t>代码开发</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>week4</t>
-  </si>
-  <si>
-    <t>week_OutPut4.1</t>
-  </si>
-  <si>
-    <t>10/25小组会议记录(内部评审)</t>
-  </si>
-  <si>
-    <t>时间冲突</t>
-  </si>
-  <si>
-    <t>week_OutPut4.2</t>
-  </si>
-  <si>
-    <t>10/28小组会议记录(外部评审)</t>
-  </si>
-  <si>
-    <t>week_OutPut4.3</t>
-  </si>
-  <si>
-    <t>2/5</t>
-  </si>
-  <si>
-    <t>week_OutPut4.4</t>
-  </si>
-  <si>
-    <t>week_OutPut4.5</t>
-  </si>
-  <si>
-    <t>week5</t>
-  </si>
-  <si>
-    <t>week_OutPut5.1</t>
-  </si>
-  <si>
-    <t>11/1小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut5.2</t>
-  </si>
-  <si>
-    <t>11/4小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut5.3</t>
-  </si>
-  <si>
-    <t>week_OutPut5.4</t>
-  </si>
-  <si>
-    <t>4/4</t>
-  </si>
-  <si>
-    <t>week_OutPut5.5</t>
-  </si>
-  <si>
-    <t>part8</t>
-  </si>
-  <si>
-    <t>OutPut8.1</t>
-  </si>
-  <si>
-    <t>开发计划</t>
-  </si>
-  <si>
-    <t>王文军、唐海龙</t>
-  </si>
-  <si>
-    <t>week6</t>
-  </si>
-  <si>
-    <t>week_OutPut6.1</t>
-  </si>
-  <si>
-    <t>11/8小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut6.2</t>
-  </si>
-  <si>
-    <t>11/11小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut6.3</t>
-  </si>
-  <si>
-    <t>week_OutPut6.4</t>
-  </si>
-  <si>
-    <t>week_OutPut6.5</t>
-  </si>
-  <si>
-    <t>OutPut8.2</t>
-  </si>
-  <si>
-    <t>代码管理仓库（代码开发）</t>
-  </si>
-  <si>
-    <t>OutPut8.3</t>
+    <t>week7</t>
+  </si>
+  <si>
+    <t>week_OutPut7.1</t>
+  </si>
+  <si>
+    <t>11/15小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut7.2</t>
+  </si>
+  <si>
+    <t>11/18小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut7.3</t>
+  </si>
+  <si>
+    <t>week_OutPut7.4</t>
+  </si>
+  <si>
+    <t>week_OutPut7.5</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>OutPut8.4</t>
   </si>
   <si>
     <t>代码评审报告</t>
   </si>
   <si>
-    <t>0/2</t>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -510,43 +546,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="37">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="184" formatCode="yy/m/d"/>
+    <numFmt numFmtId="185" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="186" formatCode="mmmmm"/>
+    <numFmt numFmtId="187" formatCode="#\ ??"/>
+    <numFmt numFmtId="188" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="186" formatCode="m/d"/>
-    <numFmt numFmtId="187" formatCode="yy/m/d"/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="189" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="192" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="190" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="198" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="#\ ??"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="196" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="197" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="198" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -588,6 +624,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -604,7 +647,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,15 +661,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,10 +708,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,19 +724,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,21 +739,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -710,16 +747,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,12 +783,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +818,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,13 +878,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,19 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,55 +956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,42 +980,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1044,19 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
@@ -1021,10 +1070,62 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,17 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,194 +1179,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,7 +1335,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1340,73 +1402,88 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,46 +1492,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1777,28 +1888,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C36" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M54" sqref="M54:O62"/>
+      <selection pane="bottomLeft" activeCell="M42" sqref="M42:O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.3833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.75" style="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.1166666666667" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.625" style="4" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="4" customWidth="1"/>
@@ -1818,16 +1927,16 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1856,16 +1965,16 @@
       <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="38">
         <v>44468</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="39">
         <v>44469</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="38">
         <v>44469</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="39">
         <v>44470</v>
       </c>
       <c r="I2" s="8">
@@ -1892,16 +2001,16 @@
       <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="40">
         <v>44468</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="41">
         <v>44468</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="40">
         <v>44468</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="41">
         <v>44468</v>
       </c>
       <c r="I3" s="8">
@@ -1928,16 +2037,16 @@
       <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="40">
         <v>44466</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="41">
         <v>44466</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="40">
         <v>44466</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="41">
         <v>44466</v>
       </c>
       <c r="I4" s="8">
@@ -1964,16 +2073,16 @@
       <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="40">
         <v>44469</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="41">
         <v>44470</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="40">
         <v>44469</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="41">
         <v>44470</v>
       </c>
       <c r="I5" s="8">
@@ -2002,22 +2111,22 @@
       <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="42">
         <v>44475</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="43">
         <v>44476</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="42">
         <v>44475</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="43">
         <v>44476</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="54">
         <v>1</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="54">
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
@@ -2038,22 +2147,22 @@
       <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="42">
         <v>44475</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="43">
         <v>44475</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="42">
         <v>44475</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="42">
         <v>44475</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="54">
         <v>1</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="54">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
@@ -2074,22 +2183,22 @@
       <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="44">
         <v>44469</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="45">
         <v>44470</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="44">
         <v>44469</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="45">
         <v>44470</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="55">
         <v>2</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="55">
         <v>2</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -2112,16 +2221,16 @@
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="40">
         <v>44469</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="41">
         <v>44476</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="41">
         <v>44475</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="41">
         <v>44475</v>
       </c>
       <c r="I9" s="8">
@@ -2148,16 +2257,16 @@
       <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="40">
         <v>44469</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="41">
         <v>44476</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="41">
         <v>44475</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="41">
         <v>44475</v>
       </c>
       <c r="I10" s="8">
@@ -2184,16 +2293,16 @@
       <c r="D11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="40">
         <v>44475</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="41">
         <v>44476</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="40">
         <v>44476</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="41">
         <v>44476</v>
       </c>
       <c r="I11" s="8">
@@ -2220,16 +2329,16 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="38">
         <v>44474</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="39">
         <v>44475</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="38">
         <v>44477</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="39">
         <v>44478</v>
       </c>
       <c r="I12" s="8">
@@ -2256,22 +2365,22 @@
       <c r="D13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="38">
         <v>44475</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="39">
         <v>44475</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="38">
         <v>44477</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="39">
         <v>44478</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="56">
         <v>1.5</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="56">
         <v>4</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2294,22 +2403,22 @@
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="41">
         <v>44467</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="41">
         <v>44467</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="41">
         <v>44467</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="41">
         <v>44467</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="55">
         <v>1</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="55">
         <v>1</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -2330,22 +2439,22 @@
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="41">
         <v>44476</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="41">
         <v>44476</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="41">
         <v>44476</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="41">
         <v>44476</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="55">
         <v>1</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="55">
         <v>1</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -2366,19 +2475,19 @@
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="44">
         <v>44479</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="41">
         <v>44479</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="41">
         <v>44476</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="41">
         <v>44476</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="55">
         <v>3</v>
       </c>
       <c r="J16" s="8">
@@ -2402,19 +2511,19 @@
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="44">
         <v>44479</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="41">
         <v>44479</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="41">
         <v>44479</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="41">
         <v>44479</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="55">
         <v>1</v>
       </c>
       <c r="J17" s="8">
@@ -2438,19 +2547,19 @@
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="44">
         <v>44468</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="41">
         <v>44479</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="41">
         <v>44468</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="41">
         <v>44479</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="55">
         <v>4</v>
       </c>
       <c r="J18" s="8">
@@ -2476,16 +2585,16 @@
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="39">
         <v>44480</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="39">
         <v>44480</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="39">
         <v>44483</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="39">
         <v>44483</v>
       </c>
       <c r="I19" s="8">
@@ -2512,16 +2621,16 @@
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="41">
         <v>44484</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="41">
         <v>44485</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="41">
         <v>44483</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="41">
         <v>44483</v>
       </c>
       <c r="I20" s="8">
@@ -2548,16 +2657,16 @@
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="39">
         <v>44481</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="39">
         <v>44482</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="39">
         <v>44483</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="39">
         <v>44483</v>
       </c>
       <c r="I21" s="8">
@@ -2584,16 +2693,16 @@
       <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="41">
         <v>44482</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="41">
         <v>44483</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="41">
         <v>44483</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="41">
         <v>44483</v>
       </c>
       <c r="I22" s="8">
@@ -2620,16 +2729,16 @@
       <c r="D23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="41">
         <v>44483</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="41">
         <v>44484</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="41">
         <v>44481</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="41">
         <v>44481</v>
       </c>
       <c r="I23" s="8">
@@ -2658,22 +2767,22 @@
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="39">
         <v>44480</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="39">
         <v>44480</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="39">
         <v>44481</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="39">
         <v>44481</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="56">
         <v>1</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="56">
         <v>2</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -2694,16 +2803,16 @@
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="41">
         <v>44483</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="41">
         <v>44483</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="41">
         <v>44483</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="41">
         <v>44483</v>
       </c>
       <c r="I25" s="8">
@@ -2730,16 +2839,16 @@
       <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="41">
         <v>44480</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="41">
         <v>44486</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="41">
         <v>44483</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="41">
         <v>44486</v>
       </c>
       <c r="I26" s="8">
@@ -2766,19 +2875,19 @@
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="40">
         <v>44486</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="41">
         <v>44486</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="41">
         <v>44486</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="41">
         <v>44486</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="55">
         <v>1</v>
       </c>
       <c r="J27" s="8">
@@ -2802,19 +2911,19 @@
       <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="40">
         <v>44486</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="41">
         <v>44486</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="41">
         <v>44484</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="41">
         <v>44486</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="55">
         <v>4</v>
       </c>
       <c r="J28" s="8">
@@ -2840,16 +2949,16 @@
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="40">
         <v>44487</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="41">
         <v>44489</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="41">
         <v>44488</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="41">
         <v>44488</v>
       </c>
       <c r="I29" s="8">
@@ -2861,16 +2970,16 @@
       <c r="K29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="52" t="s">
+      <c r="L29" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="M29" s="57" t="s">
+      <c r="M29" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="N29" s="57" t="s">
+      <c r="N29" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="58" t="s">
+      <c r="O29" s="65" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2885,37 +2994,37 @@
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="44">
         <v>44487</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="41">
         <v>44493</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="41">
         <v>44487</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="41">
         <v>44493</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="56">
         <v>12</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="56">
         <v>18</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="57" t="s">
         <v>84</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="56">
+      <c r="N30" s="61">
         <v>8</v>
       </c>
-      <c r="O30" s="56">
+      <c r="O30" s="61">
         <v>11</v>
       </c>
     </row>
@@ -2930,16 +3039,16 @@
       <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="44">
         <v>44487</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="41">
         <v>44492</v>
       </c>
       <c r="G31" s="3">
         <v>44487</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="41">
         <v>44491</v>
       </c>
       <c r="I31" s="8">
@@ -2951,16 +3060,16 @@
       <c r="K31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="58" t="s">
         <v>87</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="61">
         <v>8.5</v>
       </c>
-      <c r="O31" s="56">
+      <c r="O31" s="61">
         <v>11</v>
       </c>
     </row>
@@ -2975,16 +3084,16 @@
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="41">
         <v>44492</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="41">
         <v>44495</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="41">
         <v>44487</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="41">
         <v>44492</v>
       </c>
       <c r="I32" s="8">
@@ -2996,16 +3105,16 @@
       <c r="K32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="52" t="s">
+      <c r="L32" s="57" t="s">
         <v>90</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="56">
+      <c r="N32" s="61">
         <v>7.5</v>
       </c>
-      <c r="O32" s="56">
+      <c r="O32" s="61">
         <v>10</v>
       </c>
     </row>
@@ -3020,16 +3129,16 @@
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="41">
         <v>44487</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="41">
         <v>44491</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="41">
         <v>44488</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="41">
         <v>44489</v>
       </c>
       <c r="I33" s="8">
@@ -3041,16 +3150,16 @@
       <c r="K33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="58" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="61">
         <v>8</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="61">
         <v>7</v>
       </c>
     </row>
@@ -3065,16 +3174,16 @@
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="44">
         <v>44491</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="41">
         <v>44494</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="41">
         <v>44488</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="41">
         <v>44491</v>
       </c>
       <c r="I34" s="8">
@@ -3086,16 +3195,16 @@
       <c r="K34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="58" t="s">
         <v>22</v>
       </c>
       <c r="M34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N34" s="56">
+      <c r="N34" s="61">
         <v>9</v>
       </c>
-      <c r="O34" s="56">
+      <c r="O34" s="61">
         <v>11</v>
       </c>
     </row>
@@ -3110,16 +3219,16 @@
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="44">
         <v>44491</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="41">
         <v>44494</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="41">
         <v>44488</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="41">
         <v>44491</v>
       </c>
       <c r="I35" s="8">
@@ -3131,16 +3240,16 @@
       <c r="K35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="53" t="s">
+      <c r="L35" s="58" t="s">
         <v>22</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="61">
         <v>10</v>
       </c>
-      <c r="O35" s="56">
+      <c r="O35" s="61">
         <v>12</v>
       </c>
     </row>
@@ -3155,16 +3264,16 @@
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="44">
         <v>44494</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="41">
         <v>44497</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="41">
         <v>44494</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="41">
         <v>44497</v>
       </c>
       <c r="I36" s="8">
@@ -3176,17 +3285,17 @@
       <c r="K36" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="53" t="s">
+      <c r="L36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="56" t="s">
+      <c r="M36" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N36" s="56">
+      <c r="N36" s="61">
         <f>SUM(N30:N35)</f>
         <v>51</v>
       </c>
-      <c r="O36" s="56">
+      <c r="O36" s="61">
         <f>SUM(O30:O35)</f>
         <v>62</v>
       </c>
@@ -3202,16 +3311,16 @@
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="45">
         <v>44494</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="41">
         <v>44497</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="41">
         <v>44488</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="41">
         <v>44491</v>
       </c>
       <c r="I37" s="8">
@@ -3223,16 +3332,16 @@
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="53" t="s">
+      <c r="L37" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="56" t="s">
+      <c r="M37" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N37" s="59" t="s">
+      <c r="N37" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="O37" s="56"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
@@ -3247,16 +3356,16 @@
       <c r="D38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="41">
         <v>44487</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="41">
         <v>44487</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="41">
         <v>44487</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="41">
         <v>44487</v>
       </c>
       <c r="I38" s="8">
@@ -3283,16 +3392,16 @@
       <c r="D39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="45">
         <v>44490</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="41">
         <v>44490</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="41">
         <v>44490</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="41">
         <v>44490</v>
       </c>
       <c r="I39" s="8">
@@ -3319,16 +3428,16 @@
       <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="41">
         <v>44487</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="41">
         <v>44493</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="41">
         <v>44493</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="41">
         <v>44493</v>
       </c>
       <c r="I40" s="8">
@@ -3355,16 +3464,16 @@
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="41">
         <v>44493</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="41">
         <v>44493</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="41">
         <v>44493</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="41">
         <v>44493</v>
       </c>
       <c r="I41" s="8">
@@ -3380,7 +3489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>110</v>
@@ -3391,16 +3500,16 @@
       <c r="D42" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="46">
         <v>44487</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="47">
         <v>44493</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="47">
         <v>44493</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="47">
         <v>44493</v>
       </c>
       <c r="I42" s="20">
@@ -3409,11 +3518,20 @@
       <c r="J42" s="20">
         <v>3</v>
       </c>
-      <c r="K42" s="54" t="s">
+      <c r="K42" s="59" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="20" t="s">
         <v>56</v>
+      </c>
+      <c r="M42" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N42" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3429,22 +3547,22 @@
       <c r="D43" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="48">
         <v>44495</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="48">
         <v>44498</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="48">
         <v>44500</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="48">
         <v>44500</v>
       </c>
-      <c r="I43" s="55">
+      <c r="I43" s="60">
         <v>2</v>
       </c>
-      <c r="J43" s="55">
+      <c r="J43" s="60">
         <v>4</v>
       </c>
       <c r="K43" s="23" t="s">
@@ -3453,14 +3571,14 @@
       <c r="L43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N43" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="O43" s="58" t="s">
-        <v>81</v>
+      <c r="M43" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="O43" s="61">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3474,22 +3592,22 @@
       <c r="D44" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="48">
         <v>44495</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="48">
         <v>44498</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="48">
         <v>44501</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="48">
         <v>44501</v>
       </c>
-      <c r="I44" s="55">
+      <c r="I44" s="60">
         <v>2</v>
       </c>
-      <c r="J44" s="55">
+      <c r="J44" s="60">
         <v>4</v>
       </c>
       <c r="K44" s="23" t="s">
@@ -3499,12 +3617,12 @@
         <v>22</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" s="56">
-        <v>4.5</v>
-      </c>
-      <c r="O44" s="56">
+        <v>33</v>
+      </c>
+      <c r="N44" s="61">
+        <v>7</v>
+      </c>
+      <c r="O44" s="61">
         <v>3</v>
       </c>
     </row>
@@ -3519,16 +3637,16 @@
       <c r="D45" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="48">
         <v>44495</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="48">
         <v>44498</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="48">
         <v>44502</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="48">
         <v>44502</v>
       </c>
       <c r="I45" s="23">
@@ -3544,13 +3662,13 @@
         <v>25</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="56">
-        <v>7</v>
-      </c>
-      <c r="O45" s="56">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="N45" s="61">
+        <v>5</v>
+      </c>
+      <c r="O45" s="61">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3564,16 +3682,16 @@
       <c r="D46" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="48">
         <v>44495</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="48">
         <v>44498</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="48">
         <v>44504</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="48">
         <v>44504</v>
       </c>
       <c r="I46" s="23">
@@ -3589,12 +3707,12 @@
         <v>22</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="56">
-        <v>5</v>
-      </c>
-      <c r="O46" s="56">
+        <v>19</v>
+      </c>
+      <c r="N46" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="O46" s="61">
         <v>2</v>
       </c>
     </row>
@@ -3611,16 +3729,16 @@
       <c r="D47" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="48">
         <v>44497</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="48">
         <v>44504</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="48">
         <v>44504</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="48">
         <v>44507</v>
       </c>
       <c r="I47" s="23">
@@ -3632,17 +3750,17 @@
       <c r="K47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L47" s="56" t="s">
+      <c r="L47" s="61" t="s">
         <v>87</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N47" s="56">
-        <v>6.5</v>
-      </c>
-      <c r="O47" s="56">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="N47" s="61">
+        <v>8</v>
+      </c>
+      <c r="O47" s="61">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3653,126 +3771,130 @@
       <c r="C48" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="46">
+      <c r="D48" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="48">
         <v>44497</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="48">
         <v>44504</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="G48" s="48">
+        <v>44508</v>
+      </c>
+      <c r="H48" s="48">
+        <v>44511</v>
+      </c>
       <c r="I48" s="23">
-        <v>8</v>
-      </c>
-      <c r="J48" s="23"/>
+        <v>6</v>
+      </c>
+      <c r="J48" s="23">
+        <v>4</v>
+      </c>
       <c r="K48" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="56" t="s">
+      <c r="L48" s="61" t="s">
         <v>78</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" s="56">
+        <v>25</v>
+      </c>
+      <c r="N48" s="61">
         <v>8</v>
       </c>
-      <c r="O48" s="56">
+      <c r="O48" s="61">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="C49" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="D49" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="47">
+      <c r="E49" s="49">
         <v>44494</v>
       </c>
-      <c r="F49" s="47">
+      <c r="F49" s="49">
         <v>44494</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="49">
         <v>44500</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="49">
         <v>44500</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="26">
         <v>2</v>
       </c>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27" t="s">
+      <c r="J49" s="26"/>
+      <c r="K49" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="27" t="s">
+      <c r="L49" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="56">
-        <v>8</v>
-      </c>
-      <c r="O49" s="56">
-        <v>5</v>
+      <c r="M49" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N49" s="61">
+        <f>SUM(N43:N48)</f>
+        <v>39</v>
+      </c>
+      <c r="O49" s="61">
+        <f>SUM(O43:O48)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="23"/>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="D50" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="49">
+        <v>44497</v>
+      </c>
+      <c r="F50" s="49">
+        <v>44497</v>
+      </c>
+      <c r="G50" s="49">
+        <v>44500</v>
+      </c>
+      <c r="H50" s="49">
+        <v>44500</v>
+      </c>
+      <c r="I50" s="26">
+        <v>2</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N50" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="47">
-        <v>44497</v>
-      </c>
-      <c r="F50" s="47">
-        <v>44497</v>
-      </c>
-      <c r="G50" s="47">
-        <v>44500</v>
-      </c>
-      <c r="H50" s="47">
-        <v>44500</v>
-      </c>
-      <c r="I50" s="27">
-        <v>2</v>
-      </c>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M50" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="N50" s="56">
-        <f>SUM(N44:N49)</f>
-        <v>39</v>
-      </c>
-      <c r="O50" s="56">
-        <f>SUM(O44:O49)</f>
-        <v>20</v>
-      </c>
+      <c r="O50" s="66"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="23"/>
@@ -3785,16 +3907,16 @@
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="50">
         <v>44494</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="50">
         <v>44500</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="50">
         <v>44500</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="50">
         <v>44500</v>
       </c>
       <c r="I51" s="23">
@@ -3809,18 +3931,20 @@
       <c r="L51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="N51" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="O51" s="59"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N51" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O51" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="23"/>
       <c r="B52" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>53</v>
@@ -3828,16 +3952,16 @@
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="50">
         <v>44500</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="50">
         <v>44500</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="50">
         <v>44500</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="50">
         <v>44500</v>
       </c>
       <c r="I52" s="23">
@@ -3852,11 +3976,20 @@
       <c r="L52" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="61">
+        <v>2</v>
+      </c>
+      <c r="O52" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="23"/>
       <c r="B53" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>55</v>
@@ -3864,16 +3997,16 @@
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="50">
         <v>44494</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="50">
         <v>44500</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="50">
         <v>44500</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="50">
         <v>44500</v>
       </c>
       <c r="I53" s="23">
@@ -3885,12 +4018,21 @@
       <c r="K53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="56" t="s">
+      <c r="L53" s="61" t="s">
         <v>56</v>
       </c>
+      <c r="M53" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N53" s="61">
+        <v>6</v>
+      </c>
+      <c r="O53" s="61">
+        <v>6</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -3902,16 +4044,16 @@
       <c r="D54" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="50">
         <v>44501</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="50">
         <v>44501</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="50">
         <v>44501</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="50">
         <v>44501</v>
       </c>
       <c r="I54" s="23">
@@ -3923,17 +4065,17 @@
       <c r="K54" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="56" t="s">
+      <c r="L54" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N54" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="O54" s="58" t="s">
-        <v>81</v>
+      <c r="M54" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="61">
+        <v>6</v>
+      </c>
+      <c r="O54" s="61">
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3947,16 +4089,16 @@
       <c r="D55" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="50">
         <v>44502</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="50">
         <v>44503</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="50">
         <v>44502</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="50">
         <v>44502</v>
       </c>
       <c r="I55" s="23">
@@ -3968,17 +4110,17 @@
       <c r="K55" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L55" s="56" t="s">
+      <c r="L55" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M55" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N55" s="56">
-        <v>2</v>
-      </c>
-      <c r="O55" s="56">
-        <v>1</v>
+      <c r="M55" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="61">
+        <v>4</v>
+      </c>
+      <c r="O55" s="61">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3992,16 +4134,16 @@
       <c r="D56" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="50">
         <v>44473</v>
       </c>
-      <c r="F56" s="46">
+      <c r="F56" s="50">
         <v>44473</v>
       </c>
-      <c r="G56" s="46">
+      <c r="G56" s="50">
         <v>44504</v>
       </c>
-      <c r="H56" s="46">
+      <c r="H56" s="50">
         <v>44504</v>
       </c>
       <c r="I56" s="23">
@@ -4013,21 +4155,21 @@
       <c r="K56" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="L56" s="56" t="s">
+      <c r="L56" s="61" t="s">
         <v>22</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N56" s="56">
+        <v>22</v>
+      </c>
+      <c r="N56" s="67">
         <v>6</v>
       </c>
-      <c r="O56" s="56">
+      <c r="O56" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4039,16 +4181,16 @@
       <c r="D57" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="50">
         <v>44504</v>
       </c>
-      <c r="F57" s="46">
+      <c r="F57" s="50">
         <v>44507</v>
       </c>
-      <c r="G57" s="46">
+      <c r="G57" s="50">
         <v>44504</v>
       </c>
-      <c r="H57" s="46">
+      <c r="H57" s="50">
         <v>44507</v>
       </c>
       <c r="I57" s="23">
@@ -4060,81 +4202,89 @@
       <c r="K57" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L57" s="56" t="s">
+      <c r="L57" s="61" t="s">
         <v>87</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="56">
-        <v>6</v>
-      </c>
-      <c r="O57" s="56">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="N57" s="67">
+        <v>3</v>
+      </c>
+      <c r="O57" s="61">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E58" s="46">
+      <c r="D58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="51">
         <v>44507</v>
       </c>
-      <c r="F58" s="46">
+      <c r="F58" s="51">
         <v>44511</v>
       </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="23">
+      <c r="G58" s="51">
+        <v>44508</v>
+      </c>
+      <c r="H58" s="51">
+        <v>44511</v>
+      </c>
+      <c r="I58" s="30">
         <v>4</v>
       </c>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23" t="s">
+      <c r="J58" s="30">
+        <v>4</v>
+      </c>
+      <c r="K58" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L58" s="56" t="s">
+      <c r="L58" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="M58" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N58" s="56">
-        <v>4</v>
-      </c>
-      <c r="O58" s="56">
-        <v>3</v>
+      <c r="M58" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N58" s="67">
+        <f>SUM(N52:N57)</f>
+        <v>27</v>
+      </c>
+      <c r="O58" s="61">
+        <f>SUM(O52:O57)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="C59" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="48">
+      <c r="D59" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="52">
         <v>44501</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="52">
         <v>44501</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="52">
         <v>44501</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H59" s="52">
         <v>44501</v>
       </c>
       <c r="I59" s="32">
@@ -4143,21 +4293,19 @@
       <c r="J59" s="32">
         <v>1</v>
       </c>
-      <c r="K59" s="30" t="s">
+      <c r="K59" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="L59" s="23" t="s">
+      <c r="L59" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N59" s="56">
-        <v>6</v>
-      </c>
-      <c r="O59" s="56">
-        <v>6</v>
-      </c>
+      <c r="M59" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N59" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="23"/>
@@ -4167,19 +4315,19 @@
       <c r="C60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="48">
+      <c r="D60" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="52">
         <v>44504</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="52">
         <v>44504</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="52">
         <v>44504</v>
       </c>
-      <c r="H60" s="48">
+      <c r="H60" s="52">
         <v>44504</v>
       </c>
       <c r="I60" s="32">
@@ -4188,478 +4336,798 @@
       <c r="J60" s="32">
         <v>1</v>
       </c>
-      <c r="K60" s="23" t="s">
+      <c r="K60" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L60" s="23" t="s">
+      <c r="L60" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M60" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="56">
-        <v>3</v>
-      </c>
-      <c r="O60" s="56">
-        <v>3</v>
+      <c r="M60" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N60" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="O60" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="23"/>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" s="46">
+      <c r="D61" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="53">
         <v>44501</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F61" s="53">
         <v>44507</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G61" s="53">
         <v>44507</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="53">
         <v>44507</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="35">
         <v>2</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="35">
         <v>2</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K61" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="56">
-        <f>SUM(N55:N60)</f>
-        <v>27</v>
-      </c>
-      <c r="O61" s="56">
-        <f>SUM(O55:O60)</f>
-        <v>25</v>
+      <c r="M61" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N61" s="67">
+        <v>4</v>
+      </c>
+      <c r="O61" s="61">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="23"/>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="46">
+      <c r="D62" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="53">
         <v>44507</v>
       </c>
-      <c r="F62" s="46">
+      <c r="F62" s="53">
         <v>44507</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G62" s="53">
         <v>44507</v>
       </c>
-      <c r="H62" s="46">
+      <c r="H62" s="53">
         <v>44507</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="35">
         <v>1</v>
       </c>
-      <c r="J62" s="23">
+      <c r="J62" s="35">
         <v>1</v>
       </c>
-      <c r="K62" s="23" t="s">
+      <c r="K62" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="L62" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="56" t="s">
+      <c r="M62" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N62" s="67">
+        <v>2</v>
+      </c>
+      <c r="O62" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="23"/>
+      <c r="B63" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="53">
+        <v>44501</v>
+      </c>
+      <c r="F63" s="53">
+        <v>44507</v>
+      </c>
+      <c r="G63" s="53">
+        <v>44501</v>
+      </c>
+      <c r="H63" s="53">
+        <v>44507</v>
+      </c>
+      <c r="I63" s="35">
+        <v>4</v>
+      </c>
+      <c r="J63" s="35">
+        <v>4</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="67">
+        <v>3</v>
+      </c>
+      <c r="O63" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="53">
+        <v>44507</v>
+      </c>
+      <c r="F64" s="53">
+        <v>44511</v>
+      </c>
+      <c r="G64" s="53">
+        <v>44508</v>
+      </c>
+      <c r="H64" s="53">
+        <v>44511</v>
+      </c>
+      <c r="I64" s="35">
+        <v>6</v>
+      </c>
+      <c r="J64" s="35">
+        <v>4</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="M64" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="67">
+        <v>4</v>
+      </c>
+      <c r="O64" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="53">
+        <v>44511</v>
+      </c>
+      <c r="F65" s="53">
+        <v>44515</v>
+      </c>
+      <c r="G65" s="53">
+        <v>44513</v>
+      </c>
+      <c r="H65" s="53">
+        <v>44514</v>
+      </c>
+      <c r="I65" s="35">
+        <v>4</v>
+      </c>
+      <c r="J65" s="35">
+        <v>3</v>
+      </c>
+      <c r="K65" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="M65" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N65" s="67">
+        <v>1</v>
+      </c>
+      <c r="O65" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="29"/>
+      <c r="B66" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="53">
+        <v>44512</v>
+      </c>
+      <c r="F66" s="53">
+        <v>44513</v>
+      </c>
+      <c r="G66" s="53">
+        <v>44513</v>
+      </c>
+      <c r="H66" s="53">
+        <v>44513</v>
+      </c>
+      <c r="I66" s="35">
+        <v>1</v>
+      </c>
+      <c r="J66" s="35">
+        <v>1</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="67">
+        <v>2</v>
+      </c>
+      <c r="O66" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="53">
+        <v>44508</v>
+      </c>
+      <c r="F67" s="53">
+        <v>44508</v>
+      </c>
+      <c r="G67" s="53">
+        <v>44508</v>
+      </c>
+      <c r="H67" s="53">
+        <v>44508</v>
+      </c>
+      <c r="I67" s="35">
+        <v>1</v>
+      </c>
+      <c r="J67" s="35">
+        <v>1</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="N67" s="79">
+        <f>SUM(N61:N66)</f>
+        <v>16</v>
+      </c>
+      <c r="O67" s="61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="29"/>
+      <c r="B68" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="53">
+        <v>44511</v>
+      </c>
+      <c r="F68" s="53">
+        <v>44511</v>
+      </c>
+      <c r="G68" s="53">
+        <v>44511</v>
+      </c>
+      <c r="H68" s="53">
+        <v>44511</v>
+      </c>
+      <c r="I68" s="35">
+        <v>1</v>
+      </c>
+      <c r="J68" s="35">
+        <v>1</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N62" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="O62" s="59"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23" t="s">
+      <c r="N68" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="O68" s="66"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="29"/>
+      <c r="B69" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="53">
+        <v>44508</v>
+      </c>
+      <c r="F69" s="53">
+        <v>44514</v>
+      </c>
+      <c r="G69" s="53">
+        <v>44508</v>
+      </c>
+      <c r="H69" s="53">
+        <v>44514</v>
+      </c>
+      <c r="I69" s="35">
+        <v>2</v>
+      </c>
+      <c r="J69" s="35">
+        <v>2</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="O69" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="29"/>
+      <c r="B70" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="53">
+        <v>44514</v>
+      </c>
+      <c r="F70" s="53">
+        <v>44514</v>
+      </c>
+      <c r="G70" s="53">
+        <v>44514</v>
+      </c>
+      <c r="H70" s="53">
+        <v>44514</v>
+      </c>
+      <c r="I70" s="35">
+        <v>1</v>
+      </c>
+      <c r="J70" s="35">
+        <v>1</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" s="67">
+        <v>12</v>
+      </c>
+      <c r="O70" s="61"/>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="29"/>
+      <c r="B71" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="53">
+        <v>44508</v>
+      </c>
+      <c r="F71" s="53">
+        <v>44514</v>
+      </c>
+      <c r="G71" s="53">
+        <v>44514</v>
+      </c>
+      <c r="H71" s="53">
+        <v>44514</v>
+      </c>
+      <c r="I71" s="35">
+        <v>4</v>
+      </c>
+      <c r="J71" s="35">
+        <v>4</v>
+      </c>
+      <c r="K71" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L71" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71" s="67">
+        <v>12</v>
+      </c>
+      <c r="O71" s="61"/>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="B72" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="53">
+        <v>44515</v>
+      </c>
+      <c r="F72" s="53">
+        <v>44528</v>
+      </c>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="35">
+        <v>72</v>
+      </c>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="67">
+        <v>12</v>
+      </c>
+      <c r="O72" s="61"/>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="74">
+        <v>44515</v>
+      </c>
+      <c r="F73" s="74">
+        <v>44515</v>
+      </c>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="75">
+        <v>1</v>
+      </c>
+      <c r="J73" s="75"/>
+      <c r="K73" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="67">
+        <v>12</v>
+      </c>
+      <c r="O73" s="61"/>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="72"/>
+      <c r="B74" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="74">
+        <v>44518</v>
+      </c>
+      <c r="F74" s="74">
+        <v>44518</v>
+      </c>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="75">
+        <v>1</v>
+      </c>
+      <c r="J74" s="75"/>
+      <c r="K74" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="67">
+        <v>12</v>
+      </c>
+      <c r="O74" s="61"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="72"/>
+      <c r="B75" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="74">
+        <v>44515</v>
+      </c>
+      <c r="F75" s="74">
+        <v>44521</v>
+      </c>
+      <c r="G75" s="74"/>
+      <c r="H75" s="74"/>
+      <c r="I75" s="75">
+        <v>3</v>
+      </c>
+      <c r="J75" s="75"/>
+      <c r="K75" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L75" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="67">
+        <v>12</v>
+      </c>
+      <c r="O75" s="61"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="72"/>
+      <c r="B76" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="74">
+        <v>44521</v>
+      </c>
+      <c r="F76" s="74">
+        <v>44521</v>
+      </c>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="75">
+        <v>1</v>
+      </c>
+      <c r="J76" s="75"/>
+      <c r="K76" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="M76" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="N76" s="81">
+        <f>SUM(N70:N75)</f>
+        <v>72</v>
+      </c>
+      <c r="O76" s="61"/>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="72"/>
+      <c r="B77" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="46">
-        <v>44501</v>
-      </c>
-      <c r="F63" s="46">
-        <v>44507</v>
-      </c>
-      <c r="G63" s="46">
-        <v>44501</v>
-      </c>
-      <c r="H63" s="46">
-        <v>44507</v>
-      </c>
-      <c r="I63" s="23">
+      <c r="D77" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="74">
+        <v>44515</v>
+      </c>
+      <c r="F77" s="74">
+        <v>44521</v>
+      </c>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="75">
         <v>4</v>
       </c>
-      <c r="J63" s="23">
-        <v>4</v>
-      </c>
-      <c r="K63" s="23" t="s">
+      <c r="J77" s="75"/>
+      <c r="K77" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L63" s="56" t="s">
+      <c r="L77" s="76" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="46">
-        <v>44507</v>
-      </c>
-      <c r="F64" s="46">
-        <v>44511</v>
-      </c>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="23">
-        <v>14</v>
-      </c>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L64" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="M64" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="N64" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="O64" s="58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="46">
-        <v>44511</v>
-      </c>
-      <c r="F65" s="46">
-        <v>44515</v>
-      </c>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="23">
-        <v>4</v>
-      </c>
-      <c r="J65" s="23"/>
-      <c r="K65" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N65" s="56">
-        <v>7</v>
-      </c>
-      <c r="O65" s="56"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="46">
-        <v>44508</v>
-      </c>
-      <c r="F66" s="46">
-        <v>44508</v>
-      </c>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-      <c r="I66" s="23">
-        <v>1</v>
-      </c>
-      <c r="J66" s="23"/>
-      <c r="K66" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L66" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N66" s="56">
-        <v>2</v>
-      </c>
-      <c r="O66" s="56"/>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67" s="46">
-        <v>44511</v>
-      </c>
-      <c r="F67" s="46">
-        <v>44511</v>
-      </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="23">
-        <v>1</v>
-      </c>
-      <c r="J67" s="23"/>
-      <c r="K67" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N67" s="56">
-        <v>3</v>
-      </c>
-      <c r="O67" s="56"/>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" s="46">
-        <v>44508</v>
-      </c>
-      <c r="F68" s="46">
-        <v>44514</v>
-      </c>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="23">
-        <v>2</v>
-      </c>
-      <c r="J68" s="23"/>
-      <c r="K68" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L68" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M68" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="56">
-        <v>8</v>
-      </c>
-      <c r="O68" s="56"/>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="46">
-        <v>44514</v>
-      </c>
-      <c r="F69" s="46">
-        <v>44514</v>
-      </c>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="23">
-        <v>1</v>
-      </c>
-      <c r="J69" s="23"/>
-      <c r="K69" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="L69" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="M69" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N69" s="56">
-        <v>1</v>
-      </c>
-      <c r="O69" s="56"/>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70" s="46">
-        <v>44508</v>
-      </c>
-      <c r="F70" s="46">
-        <v>44514</v>
-      </c>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="23">
-        <v>4</v>
-      </c>
-      <c r="J70" s="23"/>
-      <c r="K70" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="L70" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="M70" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="56">
-        <v>2</v>
-      </c>
-      <c r="O70" s="56"/>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="N71" s="56">
-        <f>SUM(N65:N70)</f>
-        <v>23</v>
-      </c>
-      <c r="O71" s="56"/>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="23"/>
-      <c r="B72" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="56" t="s">
+      <c r="M77" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="N72" s="60" t="s">
+      <c r="N77" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="O77" s="66"/>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="O72" s="59"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="82"/>
+      <c r="N78" s="82"/>
+      <c r="O78" s="82"/>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="4:8">
+      <c r="D85" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="90" spans="9:9">
+      <c r="I90" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <autoFilter ref="A1:L72">
     <extLst/>
   </autoFilter>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -4674,8 +5142,9 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A73:A77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="181">
   <si>
     <t>流程</t>
   </si>
@@ -532,10 +532,31 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>OutPut8.4</t>
-  </si>
-  <si>
-    <t>代码评审报告</t>
+    <t>week8</t>
+  </si>
+  <si>
+    <t>week_OutPut8.1</t>
+  </si>
+  <si>
+    <t>11/22小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut8.2</t>
+  </si>
+  <si>
+    <t>11/25小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut8.3</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>week_OutPut8.4</t>
+  </si>
+  <si>
+    <t>week_OutPut8.5</t>
   </si>
   <si>
     <t xml:space="preserve">    </t>
@@ -546,43 +567,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="37">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="179" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="187" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="189" formatCode="yy/m/d"/>
+    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="184" formatCode="yy/m/d"/>
-    <numFmt numFmtId="185" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="186" formatCode="mmmmm"/>
-    <numFmt numFmtId="187" formatCode="#\ ??"/>
-    <numFmt numFmtId="188" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="198" formatCode="#\ ??"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="200" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="190" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
-    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="198" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -631,11 +652,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,14 +668,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -663,24 +691,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -702,7 +715,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,7 +738,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,14 +760,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -747,15 +767,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,13 +845,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,109 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,37 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,11 +1112,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1115,25 +1175,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1153,173 +1200,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1335,7 +1356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1435,55 +1456,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,32 +1561,19 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1891,9 +1899,9 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42:O77"/>
+      <selection pane="bottomLeft" activeCell="N79" sqref="N79:N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -4663,10 +4671,10 @@
       <c r="L67" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="78" t="s">
+      <c r="M67" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="N67" s="79">
+      <c r="N67" s="61">
         <f>SUM(N61:N66)</f>
         <v>16</v>
       </c>
@@ -4712,7 +4720,7 @@
       <c r="M68" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N68" s="80" t="s">
+      <c r="N68" s="76" t="s">
         <v>155</v>
       </c>
       <c r="O68" s="66"/>
@@ -4803,7 +4811,9 @@
       <c r="N70" s="67">
         <v>12</v>
       </c>
-      <c r="O70" s="61"/>
+      <c r="O70" s="61">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="29"/>
@@ -4846,7 +4856,9 @@
       <c r="N71" s="67">
         <v>12</v>
       </c>
-      <c r="O71" s="61"/>
+      <c r="O71" s="61">
+        <v>10</v>
+      </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="29" t="s">
@@ -4867,12 +4879,16 @@
       <c r="F72" s="53">
         <v>44528</v>
       </c>
-      <c r="G72" s="53"/>
+      <c r="G72" s="53">
+        <v>44515</v>
+      </c>
       <c r="H72" s="53"/>
-      <c r="I72" s="35">
+      <c r="I72" s="74">
         <v>72</v>
       </c>
-      <c r="J72" s="35"/>
+      <c r="J72" s="74">
+        <v>76</v>
+      </c>
       <c r="K72" s="35" t="s">
         <v>37</v>
       </c>
@@ -4885,10 +4901,12 @@
       <c r="N72" s="67">
         <v>12</v>
       </c>
-      <c r="O72" s="61"/>
+      <c r="O72" s="61">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B73" s="35" t="s">
@@ -4897,180 +4915,219 @@
       <c r="C73" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="74">
+      <c r="D73" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="50">
         <v>44515</v>
       </c>
-      <c r="F73" s="74">
+      <c r="F73" s="50">
         <v>44515</v>
       </c>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="75">
-        <v>1</v>
-      </c>
-      <c r="J73" s="75"/>
-      <c r="K73" s="72" t="s">
+      <c r="G73" s="50">
+        <v>44515</v>
+      </c>
+      <c r="H73" s="50">
+        <v>44515</v>
+      </c>
+      <c r="I73" s="23">
+        <v>1</v>
+      </c>
+      <c r="J73" s="23">
+        <v>1</v>
+      </c>
+      <c r="K73" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L73" s="72" t="s">
+      <c r="L73" s="29" t="s">
         <v>33</v>
       </c>
       <c r="M73" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N73" s="67">
+      <c r="N73" s="61">
         <v>12</v>
       </c>
-      <c r="O73" s="61"/>
+      <c r="O73" s="61">
+        <v>10</v>
+      </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="72"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="35" t="s">
         <v>165</v>
       </c>
       <c r="C74" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E74" s="74">
+      <c r="D74" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="50">
         <v>44518</v>
       </c>
-      <c r="F74" s="74">
+      <c r="F74" s="50">
         <v>44518</v>
       </c>
-      <c r="G74" s="74"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="75">
-        <v>1</v>
-      </c>
-      <c r="J74" s="75"/>
-      <c r="K74" s="72" t="s">
+      <c r="G74" s="50">
+        <v>44518</v>
+      </c>
+      <c r="H74" s="50">
+        <v>44518</v>
+      </c>
+      <c r="I74" s="23">
+        <v>1</v>
+      </c>
+      <c r="J74" s="23">
+        <v>1</v>
+      </c>
+      <c r="K74" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L74" s="72" t="s">
+      <c r="L74" s="29" t="s">
         <v>25</v>
       </c>
       <c r="M74" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N74" s="67">
+      <c r="N74" s="61">
         <v>12</v>
       </c>
-      <c r="O74" s="61"/>
+      <c r="O74" s="61">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="72"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="35" t="s">
         <v>167</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" s="74">
+      <c r="D75" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="50">
         <v>44515</v>
       </c>
-      <c r="F75" s="74">
+      <c r="F75" s="50">
         <v>44521</v>
       </c>
-      <c r="G75" s="74"/>
-      <c r="H75" s="74"/>
-      <c r="I75" s="75">
+      <c r="G75" s="50">
+        <v>44515</v>
+      </c>
+      <c r="H75" s="50">
+        <v>44521</v>
+      </c>
+      <c r="I75" s="23">
         <v>3</v>
       </c>
-      <c r="J75" s="75"/>
-      <c r="K75" s="72" t="s">
+      <c r="J75" s="23">
+        <v>3</v>
+      </c>
+      <c r="K75" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L75" s="72" t="s">
+      <c r="L75" s="29" t="s">
         <v>37</v>
       </c>
       <c r="M75" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N75" s="67">
+      <c r="N75" s="61">
         <v>12</v>
       </c>
-      <c r="O75" s="61"/>
+      <c r="O75" s="61">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="72"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="35" t="s">
         <v>168</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="74">
+      <c r="D76" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="50">
         <v>44521</v>
       </c>
-      <c r="F76" s="74">
+      <c r="F76" s="50">
         <v>44521</v>
       </c>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="75">
-        <v>1</v>
-      </c>
-      <c r="J76" s="75"/>
-      <c r="K76" s="72" t="s">
+      <c r="G76" s="50">
+        <v>44521</v>
+      </c>
+      <c r="H76" s="50">
+        <v>44521</v>
+      </c>
+      <c r="I76" s="23">
+        <v>1</v>
+      </c>
+      <c r="J76" s="23">
+        <v>1</v>
+      </c>
+      <c r="K76" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L76" s="72" t="s">
+      <c r="L76" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="78" t="s">
+      <c r="M76" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="N76" s="81">
+      <c r="N76" s="61">
         <f>SUM(N70:N75)</f>
         <v>72</v>
       </c>
-      <c r="O76" s="61"/>
+      <c r="O76" s="61">
+        <f>SUM(O70:O75)</f>
+        <v>76</v>
+      </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="72"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="35" t="s">
         <v>169</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D77" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="74">
+      <c r="D77" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="50">
         <v>44515</v>
       </c>
-      <c r="F77" s="74">
+      <c r="F77" s="50">
         <v>44521</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="75">
+      <c r="G77" s="50">
+        <v>44515</v>
+      </c>
+      <c r="H77" s="50">
+        <v>44521</v>
+      </c>
+      <c r="I77" s="23">
         <v>4</v>
       </c>
-      <c r="J77" s="75"/>
-      <c r="K77" s="72" t="s">
+      <c r="J77" s="23">
+        <v>4</v>
+      </c>
+      <c r="K77" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L77" s="76" t="s">
+      <c r="L77" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="M77" s="67" t="s">
+      <c r="M77" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N77" s="68" t="s">
+      <c r="N77" s="76" t="s">
         <v>170</v>
       </c>
       <c r="O77" s="66"/>
@@ -5080,54 +5137,264 @@
         <v>144</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D78" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="53"/>
-      <c r="F78" s="53"/>
+      <c r="E78" s="53">
+        <v>44515</v>
+      </c>
+      <c r="F78" s="53">
+        <v>44528</v>
+      </c>
       <c r="G78" s="53"/>
       <c r="H78" s="53"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="35">
+        <v>72</v>
+      </c>
       <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="82"/>
-      <c r="N78" s="82"/>
-      <c r="O78" s="82"/>
-    </row>
-    <row r="81" spans="6:8">
-      <c r="F81" s="1"/>
-      <c r="H81" s="1"/>
-    </row>
-    <row r="83" spans="7:8">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="7:8">
+      <c r="K78" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M78" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N78" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O78" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="50">
+        <v>44522</v>
+      </c>
+      <c r="F79" s="50">
+        <v>44522</v>
+      </c>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="23">
+        <v>1</v>
+      </c>
+      <c r="J79" s="23"/>
+      <c r="K79" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N79" s="61">
+        <v>12</v>
+      </c>
+      <c r="O79" s="77"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="29"/>
+      <c r="B80" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="50">
+        <v>44525</v>
+      </c>
+      <c r="F80" s="50">
+        <v>44525</v>
+      </c>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="23">
+        <v>1</v>
+      </c>
+      <c r="J80" s="23"/>
+      <c r="K80" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="61">
+        <v>12</v>
+      </c>
+      <c r="O80" s="77"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="29"/>
+      <c r="B81" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="50">
+        <v>44522</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="G81" s="50"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23">
+        <v>3</v>
+      </c>
+      <c r="J81" s="23"/>
+      <c r="K81" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M81" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" s="61">
+        <v>12</v>
+      </c>
+      <c r="O81" s="77"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="29"/>
+      <c r="B82" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="50">
+        <v>44528</v>
+      </c>
+      <c r="F82" s="50">
+        <v>44528</v>
+      </c>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="23">
+        <v>1</v>
+      </c>
+      <c r="J82" s="23"/>
+      <c r="K82" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M82" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" s="61">
+        <v>12</v>
+      </c>
+      <c r="O82" s="77"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="29"/>
+      <c r="B83" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E83" s="50">
+        <v>44522</v>
+      </c>
+      <c r="F83" s="50">
+        <v>44528</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23">
+        <v>4</v>
+      </c>
+      <c r="J83" s="23"/>
+      <c r="K83" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M83" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="61">
+        <v>12</v>
+      </c>
+      <c r="O83" s="77"/>
+    </row>
+    <row r="84" spans="7:15">
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="4:8">
-      <c r="D85" s="73" t="s">
-        <v>173</v>
+      <c r="M84" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="N84" s="61">
+        <f>SUM(N79:N83)</f>
+        <v>60</v>
+      </c>
+      <c r="O84" s="77"/>
+    </row>
+    <row r="85" spans="4:15">
+      <c r="D85" s="72" t="s">
+        <v>180</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
+      <c r="M85" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N85" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="O85" s="77"/>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L72">
+  <autoFilter ref="A1:L83">
     <extLst/>
   </autoFilter>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -5145,6 +5412,7 @@
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A79:A83"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="181">
   <si>
     <t>流程</t>
   </si>
@@ -1348,7 +1348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,6 +1574,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1898,10 +1904,10 @@
   <sheetPr/>
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="L77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N79" sqref="N79:N85"/>
+      <selection pane="bottomLeft" activeCell="M80" sqref="M80:O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -5204,13 +5210,13 @@
       <c r="L79" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M79" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N79" s="61">
+      <c r="M79" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="N79" s="78">
         <v>12</v>
       </c>
-      <c r="O79" s="77"/>
+      <c r="O79" s="78"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="29"/>
@@ -5242,12 +5248,12 @@
         <v>16</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N80" s="61">
         <v>12</v>
       </c>
-      <c r="O80" s="77"/>
+      <c r="O80" s="79"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="29"/>
@@ -5279,12 +5285,12 @@
         <v>22</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N81" s="61">
         <v>12</v>
       </c>
-      <c r="O81" s="77"/>
+      <c r="O81" s="79"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="29"/>
@@ -5316,12 +5322,12 @@
         <v>33</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N82" s="61">
         <v>12</v>
       </c>
-      <c r="O82" s="77"/>
+      <c r="O82" s="79"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="29"/>
@@ -5353,24 +5359,23 @@
         <v>56</v>
       </c>
       <c r="M83" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N83" s="61">
         <v>12</v>
       </c>
-      <c r="O83" s="77"/>
+      <c r="O83" s="79"/>
     </row>
     <row r="84" spans="7:15">
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="M84" s="75" t="s">
-        <v>56</v>
+      <c r="M84" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="N84" s="61">
-        <f>SUM(N79:N83)</f>
-        <v>60</v>
-      </c>
-      <c r="O84" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="O84" s="79"/>
     </row>
     <row r="85" spans="4:15">
       <c r="D85" s="72" t="s">
@@ -5378,13 +5383,23 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="M85" s="61" t="s">
+      <c r="M85" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="N85" s="61">
+        <f>SUM(N79:N84)</f>
+        <v>72</v>
+      </c>
+      <c r="O85" s="79"/>
+    </row>
+    <row r="86" spans="13:15">
+      <c r="M86" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N85" s="76" t="s">
+      <c r="N86" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="O85" s="77"/>
+      <c r="O86" s="79"/>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" s="3"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$89</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="189">
   <si>
     <t>流程</t>
   </si>
@@ -559,7 +559,31 @@
     <t>week_OutPut8.5</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>week_OutPut9.1</t>
+  </si>
+  <si>
+    <t>11/29小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut9.2</t>
+  </si>
+  <si>
+    <t>12/02小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut9.3</t>
+  </si>
+  <si>
+    <t>week_OutPut9.4</t>
+  </si>
+  <si>
+    <t>week_OutPut9.5</t>
   </si>
 </sst>
 </file>
@@ -571,38 +595,38 @@
     <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="179" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="181" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="yy/m/d"/>
     <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="184" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="186" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="188" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="189" formatCode="yy/m/d"/>
-    <numFmt numFmtId="190" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
+    <numFmt numFmtId="184" formatCode="m/d"/>
+    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="197" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="198" formatCode="#\ ??"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="200" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="192" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="[$-804]aaaa"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="mmmmm"/>
+    <numFmt numFmtId="198" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="199" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="200" formatCode="#\ ??"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -652,14 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -667,22 +683,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -706,10 +708,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,8 +740,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -738,7 +770,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,30 +786,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +794,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,7 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +893,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,13 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,67 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,25 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1136,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1135,210 +1224,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1348,7 +1372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,7 +1380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1456,55 +1480,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,8 +1585,11 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,16 +1600,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1902,12 +1938,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M80" sqref="M80:O86"/>
+      <selection pane="bottomLeft" activeCell="O79" sqref="O79:O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -1923,9 +1959,10 @@
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.1166666666667" style="4" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="4"/>
+    <col min="14" max="15" width="10.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="4" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:12">
@@ -4677,7 +4714,7 @@
       <c r="L67" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="75" t="s">
+      <c r="M67" s="76" t="s">
         <v>56</v>
       </c>
       <c r="N67" s="61">
@@ -4726,7 +4763,7 @@
       <c r="M68" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N68" s="76" t="s">
+      <c r="N68" s="78" t="s">
         <v>155</v>
       </c>
       <c r="O68" s="66"/>
@@ -4889,10 +4926,10 @@
         <v>44515</v>
       </c>
       <c r="H72" s="53"/>
-      <c r="I72" s="74">
+      <c r="I72" s="75">
         <v>72</v>
       </c>
-      <c r="J72" s="74">
+      <c r="J72" s="75">
         <v>76</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -5083,7 +5120,7 @@
       <c r="L76" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="75" t="s">
+      <c r="M76" s="76" t="s">
         <v>56</v>
       </c>
       <c r="N76" s="61">
@@ -5127,13 +5164,13 @@
       <c r="K77" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L77" s="75" t="s">
+      <c r="L77" s="76" t="s">
         <v>56</v>
       </c>
       <c r="M77" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N77" s="76" t="s">
+      <c r="N77" s="78" t="s">
         <v>170</v>
       </c>
       <c r="O77" s="66"/>
@@ -5157,12 +5194,16 @@
       <c r="F78" s="53">
         <v>44528</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="53">
+        <v>44515</v>
+      </c>
       <c r="H78" s="53"/>
-      <c r="I78" s="35">
+      <c r="I78" s="77">
         <v>72</v>
       </c>
-      <c r="J78" s="35"/>
+      <c r="J78" s="77">
+        <v>71</v>
+      </c>
       <c r="K78" s="35" t="s">
         <v>37</v>
       </c>
@@ -5189,8 +5230,8 @@
       <c r="C79" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="D79" s="71" t="s">
-        <v>161</v>
+      <c r="D79" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E79" s="50">
         <v>44522</v>
@@ -5198,25 +5239,33 @@
       <c r="F79" s="50">
         <v>44522</v>
       </c>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
+      <c r="G79" s="50">
+        <v>44522</v>
+      </c>
+      <c r="H79" s="50">
+        <v>44522</v>
+      </c>
       <c r="I79" s="23">
         <v>1</v>
       </c>
-      <c r="J79" s="23"/>
+      <c r="J79" s="23">
+        <v>1</v>
+      </c>
       <c r="K79" s="29" t="s">
         <v>19</v>
       </c>
       <c r="L79" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M79" s="77" t="s">
+      <c r="M79" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="78">
+      <c r="N79" s="61">
         <v>12</v>
       </c>
-      <c r="O79" s="78"/>
+      <c r="O79" s="61">
+        <v>15</v>
+      </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="29"/>
@@ -5226,8 +5275,8 @@
       <c r="C80" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="D80" s="71" t="s">
-        <v>161</v>
+      <c r="D80" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E80" s="50">
         <v>44525</v>
@@ -5235,12 +5284,18 @@
       <c r="F80" s="50">
         <v>44525</v>
       </c>
-      <c r="G80" s="50"/>
-      <c r="H80" s="50"/>
+      <c r="G80" s="50">
+        <v>44525</v>
+      </c>
+      <c r="H80" s="50">
+        <v>44525</v>
+      </c>
       <c r="I80" s="23">
         <v>1</v>
       </c>
-      <c r="J80" s="23"/>
+      <c r="J80" s="23">
+        <v>1</v>
+      </c>
       <c r="K80" s="29" t="s">
         <v>16</v>
       </c>
@@ -5253,7 +5308,9 @@
       <c r="N80" s="61">
         <v>12</v>
       </c>
-      <c r="O80" s="79"/>
+      <c r="O80" s="79">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="29"/>
@@ -5263,21 +5320,27 @@
       <c r="C81" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="71" t="s">
-        <v>161</v>
+      <c r="D81" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E81" s="50">
         <v>44522</v>
       </c>
-      <c r="F81" s="73" t="s">
+      <c r="F81" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="G81" s="50"/>
-      <c r="H81" s="23"/>
+      <c r="G81" s="50">
+        <v>44522</v>
+      </c>
+      <c r="H81" s="74" t="s">
+        <v>177</v>
+      </c>
       <c r="I81" s="23">
         <v>3</v>
       </c>
-      <c r="J81" s="23"/>
+      <c r="J81" s="23">
+        <v>3</v>
+      </c>
       <c r="K81" s="29" t="s">
         <v>22</v>
       </c>
@@ -5290,7 +5353,9 @@
       <c r="N81" s="61">
         <v>12</v>
       </c>
-      <c r="O81" s="79"/>
+      <c r="O81" s="79">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="29"/>
@@ -5300,8 +5365,8 @@
       <c r="C82" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="71" t="s">
-        <v>161</v>
+      <c r="D82" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E82" s="50">
         <v>44528</v>
@@ -5309,12 +5374,18 @@
       <c r="F82" s="50">
         <v>44528</v>
       </c>
-      <c r="G82" s="50"/>
-      <c r="H82" s="50"/>
+      <c r="G82" s="50">
+        <v>44528</v>
+      </c>
+      <c r="H82" s="50">
+        <v>44528</v>
+      </c>
       <c r="I82" s="23">
         <v>1</v>
       </c>
-      <c r="J82" s="23"/>
+      <c r="J82" s="23">
+        <v>1</v>
+      </c>
       <c r="K82" s="29" t="s">
         <v>33</v>
       </c>
@@ -5327,7 +5398,9 @@
       <c r="N82" s="61">
         <v>12</v>
       </c>
-      <c r="O82" s="79"/>
+      <c r="O82" s="79">
+        <v>10</v>
+      </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="29"/>
@@ -5337,8 +5410,8 @@
       <c r="C83" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D83" s="71" t="s">
-        <v>161</v>
+      <c r="D83" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E83" s="50">
         <v>44522</v>
@@ -5346,16 +5419,22 @@
       <c r="F83" s="50">
         <v>44528</v>
       </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
+      <c r="G83" s="50">
+        <v>44522</v>
+      </c>
+      <c r="H83" s="74" t="s">
+        <v>177</v>
+      </c>
       <c r="I83" s="23">
         <v>4</v>
       </c>
-      <c r="J83" s="23"/>
+      <c r="J83" s="23">
+        <v>4</v>
+      </c>
       <c r="K83" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L83" s="75" t="s">
+      <c r="L83" s="76" t="s">
         <v>56</v>
       </c>
       <c r="M83" s="23" t="s">
@@ -5364,52 +5443,307 @@
       <c r="N83" s="61">
         <v>12</v>
       </c>
-      <c r="O83" s="79"/>
-    </row>
-    <row r="84" spans="7:15">
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="O83" s="79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="53">
+        <v>44515</v>
+      </c>
+      <c r="F84" s="50">
+        <v>44535</v>
+      </c>
+      <c r="G84" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23">
+        <v>72</v>
+      </c>
+      <c r="J84" s="23"/>
+      <c r="K84" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L84" s="76" t="s">
+        <v>56</v>
+      </c>
       <c r="M84" s="23" t="s">
         <v>25</v>
       </c>
       <c r="N84" s="61">
         <v>12</v>
       </c>
-      <c r="O84" s="79"/>
-    </row>
-    <row r="85" spans="4:15">
-      <c r="D85" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="M85" s="75" t="s">
+      <c r="O84" s="80">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="50">
+        <v>44529</v>
+      </c>
+      <c r="F85" s="50">
+        <v>44529</v>
+      </c>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23">
+        <v>1</v>
+      </c>
+      <c r="J85" s="23"/>
+      <c r="K85" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="76" t="s">
         <v>56</v>
       </c>
       <c r="N85" s="61">
         <f>SUM(N79:N84)</f>
         <v>72</v>
       </c>
-      <c r="O85" s="79"/>
-    </row>
-    <row r="86" spans="13:15">
+      <c r="O85" s="79">
+        <f>SUM(O79:O84)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E86" s="50">
+        <v>44532</v>
+      </c>
+      <c r="F86" s="50">
+        <v>44532</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="23">
+        <v>1</v>
+      </c>
+      <c r="J86" s="23"/>
+      <c r="K86" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="M86" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N86" s="76" t="s">
+      <c r="N86" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="O86" s="79"/>
-    </row>
-    <row r="90" spans="9:9">
+      <c r="O86" s="81"/>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="29"/>
+      <c r="B87" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="50">
+        <v>44529</v>
+      </c>
+      <c r="F87" s="50">
+        <v>44535</v>
+      </c>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="23">
+        <v>3</v>
+      </c>
+      <c r="J87" s="23"/>
+      <c r="K87" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="N87" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="O87" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="29"/>
+      <c r="B88" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E88" s="50">
+        <v>44535</v>
+      </c>
+      <c r="F88" s="50">
+        <v>44535</v>
+      </c>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="23">
+        <v>1</v>
+      </c>
+      <c r="J88" s="23"/>
+      <c r="K88" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M88" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N88" s="79">
+        <v>12</v>
+      </c>
+      <c r="O88" s="81"/>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="29"/>
+      <c r="B89" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="50">
+        <v>44529</v>
+      </c>
+      <c r="F89" s="50">
+        <v>44535</v>
+      </c>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="23">
+        <v>4</v>
+      </c>
+      <c r="J89" s="23"/>
+      <c r="K89" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M89" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="82">
+        <v>12</v>
+      </c>
+      <c r="O89" s="81"/>
+    </row>
+    <row r="90" spans="9:15">
       <c r="I90" s="3"/>
+      <c r="M90" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N90" s="79">
+        <v>12</v>
+      </c>
+      <c r="O90" s="81"/>
+    </row>
+    <row r="91" spans="13:15">
+      <c r="M91" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="79">
+        <v>12</v>
+      </c>
+      <c r="O91" s="81"/>
+    </row>
+    <row r="92" spans="13:15">
+      <c r="M92" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N92" s="79">
+        <v>12</v>
+      </c>
+      <c r="O92" s="81"/>
+    </row>
+    <row r="93" spans="13:15">
+      <c r="M93" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="79">
+        <v>12</v>
+      </c>
+      <c r="O93" s="81"/>
+    </row>
+    <row r="94" spans="13:15">
+      <c r="M94" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="N94" s="79">
+        <v>72</v>
+      </c>
+      <c r="O94" s="81"/>
+    </row>
+    <row r="95" spans="13:15">
+      <c r="M95" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N95" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="O95" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L83">
+  <autoFilter ref="A1:L89">
     <extLst/>
   </autoFilter>
-  <mergeCells count="18">
+  <mergeCells count="19">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -5428,6 +5762,7 @@
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A73:A77"/>
     <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:A89"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$98</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="208">
   <si>
     <t>流程</t>
   </si>
@@ -244,6 +244,12 @@
     <t>week_OutPut2.5</t>
   </si>
   <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>week4</t>
+  </si>
+  <si>
     <t>part5</t>
   </si>
   <si>
@@ -328,7 +334,7 @@
     <t>8/4</t>
   </si>
   <si>
-    <t>week3</t>
+    <t>2/5</t>
   </si>
   <si>
     <t>week_OutPut3.1</t>
@@ -394,9 +400,6 @@
     <t>接口设计文档</t>
   </si>
   <si>
-    <t>week4</t>
-  </si>
-  <si>
     <t>week_OutPut4.1</t>
   </si>
   <si>
@@ -412,7 +415,10 @@
     <t>10/28小组会议记录(外部评审)</t>
   </si>
   <si>
-    <t>2/5</t>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>week6</t>
   </si>
   <si>
     <t>week_OutPut4.3</t>
@@ -424,9 +430,6 @@
     <t>week_OutPut4.5</t>
   </si>
   <si>
-    <t>week5</t>
-  </si>
-  <si>
     <t>week_OutPut5.1</t>
   </si>
   <si>
@@ -436,6 +439,9 @@
     <t>4/4</t>
   </si>
   <si>
+    <t>3/3</t>
+  </si>
+  <si>
     <t>week_OutPut5.2</t>
   </si>
   <si>
@@ -469,9 +475,6 @@
     <t>代码管理仓库</t>
   </si>
   <si>
-    <t>week6</t>
-  </si>
-  <si>
     <t>week_OutPut6.1</t>
   </si>
   <si>
@@ -484,7 +487,10 @@
     <t>11/11小组会议记录</t>
   </si>
   <si>
-    <t>3/3</t>
+    <t>week7</t>
+  </si>
+  <si>
+    <t>week8</t>
   </si>
   <si>
     <t>week_OutPut6.3</t>
@@ -505,9 +511,6 @@
     <t>未完成</t>
   </si>
   <si>
-    <t>week7</t>
-  </si>
-  <si>
     <t>week_OutPut7.1</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>week8</t>
-  </si>
-  <si>
     <t>week_OutPut8.1</t>
   </si>
   <si>
@@ -556,15 +556,18 @@
     <t>week_OutPut8.4</t>
   </si>
   <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>week10</t>
+  </si>
+  <si>
     <t>week_OutPut8.5</t>
   </si>
   <si>
     <t>2021-11-15</t>
   </si>
   <si>
-    <t>week9</t>
-  </si>
-  <si>
     <t>week_OutPut9.1</t>
   </si>
   <si>
@@ -577,6 +580,9 @@
     <t>12/02小组会议记录</t>
   </si>
   <si>
+    <t>已取消</t>
+  </si>
+  <si>
     <t>week_OutPut9.3</t>
   </si>
   <si>
@@ -584,6 +590,57 @@
   </si>
   <si>
     <t>week_OutPut9.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>OutPut8.4</t>
+  </si>
+  <si>
+    <t>代码评审报告</t>
+  </si>
+  <si>
+    <t>唐海龙、陆奕伶</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>part9</t>
+  </si>
+  <si>
+    <t>OutPut9.1</t>
+  </si>
+  <si>
+    <t>联调计划</t>
+  </si>
+  <si>
+    <t>OutPut9.2</t>
+  </si>
+  <si>
+    <t>联调测试报告</t>
+  </si>
+  <si>
+    <t>week_OutPut10.1</t>
+  </si>
+  <si>
+    <t>12/06小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut10.2</t>
+  </si>
+  <si>
+    <t>12/09小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut10.3</t>
+  </si>
+  <si>
+    <t>week_OutPut10.4</t>
+  </si>
+  <si>
+    <t>week_OutPut10.5</t>
   </si>
 </sst>
 </file>
@@ -593,41 +650,41 @@
   <numFmts count="37">
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
     <numFmt numFmtId="177" formatCode="#\ ??/??"/>
     <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
     <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="185" formatCode="yy/m/d"/>
+    <numFmt numFmtId="186" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="187" formatCode="mmmmm"/>
+    <numFmt numFmtId="188" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="193" formatCode="#\ ??"/>
+    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="195" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="197" formatCode="m/d"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="yy/m/d"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="184" formatCode="m/d"/>
-    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="200" formatCode="[$-804]aaa"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="187" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="192" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="193" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="195" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="196" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="mmmmm"/>
-    <numFmt numFmtId="198" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="199" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="200" formatCode="#\ ??"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -663,20 +720,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -684,24 +727,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,18 +750,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,10 +796,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,15 +825,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,31 +848,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +926,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,157 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,8 +1187,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,63 +1197,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,160 +1220,216 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,7 +1437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1480,55 +1537,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,6 +1618,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,12 +1633,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1591,32 +1657,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="195" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1938,12 +2016,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="C74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O79" sqref="O79:O85"/>
+      <selection pane="bottomLeft" activeCell="M82" sqref="M82:R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -2951,7 +3029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:16">
       <c r="A28" s="8"/>
       <c r="B28" s="16" t="s">
         <v>74</v>
@@ -2986,16 +3064,22 @@
       <c r="L28" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="M28" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>15</v>
@@ -3022,25 +3106,34 @@
         <v>37</v>
       </c>
       <c r="L29" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="M29" s="65" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" ht="13.15" customHeight="1" spans="1:15">
+      <c r="N29" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" ht="13.15" customHeight="1" spans="1:18">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
@@ -3067,7 +3160,7 @@
         <v>37</v>
       </c>
       <c r="L30" s="57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>37</v>
@@ -3078,14 +3171,23 @@
       <c r="O30" s="61">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="61">
+        <v>4.5</v>
+      </c>
+      <c r="R30" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
@@ -3112,7 +3214,7 @@
         <v>33</v>
       </c>
       <c r="L31" s="58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>33</v>
@@ -3123,14 +3225,23 @@
       <c r="O31" s="61">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="61">
+        <v>7</v>
+      </c>
+      <c r="R31" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
@@ -3157,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="L32" s="57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>16</v>
@@ -3168,14 +3279,23 @@
       <c r="O32" s="61">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" s="61">
+        <v>5</v>
+      </c>
+      <c r="R32" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
@@ -3213,14 +3333,23 @@
       <c r="O33" s="61">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="R33" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
@@ -3258,14 +3387,23 @@
       <c r="O34" s="61">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="61">
+        <v>8</v>
+      </c>
+      <c r="R34" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -3303,14 +3441,23 @@
       <c r="O35" s="61">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="61">
+        <v>8</v>
+      </c>
+      <c r="R35" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
@@ -3350,14 +3497,25 @@
         <f>SUM(O30:O35)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" s="61">
+        <f>SUM(Q30:Q35)</f>
+        <v>39</v>
+      </c>
+      <c r="R36" s="61">
+        <f>SUM(R30:R35)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
@@ -3387,22 +3545,29 @@
         <v>22</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N37" s="66" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="N37" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="O37" s="61"/>
+      <c r="P37" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q37" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="R37" s="67"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>15</v>
@@ -3435,10 +3600,10 @@
     <row r="39" spans="1:12">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -3471,7 +3636,7 @@
     <row r="40" spans="1:12">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>51</v>
@@ -3507,7 +3672,7 @@
     <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>53</v>
@@ -3540,10 +3705,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:12">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>55</v>
@@ -3575,25 +3740,16 @@
       <c r="L42" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M42" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N42" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>15</v>
@@ -3622,23 +3778,14 @@
       <c r="L43" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N43" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="O43" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="23"/>
       <c r="B44" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>15</v>
@@ -3667,23 +3814,14 @@
       <c r="L44" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N44" s="61">
-        <v>7</v>
-      </c>
-      <c r="O44" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="23"/>
       <c r="B45" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>15</v>
@@ -3712,23 +3850,14 @@
       <c r="L45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M45" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="61">
-        <v>5</v>
-      </c>
-      <c r="O45" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="23"/>
       <c r="B46" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>15</v>
@@ -3757,25 +3886,16 @@
       <c r="L46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M46" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" s="61">
-        <v>6.5</v>
-      </c>
-      <c r="O46" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>15</v>
@@ -3802,25 +3922,16 @@
         <v>33</v>
       </c>
       <c r="L47" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N47" s="61">
-        <v>8</v>
-      </c>
-      <c r="O47" s="61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="23"/>
       <c r="B48" s="23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>15</v>
@@ -3847,30 +3958,21 @@
         <v>37</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="M48" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="61">
-        <v>8</v>
-      </c>
-      <c r="O48" s="61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="23" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="49">
         <v>44494</v>
@@ -3894,28 +3996,17 @@
       <c r="L49" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="N49" s="61">
-        <f>SUM(N43:N48)</f>
-        <v>39</v>
-      </c>
-      <c r="O49" s="61">
-        <f>SUM(O43:O48)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="23"/>
       <c r="B50" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>128</v>
       </c>
       <c r="E50" s="49">
         <v>44497</v>
@@ -3939,18 +4030,17 @@
       <c r="L50" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N50" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="O50" s="66"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="M50" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="P50" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="23"/>
       <c r="B51" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>51</v>
@@ -3982,20 +4072,29 @@
       <c r="L51" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M51" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N51" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="O51" s="65" t="s">
+      <c r="M51" s="66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="O51" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="R51" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="23"/>
       <c r="B52" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>53</v>
@@ -4036,11 +4135,20 @@
       <c r="O52" s="61">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="P52" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="68">
+        <v>4</v>
+      </c>
+      <c r="R52" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="23"/>
       <c r="B53" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>55</v>
@@ -4081,16 +4189,25 @@
       <c r="O53" s="61">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="68">
+        <v>2</v>
+      </c>
+      <c r="R53" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>15</v>
@@ -4128,14 +4245,23 @@
       <c r="O54" s="61">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="P54" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q54" s="68">
+        <v>3</v>
+      </c>
+      <c r="R54" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="23"/>
       <c r="B55" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>15</v>
@@ -4173,14 +4299,23 @@
       <c r="O55" s="61">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q55" s="68">
+        <v>4</v>
+      </c>
+      <c r="R55" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="23"/>
       <c r="B56" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>15</v>
@@ -4212,22 +4347,31 @@
       <c r="M56" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N56" s="67">
+      <c r="N56" s="68">
         <v>6</v>
       </c>
       <c r="O56" s="61">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="68">
+        <v>1</v>
+      </c>
+      <c r="R56" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>15</v>
@@ -4254,25 +4398,34 @@
         <v>33</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="N57" s="67">
+      <c r="N57" s="68">
         <v>3</v>
       </c>
       <c r="O57" s="61">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="P57" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="68">
+        <v>2</v>
+      </c>
+      <c r="R57" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="30"/>
       <c r="B58" s="30" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>15</v>
@@ -4299,12 +4452,12 @@
         <v>37</v>
       </c>
       <c r="L58" s="62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M58" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="67">
+      <c r="N58" s="68">
         <f>SUM(N52:N57)</f>
         <v>27</v>
       </c>
@@ -4312,16 +4465,26 @@
         <f>SUM(O52:O57)</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="61">
+        <f>SUM(Q52:Q57)</f>
+        <v>16</v>
+      </c>
+      <c r="R58" s="61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D59" s="34" t="s">
         <v>15</v>
@@ -4351,20 +4514,27 @@
         <v>16</v>
       </c>
       <c r="M59" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N59" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="O59" s="66"/>
-    </row>
-    <row r="60" spans="1:15">
+        <v>103</v>
+      </c>
+      <c r="N59" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="O59" s="67"/>
+      <c r="P59" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q59" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="R59" s="67"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="23"/>
       <c r="B60" s="32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D60" s="34" t="s">
         <v>15</v>
@@ -4393,20 +4563,11 @@
       <c r="L60" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M60" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N60" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="O60" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="23"/>
       <c r="B61" s="35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C61" s="36" t="s">
         <v>51</v>
@@ -4438,20 +4599,11 @@
       <c r="L61" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M61" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N61" s="67">
-        <v>4</v>
-      </c>
-      <c r="O61" s="61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="23"/>
       <c r="B62" s="35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C62" s="36" t="s">
         <v>53</v>
@@ -4483,20 +4635,11 @@
       <c r="L62" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="M62" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N62" s="67">
-        <v>2</v>
-      </c>
-      <c r="O62" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="23"/>
       <c r="B63" s="35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C63" s="36" t="s">
         <v>55</v>
@@ -4528,25 +4671,16 @@
       <c r="L63" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M63" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="67">
-        <v>3</v>
-      </c>
-      <c r="O63" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>15</v>
@@ -4573,27 +4707,18 @@
         <v>37</v>
       </c>
       <c r="L64" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="M64" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" s="67">
-        <v>4</v>
-      </c>
-      <c r="O64" s="61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>15</v>
@@ -4620,25 +4745,16 @@
         <v>25</v>
       </c>
       <c r="L65" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="M65" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N65" s="67">
-        <v>1</v>
-      </c>
-      <c r="O65" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="29"/>
       <c r="B66" s="35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>15</v>
@@ -4667,25 +4783,16 @@
       <c r="L66" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="67">
-        <v>2</v>
-      </c>
-      <c r="O66" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="29" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="70" t="s">
         <v>152</v>
+      </c>
+      <c r="C67" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>15</v>
@@ -4714,24 +4821,14 @@
       <c r="L67" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M67" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="N67" s="61">
-        <f>SUM(N61:N66)</f>
-        <v>16</v>
-      </c>
-      <c r="O67" s="61">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="29"/>
       <c r="B68" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D68" s="34" t="s">
         <v>15</v>
@@ -4760,18 +4857,17 @@
       <c r="L68" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M68" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N68" s="78" t="s">
-        <v>155</v>
-      </c>
-      <c r="O68" s="66"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="M68" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="P68" s="64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="29"/>
       <c r="B69" s="35" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C69" s="36" t="s">
         <v>51</v>
@@ -4803,20 +4899,29 @@
       <c r="L69" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N69" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="O69" s="65" t="s">
+      <c r="M69" s="66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="N69" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="O69" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q69" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="R69" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="29"/>
       <c r="B70" s="35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C70" s="36" t="s">
         <v>53</v>
@@ -4851,17 +4956,26 @@
       <c r="M70" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="67">
+      <c r="N70" s="68">
         <v>12</v>
       </c>
       <c r="O70" s="61">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q70" s="61">
+        <v>12</v>
+      </c>
+      <c r="R70" s="61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="29"/>
       <c r="B71" s="35" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C71" s="36" t="s">
         <v>55</v>
@@ -4896,25 +5010,34 @@
       <c r="M71" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="67">
+      <c r="N71" s="68">
         <v>12</v>
       </c>
       <c r="O71" s="61">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="61">
+        <v>12</v>
+      </c>
+      <c r="R71" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="71" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="D72" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="E72" s="53">
         <v>44515</v>
@@ -4926,10 +5049,10 @@
         <v>44515</v>
       </c>
       <c r="H72" s="53"/>
-      <c r="I72" s="75">
+      <c r="I72" s="83">
         <v>72</v>
       </c>
-      <c r="J72" s="75">
+      <c r="J72" s="83">
         <v>76</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -4941,22 +5064,31 @@
       <c r="M72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="67">
+      <c r="N72" s="68">
         <v>12</v>
       </c>
       <c r="O72" s="61">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="61">
+        <v>12</v>
+      </c>
+      <c r="R72" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="C73" s="70" t="s">
         <v>164</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>165</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>15</v>
@@ -4994,14 +5126,23 @@
       <c r="O73" s="61">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="61">
+        <v>12</v>
+      </c>
+      <c r="R73" s="61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="29"/>
       <c r="B74" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>15</v>
@@ -5039,11 +5180,20 @@
       <c r="O74" s="61">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" s="61">
+        <v>12</v>
+      </c>
+      <c r="R74" s="61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="29"/>
       <c r="B75" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>51</v>
@@ -5084,11 +5234,20 @@
       <c r="O75" s="61">
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="61">
+        <v>12</v>
+      </c>
+      <c r="R75" s="61">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="29"/>
       <c r="B76" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>53</v>
@@ -5120,7 +5279,7 @@
       <c r="L76" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M76" s="76" t="s">
+      <c r="M76" s="69" t="s">
         <v>56</v>
       </c>
       <c r="N76" s="61">
@@ -5131,11 +5290,22 @@
         <f>SUM(O70:O75)</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q76" s="61">
+        <f>SUM(Q70:Q75)</f>
+        <v>72</v>
+      </c>
+      <c r="R76" s="61">
+        <f>SUM(R70:R75)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="29"/>
       <c r="B77" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>55</v>
@@ -5164,29 +5334,36 @@
       <c r="K77" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L77" s="76" t="s">
+      <c r="L77" s="69" t="s">
         <v>56</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N77" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="O77" s="66"/>
-    </row>
-    <row r="78" spans="1:15">
+        <v>103</v>
+      </c>
+      <c r="N77" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="O77" s="67"/>
+      <c r="P77" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q77" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="R77" s="89"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="29" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="71" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="E78" s="53">
         <v>44515</v>
@@ -5198,10 +5375,10 @@
         <v>44515</v>
       </c>
       <c r="H78" s="53"/>
-      <c r="I78" s="77">
+      <c r="I78" s="84">
         <v>72</v>
       </c>
-      <c r="J78" s="77">
+      <c r="J78" s="84">
         <v>71</v>
       </c>
       <c r="K78" s="35" t="s">
@@ -5210,24 +5387,15 @@
       <c r="L78" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M78" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N78" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="O78" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="29" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B79" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="70" t="s">
+      <c r="C79" s="73" t="s">
         <v>173</v>
       </c>
       <c r="D79" s="34" t="s">
@@ -5257,17 +5425,8 @@
       <c r="L79" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M79" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="N79" s="61">
-        <v>12</v>
-      </c>
-      <c r="O79" s="61">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="29"/>
       <c r="B80" s="35" t="s">
         <v>174</v>
@@ -5302,17 +5461,8 @@
       <c r="L80" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M80" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N80" s="61">
-        <v>12</v>
-      </c>
-      <c r="O80" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="29"/>
       <c r="B81" s="35" t="s">
         <v>176</v>
@@ -5326,13 +5476,13 @@
       <c r="E81" s="50">
         <v>44522</v>
       </c>
-      <c r="F81" s="74" t="s">
+      <c r="F81" s="81" t="s">
         <v>177</v>
       </c>
       <c r="G81" s="50">
         <v>44522</v>
       </c>
-      <c r="H81" s="74" t="s">
+      <c r="H81" s="81" t="s">
         <v>177</v>
       </c>
       <c r="I81" s="23">
@@ -5347,17 +5497,8 @@
       <c r="L81" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M81" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N81" s="61">
-        <v>12</v>
-      </c>
-      <c r="O81" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="29"/>
       <c r="B82" s="35" t="s">
         <v>178</v>
@@ -5392,20 +5533,17 @@
       <c r="L82" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M82" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N82" s="61">
-        <v>12</v>
-      </c>
-      <c r="O82" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="M82" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="P82" s="64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="29"/>
       <c r="B83" s="35" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>55</v>
@@ -5422,7 +5560,7 @@
       <c r="G83" s="50">
         <v>44522</v>
       </c>
-      <c r="H83" s="74" t="s">
+      <c r="H83" s="81" t="s">
         <v>177</v>
       </c>
       <c r="I83" s="23">
@@ -5434,31 +5572,40 @@
       <c r="K83" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L83" s="76" t="s">
+      <c r="L83" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M83" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N83" s="61">
-        <v>12</v>
-      </c>
-      <c r="O83" s="79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="72" t="s">
-        <v>144</v>
+      <c r="M83" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="N83" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="O83" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="P83" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q83" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="R83" s="66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="75" t="s">
+        <v>146</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D84" s="71" t="s">
         <v>161</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="E84" s="53">
         <v>44515</v>
@@ -5466,42 +5613,51 @@
       <c r="F84" s="50">
         <v>44535</v>
       </c>
-      <c r="G84" s="74" t="s">
-        <v>180</v>
+      <c r="G84" s="81" t="s">
+        <v>182</v>
       </c>
       <c r="H84" s="23"/>
-      <c r="I84" s="23">
+      <c r="I84" s="60">
         <v>72</v>
       </c>
-      <c r="J84" s="23"/>
+      <c r="J84" s="60">
+        <v>109</v>
+      </c>
       <c r="K84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L84" s="76" t="s">
+      <c r="L84" s="69" t="s">
         <v>56</v>
       </c>
       <c r="M84" s="23" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N84" s="61">
         <v>12</v>
       </c>
-      <c r="O84" s="80">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="O84" s="61">
+        <v>30</v>
+      </c>
+      <c r="P84" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="61">
+        <v>2</v>
+      </c>
+      <c r="R84" s="89"/>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="D85" s="71" t="s">
-        <v>161</v>
+      <c r="C85" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E85" s="50">
         <v>44529</v>
@@ -5509,77 +5665,99 @@
       <c r="F85" s="50">
         <v>44529</v>
       </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="G85" s="50">
+        <v>44529</v>
+      </c>
+      <c r="H85" s="50">
+        <v>44529</v>
+      </c>
       <c r="I85" s="23">
         <v>1</v>
       </c>
-      <c r="J85" s="23"/>
+      <c r="J85" s="23">
+        <v>1</v>
+      </c>
       <c r="K85" s="29" t="s">
         <v>25</v>
       </c>
       <c r="L85" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M85" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85" s="61">
-        <f>SUM(N79:N84)</f>
-        <v>72</v>
-      </c>
-      <c r="O85" s="79">
-        <f>SUM(O79:O84)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="M85" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N85" s="86">
+        <v>12</v>
+      </c>
+      <c r="O85" s="61">
+        <v>15</v>
+      </c>
+      <c r="P85" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" s="86">
+        <v>6</v>
+      </c>
+      <c r="R85" s="89"/>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="29"/>
-      <c r="B86" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="36" t="s">
+      <c r="B86" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="D86" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E86" s="50">
+      <c r="C86" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="49">
         <v>44532</v>
       </c>
-      <c r="F86" s="50">
+      <c r="F86" s="49">
         <v>44532</v>
       </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="23">
-        <v>1</v>
-      </c>
-      <c r="J86" s="23"/>
-      <c r="K86" s="29" t="s">
+      <c r="G86" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="H86" s="82"/>
+      <c r="I86" s="26">
+        <v>1</v>
+      </c>
+      <c r="J86" s="26"/>
+      <c r="K86" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="29" t="s">
+      <c r="L86" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="M86" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N86" s="78" t="s">
-        <v>170</v>
-      </c>
-      <c r="O86" s="81"/>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="M86" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N86" s="61">
+        <v>12</v>
+      </c>
+      <c r="O86" s="61">
+        <v>24</v>
+      </c>
+      <c r="P86" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="61">
+        <v>2</v>
+      </c>
+      <c r="R86" s="89"/>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="29"/>
       <c r="B87" s="35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="71" t="s">
-        <v>161</v>
+      <c r="D87" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E87" s="50">
         <v>44529</v>
@@ -5587,38 +5765,51 @@
       <c r="F87" s="50">
         <v>44535</v>
       </c>
-      <c r="G87" s="50"/>
-      <c r="H87" s="50"/>
+      <c r="G87" s="50">
+        <v>44529</v>
+      </c>
+      <c r="H87" s="50">
+        <v>44535</v>
+      </c>
       <c r="I87" s="23">
         <v>3</v>
       </c>
-      <c r="J87" s="23"/>
+      <c r="J87" s="23">
+        <v>3</v>
+      </c>
       <c r="K87" s="29" t="s">
         <v>25</v>
       </c>
       <c r="L87" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M87" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="N87" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="O87" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="M87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87" s="61">
+        <v>12</v>
+      </c>
+      <c r="O87" s="61">
+        <v>22</v>
+      </c>
+      <c r="P87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q87" s="61">
+        <v>2</v>
+      </c>
+      <c r="R87" s="89"/>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="29"/>
       <c r="B88" s="35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="71" t="s">
-        <v>161</v>
+      <c r="D88" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E88" s="50">
         <v>44535</v>
@@ -5626,36 +5817,51 @@
       <c r="F88" s="50">
         <v>44535</v>
       </c>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
+      <c r="G88" s="50">
+        <v>44535</v>
+      </c>
+      <c r="H88" s="50">
+        <v>44535</v>
+      </c>
       <c r="I88" s="23">
         <v>1</v>
       </c>
-      <c r="J88" s="23"/>
+      <c r="J88" s="23">
+        <v>1</v>
+      </c>
       <c r="K88" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L88" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N88" s="79">
+        <v>22</v>
+      </c>
+      <c r="N88" s="61">
         <v>12</v>
       </c>
-      <c r="O88" s="81"/>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="O88" s="61">
+        <v>6</v>
+      </c>
+      <c r="P88" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q88" s="61">
+        <v>10</v>
+      </c>
+      <c r="R88" s="89"/>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="29"/>
       <c r="B89" s="35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D89" s="71" t="s">
-        <v>161</v>
+      <c r="D89" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E89" s="50">
         <v>44529</v>
@@ -5663,87 +5869,363 @@
       <c r="F89" s="50">
         <v>44535</v>
       </c>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
+      <c r="G89" s="50">
+        <v>44529</v>
+      </c>
+      <c r="H89" s="50">
+        <v>44535</v>
+      </c>
       <c r="I89" s="23">
         <v>4</v>
       </c>
-      <c r="J89" s="23"/>
+      <c r="J89" s="23">
+        <v>4</v>
+      </c>
       <c r="K89" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L89" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M89" s="23" t="s">
+      <c r="M89" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="61">
+        <v>12</v>
+      </c>
+      <c r="O89" s="61">
+        <v>12</v>
+      </c>
+      <c r="P89" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="61">
+        <v>8</v>
+      </c>
+      <c r="R89" s="89"/>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="53">
+        <v>44515</v>
+      </c>
+      <c r="F90" s="50">
+        <v>44537</v>
+      </c>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="J90" s="23"/>
+      <c r="K90" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L90" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="M90" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="N90" s="61">
+        <v>72</v>
+      </c>
+      <c r="O90" s="61">
+        <f>SUM(O84:O89)</f>
+        <v>109</v>
+      </c>
+      <c r="P90" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q90" s="61">
+        <f>SUM(Q84:Q89)</f>
+        <v>30</v>
+      </c>
+      <c r="R90" s="89"/>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="23"/>
+      <c r="B91" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="50">
+        <v>44537</v>
+      </c>
+      <c r="F91" s="50">
+        <v>44539</v>
+      </c>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="23">
+        <v>8</v>
+      </c>
+      <c r="J91" s="23"/>
+      <c r="K91" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="N89" s="82">
-        <v>12</v>
-      </c>
-      <c r="O89" s="81"/>
-    </row>
-    <row r="90" spans="9:15">
-      <c r="I90" s="3"/>
-      <c r="M90" s="23" t="s">
+      <c r="L91" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="M91" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N91" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="O91" s="89"/>
+      <c r="P91" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q91" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="R91" s="89"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="50">
+        <v>44539</v>
+      </c>
+      <c r="F92" s="50">
+        <v>44541</v>
+      </c>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="23">
+        <v>6</v>
+      </c>
+      <c r="J92" s="23"/>
+      <c r="K92" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="86"/>
+      <c r="N92" s="90"/>
+      <c r="P92" s="86"/>
+      <c r="Q92" s="90"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="23"/>
+      <c r="B93" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="50">
+        <v>44541</v>
+      </c>
+      <c r="F93" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="23">
+        <v>6</v>
+      </c>
+      <c r="J93" s="23"/>
+      <c r="K93" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M93" s="86"/>
+      <c r="N93" s="90"/>
+      <c r="P93" s="86"/>
+      <c r="Q93" s="90"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F94" s="50">
+        <v>44536</v>
+      </c>
+      <c r="G94" s="50"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="23">
+        <v>1</v>
+      </c>
+      <c r="J94" s="23"/>
+      <c r="K94" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="23"/>
+      <c r="B95" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="50">
+        <v>44539</v>
+      </c>
+      <c r="F95" s="50">
+        <v>44539</v>
+      </c>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="23">
+        <v>1</v>
+      </c>
+      <c r="J95" s="23"/>
+      <c r="K95" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="N90" s="79">
-        <v>12</v>
-      </c>
-      <c r="O90" s="81"/>
-    </row>
-    <row r="91" spans="13:15">
-      <c r="M91" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" s="79">
-        <v>12</v>
-      </c>
-      <c r="O91" s="81"/>
-    </row>
-    <row r="92" spans="13:15">
-      <c r="M92" s="23" t="s">
+      <c r="L95" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="23"/>
+      <c r="B96" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F96" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="23">
+        <v>3</v>
+      </c>
+      <c r="J96" s="23"/>
+      <c r="K96" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="23"/>
+      <c r="B97" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="50">
+        <v>44542</v>
+      </c>
+      <c r="F97" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="23">
+        <v>1</v>
+      </c>
+      <c r="J97" s="23"/>
+      <c r="K97" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="23"/>
+      <c r="B98" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F98" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="23">
+        <v>4</v>
+      </c>
+      <c r="J98" s="23"/>
+      <c r="K98" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N92" s="79">
-        <v>12</v>
-      </c>
-      <c r="O92" s="81"/>
-    </row>
-    <row r="93" spans="13:15">
-      <c r="M93" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="79">
-        <v>12</v>
-      </c>
-      <c r="O93" s="81"/>
-    </row>
-    <row r="94" spans="13:15">
-      <c r="M94" s="76" t="s">
+      <c r="L98" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="N94" s="79">
-        <v>72</v>
-      </c>
-      <c r="O94" s="81"/>
-    </row>
-    <row r="95" spans="13:15">
-      <c r="M95" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N95" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="O95" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L89">
+  <autoFilter ref="A1:L98">
     <extLst/>
   </autoFilter>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -5763,6 +6245,9 @@
     <mergeCell ref="A73:A77"/>
     <mergeCell ref="A79:A83"/>
     <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A98"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$101</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="215">
   <si>
     <t>流程</t>
   </si>
@@ -244,22 +244,67 @@
     <t>week_OutPut2.5</t>
   </si>
   <si>
+    <t>part5</t>
+  </si>
+  <si>
+    <t>OutPut5.1</t>
+  </si>
+  <si>
+    <t>需求的设计计划</t>
+  </si>
+  <si>
+    <t>娄鹏程、于佳斌</t>
+  </si>
+  <si>
+    <t>OutPut5.2</t>
+  </si>
+  <si>
+    <t>UI原型图</t>
+  </si>
+  <si>
+    <t>娄鹏程、王文军</t>
+  </si>
+  <si>
+    <t>OutPut5.3</t>
+  </si>
+  <si>
+    <t>E-R图</t>
+  </si>
+  <si>
+    <t>唐海龙、朱杰鑫</t>
+  </si>
+  <si>
+    <t>OutPut5.4</t>
+  </si>
+  <si>
+    <t>数据库表设计</t>
+  </si>
+  <si>
+    <t>朱杰鑫、唐海龙</t>
+  </si>
+  <si>
+    <t>OutPut5.5</t>
+  </si>
+  <si>
+    <t>重要功能实现流程图</t>
+  </si>
+  <si>
+    <t>OutPut5.6</t>
+  </si>
+  <si>
+    <t>依赖客户输入清单</t>
+  </si>
+  <si>
     <t>week3</t>
   </si>
   <si>
     <t>week4</t>
   </si>
   <si>
-    <t>part5</t>
-  </si>
-  <si>
-    <t>OutPut5.1</t>
-  </si>
-  <si>
-    <t>需求的设计计划</t>
-  </si>
-  <si>
-    <t>娄鹏程、于佳斌</t>
+    <t>OutPut5.7</t>
+  </si>
+  <si>
+    <t>资源采购清单管理文档</t>
   </si>
   <si>
     <t>成员</t>
@@ -271,51 +316,6 @@
     <t>实际总用时</t>
   </si>
   <si>
-    <t>OutPut5.2</t>
-  </si>
-  <si>
-    <t>UI原型图</t>
-  </si>
-  <si>
-    <t>娄鹏程、王文军</t>
-  </si>
-  <si>
-    <t>OutPut5.3</t>
-  </si>
-  <si>
-    <t>E-R图</t>
-  </si>
-  <si>
-    <t>唐海龙、朱杰鑫</t>
-  </si>
-  <si>
-    <t>OutPut5.4</t>
-  </si>
-  <si>
-    <t>数据库表设计</t>
-  </si>
-  <si>
-    <t>朱杰鑫、唐海龙</t>
-  </si>
-  <si>
-    <t>OutPut5.5</t>
-  </si>
-  <si>
-    <t>重要功能实现流程图</t>
-  </si>
-  <si>
-    <t>OutPut5.6</t>
-  </si>
-  <si>
-    <t>依赖客户输入清单</t>
-  </si>
-  <si>
-    <t>OutPut5.7</t>
-  </si>
-  <si>
-    <t>资源采购清单管理文档</t>
-  </si>
-  <si>
     <t>OutPut5.8</t>
   </si>
   <si>
@@ -328,6 +328,36 @@
     <t>风险清单管理文档</t>
   </si>
   <si>
+    <t>week_OutPut3.1</t>
+  </si>
+  <si>
+    <t>10/18小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut3.2</t>
+  </si>
+  <si>
+    <t>10/21小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut3.3</t>
+  </si>
+  <si>
+    <t>week_OutPut3.4</t>
+  </si>
+  <si>
+    <t>week_OutPut3.5</t>
+  </si>
+  <si>
+    <t>part6</t>
+  </si>
+  <si>
+    <t>OutPut6.1</t>
+  </si>
+  <si>
+    <t>内部评审计划</t>
+  </si>
+  <si>
     <t>完成数/流程任务数</t>
   </si>
   <si>
@@ -337,36 +367,6 @@
     <t>2/5</t>
   </si>
   <si>
-    <t>week_OutPut3.1</t>
-  </si>
-  <si>
-    <t>10/18小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut3.2</t>
-  </si>
-  <si>
-    <t>10/21小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut3.3</t>
-  </si>
-  <si>
-    <t>week_OutPut3.4</t>
-  </si>
-  <si>
-    <t>week_OutPut3.5</t>
-  </si>
-  <si>
-    <t>part6</t>
-  </si>
-  <si>
-    <t>OutPut6.1</t>
-  </si>
-  <si>
-    <t>内部评审计划</t>
-  </si>
-  <si>
     <t>OutPut6.2</t>
   </si>
   <si>
@@ -508,118 +508,139 @@
     <t>代码开发</t>
   </si>
   <si>
+    <t>week_OutPut7.1</t>
+  </si>
+  <si>
+    <t>11/15小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut7.2</t>
+  </si>
+  <si>
+    <t>11/18小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut7.3</t>
+  </si>
+  <si>
+    <t>week_OutPut7.4</t>
+  </si>
+  <si>
+    <t>week_OutPut7.5</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>week_OutPut8.1</t>
+  </si>
+  <si>
+    <t>11/22小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut8.2</t>
+  </si>
+  <si>
+    <t>11/25小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut8.3</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>week_OutPut8.4</t>
+  </si>
+  <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>week10</t>
+  </si>
+  <si>
+    <t>week_OutPut8.5</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>week_OutPut9.1</t>
+  </si>
+  <si>
+    <t>11/29小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut9.2</t>
+  </si>
+  <si>
+    <t>12/02小组会议记录</t>
+  </si>
+  <si>
+    <t>已取消</t>
+  </si>
+  <si>
+    <t>week_OutPut9.3</t>
+  </si>
+  <si>
+    <t>week_OutPut9.4</t>
+  </si>
+  <si>
+    <t>week_OutPut9.5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>OutPut8.4</t>
+  </si>
+  <si>
+    <t>代码评审报告</t>
+  </si>
+  <si>
+    <t>唐海龙、陆奕伶</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>part9</t>
+  </si>
+  <si>
+    <t>OutPut9.1</t>
+  </si>
+  <si>
+    <t>联调计划</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>week_OutPut7.1</t>
-  </si>
-  <si>
-    <t>11/15小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut7.2</t>
-  </si>
-  <si>
-    <t>11/18小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut7.3</t>
-  </si>
-  <si>
-    <t>week_OutPut7.4</t>
-  </si>
-  <si>
-    <t>week_OutPut7.5</t>
-  </si>
-  <si>
-    <t>0/1</t>
-  </si>
-  <si>
-    <t>week_OutPut8.1</t>
-  </si>
-  <si>
-    <t>11/22小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut8.2</t>
-  </si>
-  <si>
-    <t>11/25小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut8.3</t>
-  </si>
-  <si>
-    <t>2021-11-28</t>
-  </si>
-  <si>
-    <t>week_OutPut8.4</t>
-  </si>
-  <si>
-    <t>week9</t>
-  </si>
-  <si>
-    <t>week10</t>
-  </si>
-  <si>
-    <t>week_OutPut8.5</t>
-  </si>
-  <si>
-    <t>2021-11-15</t>
-  </si>
-  <si>
-    <t>week_OutPut9.1</t>
-  </si>
-  <si>
-    <t>11/29小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut9.2</t>
-  </si>
-  <si>
-    <t>12/02小组会议记录</t>
-  </si>
-  <si>
-    <t>已取消</t>
-  </si>
-  <si>
-    <t>week_OutPut9.3</t>
-  </si>
-  <si>
-    <t>week_OutPut9.4</t>
-  </si>
-  <si>
-    <t>week_OutPut9.5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>OutPut8.4</t>
-  </si>
-  <si>
-    <t>代码评审报告</t>
-  </si>
-  <si>
-    <t>唐海龙、陆奕伶</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>part9</t>
-  </si>
-  <si>
-    <t>OutPut9.1</t>
-  </si>
-  <si>
-    <t>联调计划</t>
-  </si>
-  <si>
     <t>OutPut9.2</t>
   </si>
   <si>
     <t>联调测试报告</t>
+  </si>
+  <si>
+    <t>part10</t>
+  </si>
+  <si>
+    <t>OutPut10.1</t>
+  </si>
+  <si>
+    <t>内部验收计划</t>
+  </si>
+  <si>
+    <t>OutPut10.2</t>
+  </si>
+  <si>
+    <t>验收标准</t>
+  </si>
+  <si>
+    <t>OutPut10.3</t>
+  </si>
+  <si>
+    <t>验收报告</t>
   </si>
   <si>
     <t>week_OutPut10.1</t>
@@ -648,45 +669,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="37">
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="m/d"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="182" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="183" formatCode="yy/m/d"/>
+    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="185" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="188" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="189" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="192" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="#\ ??"/>
+    <numFmt numFmtId="194" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="178" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="mmmmm"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="198" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="200" formatCode="h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="186" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="187" formatCode="mmmmm"/>
-    <numFmt numFmtId="188" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="189" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="192" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="193" formatCode="#\ ??"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="196" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="197" formatCode="m/d"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="198" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="199" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,22 +741,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,10 +776,33 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,33 +814,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,16 +839,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,24 +869,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -926,12 +953,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -950,7 +971,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1025,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,97 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1115,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,17 +1214,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,8 +1238,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,21 +1278,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1284,152 +1311,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,7 +1464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1537,55 +1564,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1648,31 +1675,40 @@
     <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2016,12 +2052,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M82" sqref="M82:R91"/>
+      <selection pane="bottomLeft" activeCell="M34" sqref="M34:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3029,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:12">
       <c r="A28" s="8"/>
       <c r="B28" s="16" t="s">
         <v>74</v>
@@ -3064,22 +3100,16 @@
       <c r="L28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="M28" s="64" t="s">
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="64" t="s">
+      <c r="B29" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="8" t="s">
+      <c r="C29" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>15</v>
@@ -3106,34 +3136,16 @@
         <v>37</v>
       </c>
       <c r="L29" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="O29" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="P29" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="R29" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" ht="13.15" customHeight="1" spans="1:18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" ht="13.15" customHeight="1" spans="1:12">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
@@ -3160,34 +3172,16 @@
         <v>37</v>
       </c>
       <c r="L30" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30" s="61">
-        <v>8</v>
-      </c>
-      <c r="O30" s="61">
-        <v>11</v>
-      </c>
-      <c r="P30" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" s="61">
-        <v>4.5</v>
-      </c>
-      <c r="R30" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
@@ -3214,34 +3208,16 @@
         <v>33</v>
       </c>
       <c r="L31" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N31" s="61">
-        <v>8.5</v>
-      </c>
-      <c r="O31" s="61">
-        <v>11</v>
-      </c>
-      <c r="P31" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="61">
-        <v>7</v>
-      </c>
-      <c r="R31" s="61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
@@ -3268,34 +3244,16 @@
         <v>16</v>
       </c>
       <c r="L32" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="61">
-        <v>7.5</v>
-      </c>
-      <c r="O32" s="61">
-        <v>10</v>
-      </c>
-      <c r="P32" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q32" s="61">
-        <v>5</v>
-      </c>
-      <c r="R32" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
@@ -3324,32 +3282,14 @@
       <c r="L33" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N33" s="61">
-        <v>8</v>
-      </c>
-      <c r="O33" s="61">
-        <v>7</v>
-      </c>
-      <c r="P33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="61">
-        <v>6.5</v>
-      </c>
-      <c r="R33" s="61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
@@ -3378,32 +3318,20 @@
       <c r="L34" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="61">
-        <v>9</v>
-      </c>
-      <c r="O34" s="61">
-        <v>11</v>
-      </c>
-      <c r="P34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="61">
-        <v>8</v>
-      </c>
-      <c r="R34" s="61">
-        <v>5</v>
+      <c r="M34" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="64" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -3432,23 +3360,23 @@
       <c r="L35" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="61">
-        <v>10</v>
-      </c>
-      <c r="O35" s="61">
-        <v>12</v>
-      </c>
-      <c r="P35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" s="61">
-        <v>8</v>
-      </c>
-      <c r="R35" s="61">
-        <v>5</v>
+      <c r="M35" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="R35" s="66" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3486,27 +3414,23 @@
       <c r="L36" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="61" t="s">
-        <v>56</v>
+      <c r="M36" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="N36" s="61">
-        <f>SUM(N30:N35)</f>
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="O36" s="61">
-        <f>SUM(O30:O35)</f>
-        <v>62</v>
-      </c>
-      <c r="P36" s="61" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="P36" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="Q36" s="61">
-        <f>SUM(Q30:Q35)</f>
-        <v>39</v>
+        <v>4.5</v>
       </c>
       <c r="R36" s="61">
-        <f>SUM(R30:R35)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3544,30 +3468,34 @@
       <c r="L37" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="61" t="s">
+      <c r="M37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="61">
+        <v>8.5</v>
+      </c>
+      <c r="O37" s="61">
+        <v>11</v>
+      </c>
+      <c r="P37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="61">
+        <v>7</v>
+      </c>
+      <c r="R37" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N37" s="67" t="s">
+      <c r="C38" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q37" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="R37" s="67"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>15</v>
@@ -3596,14 +3524,32 @@
       <c r="L38" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="61">
+        <v>7.5</v>
+      </c>
+      <c r="O38" s="61">
+        <v>10</v>
+      </c>
+      <c r="P38" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="61">
+        <v>5</v>
+      </c>
+      <c r="R38" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -3632,11 +3578,29 @@
       <c r="L39" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="61">
+        <v>8</v>
+      </c>
+      <c r="O39" s="61">
+        <v>7</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="61">
+        <v>6.5</v>
+      </c>
+      <c r="R39" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>51</v>
@@ -3668,11 +3632,29 @@
       <c r="L40" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="61">
+        <v>9</v>
+      </c>
+      <c r="O40" s="61">
+        <v>11</v>
+      </c>
+      <c r="P40" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="61">
+        <v>8</v>
+      </c>
+      <c r="R40" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>53</v>
@@ -3704,11 +3686,29 @@
       <c r="L41" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" s="61">
+        <v>10</v>
+      </c>
+      <c r="O41" s="61">
+        <v>12</v>
+      </c>
+      <c r="P41" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="61">
+        <v>8</v>
+      </c>
+      <c r="R41" s="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>55</v>
@@ -3740,16 +3740,38 @@
       <c r="L42" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="61">
+        <f>SUM(N36:N41)</f>
+        <v>51</v>
+      </c>
+      <c r="O42" s="61">
+        <f>SUM(O36:O41)</f>
+        <v>62</v>
+      </c>
+      <c r="P42" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="61">
+        <f>SUM(Q36:Q41)</f>
+        <v>39</v>
+      </c>
+      <c r="R42" s="61">
+        <f>SUM(R36:R41)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D43" s="25" t="s">
         <v>15</v>
@@ -3778,6 +3800,20 @@
       <c r="L43" s="23" t="s">
         <v>25</v>
       </c>
+      <c r="M43" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="N43" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q43" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="R43" s="67"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="23"/>
@@ -3922,7 +3958,7 @@
         <v>33</v>
       </c>
       <c r="L47" s="61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3958,12 +3994,12 @@
         <v>37</v>
       </c>
       <c r="L48" s="61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="23" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>127</v>
@@ -4073,22 +4109,22 @@
         <v>33</v>
       </c>
       <c r="M51" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N51" s="66" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O51" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P51" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q51" s="71" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="R51" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4201,7 +4237,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>116</v>
@@ -4398,7 +4434,7 @@
         <v>33</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>25</v>
@@ -4452,7 +4488,7 @@
         <v>37</v>
       </c>
       <c r="L58" s="62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M58" s="61" t="s">
         <v>56</v>
@@ -4514,14 +4550,14 @@
         <v>16</v>
       </c>
       <c r="M59" s="61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N59" s="70" t="s">
         <v>139</v>
       </c>
       <c r="O59" s="67"/>
       <c r="P59" s="61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q59" s="72" t="s">
         <v>140</v>
@@ -4707,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="L64" s="63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4900,22 +4936,22 @@
         <v>16</v>
       </c>
       <c r="M69" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N69" s="71" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O69" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P69" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q69" s="66" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="R69" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5036,23 +5072,25 @@
       <c r="C72" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="E72" s="53">
+      <c r="D72" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="82">
         <v>44515</v>
       </c>
-      <c r="F72" s="53">
+      <c r="F72" s="82">
         <v>44528</v>
       </c>
-      <c r="G72" s="53">
+      <c r="G72" s="82">
         <v>44515</v>
       </c>
-      <c r="H72" s="53"/>
-      <c r="I72" s="83">
+      <c r="H72" s="82">
+        <v>44536</v>
+      </c>
+      <c r="I72" s="86">
         <v>72</v>
       </c>
-      <c r="J72" s="83">
+      <c r="J72" s="86">
         <v>76</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -5085,10 +5123,10 @@
         <v>156</v>
       </c>
       <c r="B73" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="73" t="s">
         <v>164</v>
-      </c>
-      <c r="C73" s="73" t="s">
-        <v>165</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>15</v>
@@ -5139,10 +5177,10 @@
     <row r="74" spans="1:18">
       <c r="A74" s="29"/>
       <c r="B74" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="36" t="s">
         <v>166</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>167</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>15</v>
@@ -5193,7 +5231,7 @@
     <row r="75" spans="1:18">
       <c r="A75" s="29"/>
       <c r="B75" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" s="36" t="s">
         <v>51</v>
@@ -5247,7 +5285,7 @@
     <row r="76" spans="1:18">
       <c r="A76" s="29"/>
       <c r="B76" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C76" s="36" t="s">
         <v>53</v>
@@ -5305,7 +5343,7 @@
     <row r="77" spans="1:18">
       <c r="A77" s="29"/>
       <c r="B77" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>55</v>
@@ -5338,19 +5376,19 @@
         <v>56</v>
       </c>
       <c r="M77" s="61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N77" s="72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O77" s="67"/>
       <c r="P77" s="61" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Q77" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="R77" s="89"/>
+        <v>170</v>
+      </c>
+      <c r="R77" s="92"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="29" t="s">
@@ -5362,23 +5400,25 @@
       <c r="C78" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D78" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="E78" s="53">
+      <c r="D78" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="82">
         <v>44515</v>
       </c>
-      <c r="F78" s="53">
+      <c r="F78" s="82">
         <v>44528</v>
       </c>
-      <c r="G78" s="53">
+      <c r="G78" s="82">
         <v>44515</v>
       </c>
-      <c r="H78" s="53"/>
-      <c r="I78" s="84">
+      <c r="H78" s="48">
+        <v>44536</v>
+      </c>
+      <c r="I78" s="87">
         <v>72</v>
       </c>
-      <c r="J78" s="84">
+      <c r="J78" s="87">
         <v>71</v>
       </c>
       <c r="K78" s="35" t="s">
@@ -5393,10 +5433,10 @@
         <v>157</v>
       </c>
       <c r="B79" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="73" t="s">
         <v>172</v>
-      </c>
-      <c r="C79" s="73" t="s">
-        <v>173</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>15</v>
@@ -5429,10 +5469,10 @@
     <row r="80" spans="1:12">
       <c r="A80" s="29"/>
       <c r="B80" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>175</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>15</v>
@@ -5465,7 +5505,7 @@
     <row r="81" spans="1:12">
       <c r="A81" s="29"/>
       <c r="B81" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" s="36" t="s">
         <v>51</v>
@@ -5476,14 +5516,14 @@
       <c r="E81" s="50">
         <v>44522</v>
       </c>
-      <c r="F81" s="81" t="s">
-        <v>177</v>
+      <c r="F81" s="83" t="s">
+        <v>176</v>
       </c>
       <c r="G81" s="50">
         <v>44522</v>
       </c>
-      <c r="H81" s="81" t="s">
-        <v>177</v>
+      <c r="H81" s="83" t="s">
+        <v>176</v>
       </c>
       <c r="I81" s="23">
         <v>3</v>
@@ -5501,7 +5541,7 @@
     <row r="82" spans="1:16">
       <c r="A82" s="29"/>
       <c r="B82" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C82" s="36" t="s">
         <v>53</v>
@@ -5534,16 +5574,16 @@
         <v>33</v>
       </c>
       <c r="M82" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="P82" s="64" t="s">
         <v>179</v>
-      </c>
-      <c r="P82" s="64" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="29"/>
       <c r="B83" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="36" t="s">
         <v>55</v>
@@ -5560,8 +5600,8 @@
       <c r="G83" s="50">
         <v>44522</v>
       </c>
-      <c r="H83" s="81" t="s">
-        <v>177</v>
+      <c r="H83" s="83" t="s">
+        <v>176</v>
       </c>
       <c r="I83" s="23">
         <v>4</v>
@@ -5576,47 +5616,49 @@
         <v>56</v>
       </c>
       <c r="M83" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N83" s="66" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O83" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="P83" s="66" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q83" s="66" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="R83" s="66" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="74" t="s">
         <v>146</v>
       </c>
       <c r="B84" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="76" t="s">
+      <c r="C84" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="E84" s="53">
+      <c r="D84" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="82">
         <v>44515</v>
       </c>
-      <c r="F84" s="50">
+      <c r="F84" s="48">
         <v>44535</v>
       </c>
-      <c r="G84" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="H84" s="23"/>
+      <c r="G84" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84" s="48">
+        <v>44536</v>
+      </c>
       <c r="I84" s="60">
         <v>72</v>
       </c>
@@ -5642,19 +5684,19 @@
         <v>37</v>
       </c>
       <c r="Q84" s="61">
-        <v>2</v>
-      </c>
-      <c r="R84" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="R84" s="92"/>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B85" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="73" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="73" t="s">
-        <v>184</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>15</v>
@@ -5686,7 +5728,7 @@
       <c r="M85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="86">
+      <c r="N85" s="89">
         <v>12</v>
       </c>
       <c r="O85" s="61">
@@ -5695,20 +5737,20 @@
       <c r="P85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q85" s="86">
+      <c r="Q85" s="89">
         <v>6</v>
       </c>
-      <c r="R85" s="89"/>
+      <c r="R85" s="92"/>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="29"/>
-      <c r="B86" s="77" t="s">
+      <c r="B86" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D86" s="79" t="s">
+      <c r="D86" s="78" t="s">
         <v>129</v>
       </c>
       <c r="E86" s="49">
@@ -5717,18 +5759,18 @@
       <c r="F86" s="49">
         <v>44532</v>
       </c>
-      <c r="G86" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="H86" s="82"/>
+      <c r="G86" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" s="85"/>
       <c r="I86" s="26">
         <v>1</v>
       </c>
       <c r="J86" s="26"/>
-      <c r="K86" s="85" t="s">
+      <c r="K86" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="85" t="s">
+      <c r="L86" s="88" t="s">
         <v>22</v>
       </c>
       <c r="M86" s="23" t="s">
@@ -5744,14 +5786,14 @@
         <v>16</v>
       </c>
       <c r="Q86" s="61">
-        <v>2</v>
-      </c>
-      <c r="R86" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="R86" s="92"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="29"/>
       <c r="B87" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87" s="36" t="s">
         <v>51</v>
@@ -5796,14 +5838,14 @@
         <v>19</v>
       </c>
       <c r="Q87" s="61">
-        <v>2</v>
-      </c>
-      <c r="R87" s="89"/>
+        <v>8</v>
+      </c>
+      <c r="R87" s="92"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="29"/>
       <c r="B88" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C88" s="36" t="s">
         <v>53</v>
@@ -5850,12 +5892,12 @@
       <c r="Q88" s="61">
         <v>10</v>
       </c>
-      <c r="R88" s="89"/>
+      <c r="R88" s="92"/>
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="29"/>
       <c r="B89" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" s="36" t="s">
         <v>55</v>
@@ -5887,7 +5929,7 @@
       <c r="L89" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M89" s="87" t="s">
+      <c r="M89" s="90" t="s">
         <v>25</v>
       </c>
       <c r="N89" s="61">
@@ -5896,13 +5938,13 @@
       <c r="O89" s="61">
         <v>12</v>
       </c>
-      <c r="P89" s="87" t="s">
+      <c r="P89" s="90" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="61">
         <v>8</v>
       </c>
-      <c r="R89" s="89"/>
+      <c r="R89" s="92"/>
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="29" t="s">
@@ -5911,31 +5953,37 @@
       <c r="B90" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="D90" s="74" t="s">
-        <v>163</v>
+      <c r="D90" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E90" s="53">
         <v>44515</v>
       </c>
       <c r="F90" s="50">
-        <v>44537</v>
-      </c>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="81" t="s">
-        <v>191</v>
-      </c>
-      <c r="J90" s="23"/>
+        <v>44536</v>
+      </c>
+      <c r="G90" s="53">
+        <v>44515</v>
+      </c>
+      <c r="H90" s="50">
+        <v>44536</v>
+      </c>
+      <c r="I90" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" s="23">
+        <v>10</v>
+      </c>
       <c r="K90" s="29" t="s">
         <v>37</v>
       </c>
       <c r="L90" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M90" s="88" t="s">
+      <c r="M90" s="91" t="s">
         <v>56</v>
       </c>
       <c r="N90" s="61">
@@ -5945,77 +5993,83 @@
         <f>SUM(O84:O89)</f>
         <v>109</v>
       </c>
-      <c r="P90" s="88" t="s">
+      <c r="P90" s="91" t="s">
         <v>56</v>
       </c>
       <c r="Q90" s="61">
         <f>SUM(Q84:Q89)</f>
-        <v>30</v>
-      </c>
-      <c r="R90" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="R90" s="92"/>
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="23"/>
       <c r="B91" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91" s="74" t="s">
-        <v>163</v>
+      <c r="D91" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E91" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F91" s="50">
         <v>44537</v>
       </c>
-      <c r="F91" s="50">
-        <v>44539</v>
-      </c>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
+      <c r="G91" s="50">
+        <v>44536</v>
+      </c>
+      <c r="H91" s="50">
+        <v>44537</v>
+      </c>
       <c r="I91" s="23">
         <v>8</v>
       </c>
-      <c r="J91" s="23"/>
+      <c r="J91" s="23">
+        <v>8</v>
+      </c>
       <c r="K91" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L91" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="M91" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="N91" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="O91" s="92"/>
+      <c r="P91" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q91" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="M91" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="N91" s="69" t="s">
-        <v>171</v>
-      </c>
-      <c r="O91" s="89"/>
-      <c r="P91" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q91" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="R91" s="89"/>
+      <c r="R91" s="92"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B92" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="C92" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="D92" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="D92" s="74" t="s">
-        <v>163</v>
-      </c>
       <c r="E92" s="50">
-        <v>44539</v>
+        <v>44537</v>
       </c>
       <c r="F92" s="50">
-        <v>44541</v>
+        <v>44538</v>
       </c>
       <c r="G92" s="50"/>
       <c r="H92" s="50"/>
@@ -6029,27 +6083,27 @@
       <c r="L92" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M92" s="86"/>
-      <c r="N92" s="90"/>
-      <c r="P92" s="86"/>
-      <c r="Q92" s="90"/>
+      <c r="M92" s="89"/>
+      <c r="N92" s="93"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="93"/>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="23"/>
       <c r="B93" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="D93" s="74" t="s">
-        <v>163</v>
+      <c r="D93" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="E93" s="50">
-        <v>44541</v>
+        <v>44538</v>
       </c>
       <c r="F93" s="50">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="G93" s="50"/>
       <c r="H93" s="50"/>
@@ -6063,64 +6117,68 @@
       <c r="L93" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M93" s="86"/>
-      <c r="N93" s="90"/>
-      <c r="P93" s="86"/>
-      <c r="Q93" s="90"/>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" s="89"/>
+      <c r="N93" s="93"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="93"/>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="29" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B94" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="D94" s="74" t="s">
-        <v>163</v>
+      <c r="C94" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="E94" s="50">
-        <v>44536</v>
+        <v>44539</v>
       </c>
       <c r="F94" s="50">
-        <v>44536</v>
+        <v>44540</v>
       </c>
       <c r="G94" s="50"/>
       <c r="H94" s="50"/>
       <c r="I94" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J94" s="23"/>
       <c r="K94" s="29" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L94" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M94" s="89"/>
+      <c r="N94" s="93"/>
+      <c r="P94" s="89"/>
+      <c r="Q94" s="93"/>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="23"/>
       <c r="B95" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D95" s="74" t="s">
-        <v>163</v>
+      <c r="C95" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="E95" s="50">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="F95" s="50">
-        <v>44539</v>
+        <v>44541</v>
       </c>
       <c r="G95" s="50"/>
       <c r="H95" s="50"/>
       <c r="I95" s="23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J95" s="23"/>
       <c r="K95" s="29" t="s">
@@ -6129,20 +6187,24 @@
       <c r="L95" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="89"/>
+      <c r="N95" s="93"/>
+      <c r="P95" s="89"/>
+      <c r="Q95" s="93"/>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="23"/>
       <c r="B96" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D96" s="74" t="s">
-        <v>163</v>
+        <v>206</v>
+      </c>
+      <c r="C96" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="E96" s="50">
-        <v>44536</v>
+        <v>44541</v>
       </c>
       <c r="F96" s="50">
         <v>44542</v>
@@ -6150,82 +6212,184 @@
       <c r="G96" s="50"/>
       <c r="H96" s="50"/>
       <c r="I96" s="23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J96" s="23"/>
       <c r="K96" s="29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L96" s="29" t="s">
-        <v>33</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M96" s="89"/>
+      <c r="N96" s="93"/>
+      <c r="P96" s="89"/>
+      <c r="Q96" s="93"/>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="23"/>
+      <c r="A97" s="29" t="s">
+        <v>179</v>
+      </c>
       <c r="B97" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="74" t="s">
-        <v>163</v>
+        <v>208</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E97" s="50">
-        <v>44542</v>
+        <v>44536</v>
       </c>
       <c r="F97" s="50">
-        <v>44542</v>
-      </c>
-      <c r="G97" s="50"/>
-      <c r="H97" s="50"/>
+        <v>44536</v>
+      </c>
+      <c r="G97" s="50">
+        <v>44536</v>
+      </c>
+      <c r="H97" s="50">
+        <v>44536</v>
+      </c>
       <c r="I97" s="23">
         <v>1</v>
       </c>
-      <c r="J97" s="23"/>
+      <c r="J97" s="23">
+        <v>1</v>
+      </c>
       <c r="K97" s="29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L97" s="29" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="23"/>
       <c r="B98" s="35" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D98" s="74" t="s">
-        <v>163</v>
+        <v>211</v>
+      </c>
+      <c r="D98" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="E98" s="50">
-        <v>44536</v>
+        <v>44539</v>
       </c>
       <c r="F98" s="50">
-        <v>44542</v>
+        <v>44539</v>
       </c>
       <c r="G98" s="50"/>
       <c r="H98" s="50"/>
       <c r="I98" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J98" s="23"/>
       <c r="K98" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="23"/>
+      <c r="B99" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="C99" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F99" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="23">
+        <v>3</v>
+      </c>
+      <c r="J99" s="23"/>
+      <c r="K99" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="23"/>
+      <c r="B100" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="50">
+        <v>44542</v>
+      </c>
+      <c r="F100" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="23">
+        <v>1</v>
+      </c>
+      <c r="J100" s="23"/>
+      <c r="K100" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="23"/>
+      <c r="B101" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="50">
+        <v>44536</v>
+      </c>
+      <c r="F101" s="50">
+        <v>44542</v>
+      </c>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
+      <c r="I101" s="23">
+        <v>4</v>
+      </c>
+      <c r="J101" s="23"/>
+      <c r="K101" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L98" s="63" t="s">
+      <c r="L101" s="63" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L98">
+  <autoFilter ref="A1:L101">
     <extLst/>
   </autoFilter>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
@@ -6247,7 +6411,8 @@
     <mergeCell ref="A85:A89"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A101"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu_rself\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C9660-8ADA-4D00-9E56-8AB904C1A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$101</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="238">
   <si>
     <t>流程</t>
   </si>
@@ -601,7 +616,7 @@
     <t>唐海龙、陆奕伶</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>7/7</t>
   </si>
   <si>
     <t>part9</t>
@@ -613,101 +628,134 @@
     <t>联调计划</t>
   </si>
   <si>
+    <t>OutPut9.2</t>
+  </si>
+  <si>
+    <t>联调测试报告</t>
+  </si>
+  <si>
+    <t>part10</t>
+  </si>
+  <si>
+    <t>OutPut10.1</t>
+  </si>
+  <si>
+    <t>内部验收计划</t>
+  </si>
+  <si>
+    <t>OutPut10.2</t>
+  </si>
+  <si>
+    <t>验收标准</t>
+  </si>
+  <si>
+    <t>OutPut10.3</t>
+  </si>
+  <si>
+    <t>验收报告</t>
+  </si>
+  <si>
+    <t>week_OutPut10.1</t>
+  </si>
+  <si>
+    <t>12/06小组会议记录</t>
+  </si>
+  <si>
+    <t>week11</t>
+  </si>
+  <si>
+    <t>week_OutPut10.2</t>
+  </si>
+  <si>
+    <t>12/09小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut10.3</t>
+  </si>
+  <si>
+    <t>week_OutPut10.4</t>
+  </si>
+  <si>
+    <t>week_OutPut10.5</t>
+  </si>
+  <si>
+    <t>part11</t>
+  </si>
+  <si>
+    <t>OutPut11.1</t>
+  </si>
+  <si>
+    <t>客户验收计划</t>
+  </si>
+  <si>
     <t>未完成</t>
   </si>
   <si>
-    <t>OutPut9.2</t>
-  </si>
-  <si>
-    <t>联调测试报告</t>
-  </si>
-  <si>
-    <t>part10</t>
-  </si>
-  <si>
-    <t>OutPut10.1</t>
-  </si>
-  <si>
-    <t>内部验收计划</t>
-  </si>
-  <si>
-    <t>OutPut10.2</t>
-  </si>
-  <si>
-    <t>验收标准</t>
-  </si>
-  <si>
-    <t>OutPut10.3</t>
-  </si>
-  <si>
-    <t>验收报告</t>
-  </si>
-  <si>
-    <t>week_OutPut10.1</t>
-  </si>
-  <si>
-    <t>12/06小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut10.2</t>
-  </si>
-  <si>
-    <t>12/09小组会议记录</t>
-  </si>
-  <si>
-    <t>week_OutPut10.3</t>
-  </si>
-  <si>
-    <t>week_OutPut10.4</t>
-  </si>
-  <si>
-    <t>week_OutPut10.5</t>
+    <t>OutPut11.2</t>
+  </si>
+  <si>
+    <t>OutPut11.3</t>
+  </si>
+  <si>
+    <t>OutPut11.4</t>
+  </si>
+  <si>
+    <t>客户验收签收单</t>
+  </si>
+  <si>
+    <t>part12</t>
+  </si>
+  <si>
+    <t>OutPut12.1</t>
+  </si>
+  <si>
+    <t>发布版本产物</t>
+  </si>
+  <si>
+    <t>0/7</t>
+  </si>
+  <si>
+    <t>OutPut12.2</t>
+  </si>
+  <si>
+    <t>项目复盘</t>
+  </si>
+  <si>
+    <t>OutPut12.3</t>
+  </si>
+  <si>
+    <t>项目总结</t>
+  </si>
+  <si>
+    <t>week_OutPut11.1</t>
+  </si>
+  <si>
+    <t>12/13小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut11.2</t>
+  </si>
+  <si>
+    <t>12/16小组会议记录</t>
+  </si>
+  <si>
+    <t>week_OutPut11.3</t>
+  </si>
+  <si>
+    <t>week_OutPut11.4</t>
+  </si>
+  <si>
+    <t>week_OutPut11.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="37">
-    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="m/d"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="182" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="183" formatCode="yy/m/d"/>
-    <numFmt numFmtId="184" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="185" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="189" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="191" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="192" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="#\ ??"/>
-    <numFmt numFmtId="194" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="195" formatCode="mmmmm"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="197" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="198" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="199" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="200" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,88 +794,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="10.5"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -837,60 +807,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,7 +829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,176 +881,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1210,253 +972,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,7 +990,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1486,10 +1012,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,7 +1033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1528,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,7 +1063,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,55 +1090,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1693,13 +1219,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1708,7 +1249,10 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="192" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,6 +1263,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1733,62 +1280,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2046,40 +1569,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M34" sqref="M34:R43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.73046875" style="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.3833333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="1"/>
+    <col min="4" max="4" width="11.265625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.46484375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.3984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" style="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1166666666667" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="4" customWidth="1"/>
-    <col min="14" max="15" width="10.875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="4" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="4"/>
+    <col min="12" max="12" width="20.1328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.265625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="10.86328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.265625" style="4" customWidth="1"/>
+    <col min="17" max="18" width="10.86328125" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="8.73046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:12">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2117,8 +1639,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="102" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2155,8 +1677,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="102"/>
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
@@ -2191,8 +1713,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="102"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
@@ -2227,8 +1749,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="102"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -2263,8 +1785,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="102" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2301,8 +1823,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="102"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
@@ -2337,8 +1859,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="102"/>
       <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
@@ -2373,8 +1895,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="102" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2411,8 +1933,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="102"/>
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -2447,8 +1969,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="8"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="102"/>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
@@ -2483,8 +2005,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="102"/>
       <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
@@ -2519,8 +2041,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="102"/>
       <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
@@ -2555,8 +2077,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="102" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -2593,8 +2115,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="102"/>
       <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
@@ -2629,8 +2151,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="102"/>
       <c r="B16" s="16" t="s">
         <v>50</v>
       </c>
@@ -2665,8 +2187,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="102"/>
       <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
@@ -2701,8 +2223,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="102"/>
       <c r="B18" s="16" t="s">
         <v>54</v>
       </c>
@@ -2737,8 +2259,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="102" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2775,8 +2297,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="102"/>
       <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2333,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="102"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
@@ -2847,8 +2369,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="102"/>
       <c r="B22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2883,8 +2405,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="102"/>
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -2919,8 +2441,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="102" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -2957,8 +2479,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="8"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="102"/>
       <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
@@ -2993,8 +2515,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="102"/>
       <c r="B26" s="16" t="s">
         <v>72</v>
       </c>
@@ -3029,8 +2551,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="102"/>
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -3065,8 +2587,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="102"/>
       <c r="B28" s="16" t="s">
         <v>74</v>
       </c>
@@ -3101,8 +2623,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="102" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -3139,8 +2661,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" ht="13.15" customHeight="1" spans="1:12">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="102"/>
       <c r="B30" s="8" t="s">
         <v>79</v>
       </c>
@@ -3175,8 +2697,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="102"/>
       <c r="B31" s="8" t="s">
         <v>82</v>
       </c>
@@ -3211,8 +2733,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="102"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
@@ -3247,8 +2769,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="102"/>
       <c r="B33" s="8" t="s">
         <v>88</v>
       </c>
@@ -3283,8 +2805,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="102"/>
       <c r="B34" s="8" t="s">
         <v>90</v>
       </c>
@@ -3325,8 +2847,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="102"/>
       <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
@@ -3379,8 +2901,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="102"/>
       <c r="B36" s="8" t="s">
         <v>99</v>
       </c>
@@ -3433,8 +2955,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="102"/>
       <c r="B37" s="8" t="s">
         <v>101</v>
       </c>
@@ -3487,8 +3009,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="102" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -3543,8 +3065,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="102"/>
       <c r="B39" s="8" t="s">
         <v>105</v>
       </c>
@@ -3597,8 +3119,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="102"/>
       <c r="B40" s="8" t="s">
         <v>107</v>
       </c>
@@ -3651,8 +3173,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="102"/>
       <c r="B41" s="8" t="s">
         <v>108</v>
       </c>
@@ -3705,8 +3227,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="20"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="103"/>
       <c r="B42" s="20" t="s">
         <v>109</v>
       </c>
@@ -3763,8 +3285,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="23" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="104" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -3815,8 +3337,8 @@
       </c>
       <c r="R43" s="67"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="23"/>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="104"/>
       <c r="B44" s="23" t="s">
         <v>116</v>
       </c>
@@ -3851,8 +3373,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="23"/>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="104"/>
       <c r="B45" s="23" t="s">
         <v>118</v>
       </c>
@@ -3887,8 +3409,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="23"/>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="104"/>
       <c r="B46" s="23" t="s">
         <v>120</v>
       </c>
@@ -3923,8 +3445,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="104" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3961,8 +3483,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="23"/>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="104"/>
       <c r="B48" s="23" t="s">
         <v>125</v>
       </c>
@@ -3997,8 +3519,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="104" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="26" t="s">
@@ -4033,8 +3555,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="104"/>
       <c r="B50" s="26" t="s">
         <v>130</v>
       </c>
@@ -4073,8 +3595,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="23"/>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="104"/>
       <c r="B51" s="23" t="s">
         <v>134</v>
       </c>
@@ -4127,8 +3649,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="104"/>
       <c r="B52" s="23" t="s">
         <v>135</v>
       </c>
@@ -4181,8 +3703,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="23"/>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="104"/>
       <c r="B53" s="23" t="s">
         <v>136</v>
       </c>
@@ -4235,8 +3757,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="105" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -4291,8 +3813,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
-      <c r="A55" s="23"/>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="104"/>
       <c r="B55" s="23" t="s">
         <v>118</v>
       </c>
@@ -4345,8 +3867,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
-      <c r="A56" s="23"/>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="104"/>
       <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
@@ -4399,8 +3921,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="105" t="s">
         <v>122</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4455,8 +3977,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="30"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="106"/>
       <c r="B58" s="30" t="s">
         <v>125</v>
       </c>
@@ -4512,8 +4034,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="104" t="s">
         <v>132</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -4564,8 +4086,8 @@
       </c>
       <c r="R59" s="67"/>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="23"/>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="104"/>
       <c r="B60" s="32" t="s">
         <v>141</v>
       </c>
@@ -4600,8 +4122,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="23"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="104"/>
       <c r="B61" s="35" t="s">
         <v>143</v>
       </c>
@@ -4636,8 +4158,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="23"/>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="104"/>
       <c r="B62" s="35" t="s">
         <v>144</v>
       </c>
@@ -4672,8 +4194,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="23"/>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="104"/>
       <c r="B63" s="35" t="s">
         <v>145</v>
       </c>
@@ -4708,7 +4230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>122</v>
       </c>
@@ -4746,8 +4268,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="29" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="105" t="s">
         <v>146</v>
       </c>
       <c r="B65" s="35" t="s">
@@ -4784,8 +4306,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="29"/>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="105"/>
       <c r="B66" s="35" t="s">
         <v>150</v>
       </c>
@@ -4820,8 +4342,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="29" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="105" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="35" t="s">
@@ -4858,8 +4380,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
-      <c r="A68" s="29"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="105"/>
       <c r="B68" s="35" t="s">
         <v>154</v>
       </c>
@@ -4900,8 +4422,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="29"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="105"/>
       <c r="B69" s="35" t="s">
         <v>158</v>
       </c>
@@ -4954,8 +4476,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="29"/>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="105"/>
       <c r="B70" s="35" t="s">
         <v>159</v>
       </c>
@@ -5008,8 +4530,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="29"/>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="105"/>
       <c r="B71" s="35" t="s">
         <v>160</v>
       </c>
@@ -5062,7 +4584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>146</v>
       </c>
@@ -5075,22 +4597,22 @@
       <c r="D72" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="82">
+      <c r="E72" s="87">
         <v>44515</v>
       </c>
-      <c r="F72" s="82">
+      <c r="F72" s="87">
         <v>44528</v>
       </c>
-      <c r="G72" s="82">
+      <c r="G72" s="87">
         <v>44515</v>
       </c>
-      <c r="H72" s="82">
+      <c r="H72" s="87">
         <v>44536</v>
       </c>
-      <c r="I72" s="86">
+      <c r="I72" s="92">
         <v>72</v>
       </c>
-      <c r="J72" s="86">
+      <c r="J72" s="92">
         <v>76</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -5118,8 +4640,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
-      <c r="A73" s="29" t="s">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="105" t="s">
         <v>156</v>
       </c>
       <c r="B73" s="35" t="s">
@@ -5174,8 +4696,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
-      <c r="A74" s="29"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="105"/>
       <c r="B74" s="35" t="s">
         <v>165</v>
       </c>
@@ -5228,8 +4750,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
-      <c r="A75" s="29"/>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="105"/>
       <c r="B75" s="35" t="s">
         <v>167</v>
       </c>
@@ -5282,8 +4804,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
-      <c r="A76" s="29"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="105"/>
       <c r="B76" s="35" t="s">
         <v>168</v>
       </c>
@@ -5340,8 +4862,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="29"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="105"/>
       <c r="B77" s="35" t="s">
         <v>169</v>
       </c>
@@ -5388,9 +4910,9 @@
       <c r="Q77" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="R77" s="92"/>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="R77" s="99"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="29" t="s">
         <v>146</v>
       </c>
@@ -5403,22 +4925,22 @@
       <c r="D78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="82">
+      <c r="E78" s="87">
         <v>44515</v>
       </c>
-      <c r="F78" s="82">
+      <c r="F78" s="87">
         <v>44528</v>
       </c>
-      <c r="G78" s="82">
+      <c r="G78" s="87">
         <v>44515</v>
       </c>
       <c r="H78" s="48">
         <v>44536</v>
       </c>
-      <c r="I78" s="87">
+      <c r="I78" s="93">
         <v>72</v>
       </c>
-      <c r="J78" s="87">
+      <c r="J78" s="93">
         <v>71</v>
       </c>
       <c r="K78" s="35" t="s">
@@ -5428,8 +4950,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="29" t="s">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="105" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="35" t="s">
@@ -5466,8 +4988,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="29"/>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80" s="105"/>
       <c r="B80" s="35" t="s">
         <v>173</v>
       </c>
@@ -5502,8 +5024,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="29"/>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="105"/>
       <c r="B81" s="35" t="s">
         <v>175</v>
       </c>
@@ -5516,13 +5038,13 @@
       <c r="E81" s="50">
         <v>44522</v>
       </c>
-      <c r="F81" s="83" t="s">
+      <c r="F81" s="88" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="50">
         <v>44522</v>
       </c>
-      <c r="H81" s="83" t="s">
+      <c r="H81" s="88" t="s">
         <v>176</v>
       </c>
       <c r="I81" s="23">
@@ -5538,8 +5060,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="29"/>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="105"/>
       <c r="B82" s="35" t="s">
         <v>177</v>
       </c>
@@ -5580,8 +5102,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="29"/>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="105"/>
       <c r="B83" s="35" t="s">
         <v>180</v>
       </c>
@@ -5600,7 +5122,7 @@
       <c r="G83" s="50">
         <v>44522</v>
       </c>
-      <c r="H83" s="83" t="s">
+      <c r="H83" s="88" t="s">
         <v>176</v>
       </c>
       <c r="I83" s="23">
@@ -5634,7 +5156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="74" t="s">
         <v>146</v>
       </c>
@@ -5647,13 +5169,13 @@
       <c r="D84" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="82">
+      <c r="E84" s="87">
         <v>44515</v>
       </c>
       <c r="F84" s="48">
         <v>44535</v>
       </c>
-      <c r="G84" s="84" t="s">
+      <c r="G84" s="89" t="s">
         <v>181</v>
       </c>
       <c r="H84" s="48">
@@ -5686,10 +5208,12 @@
       <c r="Q84" s="61">
         <v>8</v>
       </c>
-      <c r="R84" s="92"/>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="29" t="s">
+      <c r="R84" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="105" t="s">
         <v>178</v>
       </c>
       <c r="B85" s="35" t="s">
@@ -5728,7 +5252,7 @@
       <c r="M85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="89">
+      <c r="N85" s="96">
         <v>12</v>
       </c>
       <c r="O85" s="61">
@@ -5737,13 +5261,15 @@
       <c r="P85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q85" s="89">
+      <c r="Q85" s="96">
         <v>6</v>
       </c>
-      <c r="R85" s="92"/>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="29"/>
+      <c r="R85" s="101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="105"/>
       <c r="B86" s="76" t="s">
         <v>184</v>
       </c>
@@ -5759,18 +5285,18 @@
       <c r="F86" s="49">
         <v>44532</v>
       </c>
-      <c r="G86" s="85" t="s">
+      <c r="G86" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="H86" s="85"/>
+      <c r="H86" s="90"/>
       <c r="I86" s="26">
         <v>1</v>
       </c>
       <c r="J86" s="26"/>
-      <c r="K86" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="L86" s="88" t="s">
+      <c r="K86" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="L86" s="94" t="s">
         <v>22</v>
       </c>
       <c r="M86" s="23" t="s">
@@ -5788,10 +5314,12 @@
       <c r="Q86" s="61">
         <v>8</v>
       </c>
-      <c r="R86" s="92"/>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="29"/>
+      <c r="R86" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="105"/>
       <c r="B87" s="35" t="s">
         <v>187</v>
       </c>
@@ -5840,10 +5368,12 @@
       <c r="Q87" s="61">
         <v>8</v>
       </c>
-      <c r="R87" s="92"/>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="29"/>
+      <c r="R87" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" s="105"/>
       <c r="B88" s="35" t="s">
         <v>188</v>
       </c>
@@ -5892,10 +5422,12 @@
       <c r="Q88" s="61">
         <v>10</v>
       </c>
-      <c r="R88" s="92"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="29"/>
+      <c r="R88" s="101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" s="105"/>
       <c r="B89" s="35" t="s">
         <v>189</v>
       </c>
@@ -5929,7 +5461,7 @@
       <c r="L89" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M89" s="90" t="s">
+      <c r="M89" s="97" t="s">
         <v>25</v>
       </c>
       <c r="N89" s="61">
@@ -5938,16 +5470,18 @@
       <c r="O89" s="61">
         <v>12</v>
       </c>
-      <c r="P89" s="90" t="s">
+      <c r="P89" s="97" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="61">
         <v>8</v>
       </c>
-      <c r="R89" s="92"/>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="29" t="s">
+      <c r="R89" s="101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" s="105" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="35" t="s">
@@ -5971,7 +5505,7 @@
       <c r="H90" s="50">
         <v>44536</v>
       </c>
-      <c r="I90" s="83" t="s">
+      <c r="I90" s="88" t="s">
         <v>190</v>
       </c>
       <c r="J90" s="23">
@@ -5983,7 +5517,7 @@
       <c r="L90" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M90" s="91" t="s">
+      <c r="M90" s="98" t="s">
         <v>56</v>
       </c>
       <c r="N90" s="61">
@@ -5993,17 +5527,20 @@
         <f>SUM(O84:O89)</f>
         <v>109</v>
       </c>
-      <c r="P90" s="91" t="s">
+      <c r="P90" s="98" t="s">
         <v>56</v>
       </c>
       <c r="Q90" s="61">
         <f>SUM(Q84:Q89)</f>
         <v>48</v>
       </c>
-      <c r="R90" s="92"/>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="23"/>
+      <c r="R90" s="101">
+        <f>SUM(R84:R89)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="104"/>
       <c r="B91" s="35" t="s">
         <v>191</v>
       </c>
@@ -6043,17 +5580,17 @@
       <c r="N91" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="O91" s="92"/>
+      <c r="O91" s="99"/>
       <c r="P91" s="68" t="s">
         <v>113</v>
       </c>
       <c r="Q91" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="R91" s="92"/>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="29" t="s">
+      <c r="R91" s="101"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" s="105" t="s">
         <v>195</v>
       </c>
       <c r="B92" s="35" t="s">
@@ -6062,8 +5599,8 @@
       <c r="C92" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="D92" s="80" t="s">
-        <v>198</v>
+      <c r="D92" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E92" s="50">
         <v>44537</v>
@@ -6071,33 +5608,39 @@
       <c r="F92" s="50">
         <v>44538</v>
       </c>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
+      <c r="G92" s="50">
+        <v>44537</v>
+      </c>
+      <c r="H92" s="50">
+        <v>44538</v>
+      </c>
       <c r="I92" s="23">
         <v>6</v>
       </c>
-      <c r="J92" s="23"/>
+      <c r="J92" s="23">
+        <v>6</v>
+      </c>
       <c r="K92" s="29" t="s">
         <v>25</v>
       </c>
       <c r="L92" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M92" s="89"/>
-      <c r="N92" s="93"/>
-      <c r="P92" s="89"/>
-      <c r="Q92" s="93"/>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="23"/>
+      <c r="M92" s="96"/>
+      <c r="N92" s="100"/>
+      <c r="P92" s="96"/>
+      <c r="Q92" s="100"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="104"/>
       <c r="B93" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="80" t="s">
-        <v>198</v>
+      <c r="D93" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E93" s="50">
         <v>44538</v>
@@ -6105,35 +5648,41 @@
       <c r="F93" s="50">
         <v>44539</v>
       </c>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
+      <c r="G93" s="50">
+        <v>44538</v>
+      </c>
+      <c r="H93" s="50">
+        <v>44539</v>
+      </c>
       <c r="I93" s="23">
         <v>6</v>
       </c>
-      <c r="J93" s="23"/>
+      <c r="J93" s="23">
+        <v>6</v>
+      </c>
       <c r="K93" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M93" s="89"/>
-      <c r="N93" s="93"/>
-      <c r="P93" s="89"/>
-      <c r="Q93" s="93"/>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="29" t="s">
+      <c r="M93" s="96"/>
+      <c r="N93" s="100"/>
+      <c r="P93" s="96"/>
+      <c r="Q93" s="100"/>
+    </row>
+    <row r="94" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B94" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B94" s="35" t="s">
+      <c r="C94" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C94" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" s="80" t="s">
-        <v>198</v>
+      <c r="D94" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E94" s="50">
         <v>44539</v>
@@ -6141,33 +5690,39 @@
       <c r="F94" s="50">
         <v>44540</v>
       </c>
-      <c r="G94" s="50"/>
-      <c r="H94" s="50"/>
+      <c r="G94" s="50">
+        <v>44540</v>
+      </c>
+      <c r="H94" s="50">
+        <v>44540</v>
+      </c>
       <c r="I94" s="23">
         <v>6</v>
       </c>
-      <c r="J94" s="23"/>
+      <c r="J94" s="23">
+        <v>4</v>
+      </c>
       <c r="K94" s="29" t="s">
         <v>37</v>
       </c>
       <c r="L94" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M94" s="89"/>
-      <c r="N94" s="93"/>
-      <c r="P94" s="89"/>
-      <c r="Q94" s="93"/>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="23"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="100"/>
+      <c r="P94" s="96"/>
+      <c r="Q94" s="100"/>
+    </row>
+    <row r="95" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="104"/>
       <c r="B95" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="D95" s="80" t="s">
-        <v>198</v>
+      <c r="D95" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E95" s="50">
         <v>44540</v>
@@ -6175,33 +5730,39 @@
       <c r="F95" s="50">
         <v>44541</v>
       </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50"/>
+      <c r="G95" s="50">
+        <v>44541</v>
+      </c>
+      <c r="H95" s="50">
+        <v>44541</v>
+      </c>
       <c r="I95" s="23">
         <v>6</v>
       </c>
-      <c r="J95" s="23"/>
+      <c r="J95" s="23">
+        <v>5</v>
+      </c>
       <c r="K95" s="29" t="s">
         <v>16</v>
       </c>
       <c r="L95" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M95" s="89"/>
-      <c r="N95" s="93"/>
-      <c r="P95" s="89"/>
-      <c r="Q95" s="93"/>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="23"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="100"/>
+      <c r="P95" s="96"/>
+      <c r="Q95" s="100"/>
+    </row>
+    <row r="96" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="104"/>
       <c r="B96" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="C96" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="D96" s="80" t="s">
-        <v>198</v>
+      <c r="D96" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E96" s="50">
         <v>44541</v>
@@ -6209,32 +5770,38 @@
       <c r="F96" s="50">
         <v>44542</v>
       </c>
-      <c r="G96" s="50"/>
-      <c r="H96" s="50"/>
+      <c r="G96" s="50">
+        <v>44542</v>
+      </c>
+      <c r="H96" s="50">
+        <v>44542</v>
+      </c>
       <c r="I96" s="23">
         <v>6</v>
       </c>
-      <c r="J96" s="23"/>
+      <c r="J96" s="23">
+        <v>5</v>
+      </c>
       <c r="K96" s="29" t="s">
         <v>19</v>
       </c>
       <c r="L96" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M96" s="89"/>
-      <c r="N96" s="93"/>
-      <c r="P96" s="89"/>
-      <c r="Q96" s="93"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="29" t="s">
+      <c r="M96" s="96"/>
+      <c r="N96" s="100"/>
+      <c r="P96" s="96"/>
+      <c r="Q96" s="100"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="105" t="s">
         <v>179</v>
       </c>
       <c r="B97" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="73" t="s">
         <v>208</v>
-      </c>
-      <c r="C97" s="73" t="s">
-        <v>209</v>
       </c>
       <c r="D97" s="34" t="s">
         <v>15</v>
@@ -6263,47 +5830,61 @@
       <c r="L97" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="23"/>
-      <c r="B98" s="35" t="s">
+      <c r="M97" s="64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="104"/>
+      <c r="B98" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D98" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="E98" s="50">
+      <c r="D98" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="49">
         <v>44539</v>
       </c>
-      <c r="F98" s="50">
+      <c r="F98" s="49">
         <v>44539</v>
       </c>
-      <c r="G98" s="50"/>
-      <c r="H98" s="50"/>
-      <c r="I98" s="23">
-        <v>1</v>
-      </c>
-      <c r="J98" s="23"/>
-      <c r="K98" s="29" t="s">
+      <c r="G98" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="26">
+        <v>1</v>
+      </c>
+      <c r="J98" s="26"/>
+      <c r="K98" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="L98" s="29" t="s">
+      <c r="L98" s="94" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="23"/>
+      <c r="M98" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="N98" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="O98" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="104"/>
       <c r="B99" s="35" t="s">
         <v>212</v>
       </c>
       <c r="C99" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D99" s="80" t="s">
-        <v>198</v>
+      <c r="D99" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E99" s="50">
         <v>44536</v>
@@ -6311,29 +5892,40 @@
       <c r="F99" s="50">
         <v>44542</v>
       </c>
-      <c r="G99" s="50"/>
-      <c r="H99" s="50"/>
+      <c r="G99" s="50">
+        <v>44536</v>
+      </c>
+      <c r="H99" s="50">
+        <v>44542</v>
+      </c>
       <c r="I99" s="23">
         <v>3</v>
       </c>
-      <c r="J99" s="23"/>
+      <c r="J99" s="23">
+        <v>3</v>
+      </c>
       <c r="K99" s="29" t="s">
         <v>33</v>
       </c>
       <c r="L99" s="29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="23"/>
+      <c r="M99" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N99" s="61"/>
+      <c r="O99" s="101"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="104"/>
       <c r="B100" s="35" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="80" t="s">
-        <v>198</v>
+      <c r="D100" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E100" s="50">
         <v>44542</v>
@@ -6341,29 +5933,40 @@
       <c r="F100" s="50">
         <v>44542</v>
       </c>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
+      <c r="G100" s="50">
+        <v>44542</v>
+      </c>
+      <c r="H100" s="50">
+        <v>44542</v>
+      </c>
       <c r="I100" s="23">
         <v>1</v>
       </c>
-      <c r="J100" s="23"/>
+      <c r="J100" s="23">
+        <v>1</v>
+      </c>
       <c r="K100" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L100" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="23"/>
+      <c r="N100" s="96"/>
+      <c r="O100" s="101"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="104"/>
       <c r="B101" s="35" t="s">
         <v>214</v>
       </c>
       <c r="C101" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="80" t="s">
-        <v>198</v>
+      <c r="D101" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="E101" s="50">
         <v>44536</v>
@@ -6371,52 +5974,457 @@
       <c r="F101" s="50">
         <v>44542</v>
       </c>
-      <c r="G101" s="50"/>
-      <c r="H101" s="50"/>
+      <c r="G101" s="50">
+        <v>44536</v>
+      </c>
+      <c r="H101" s="50">
+        <v>44542</v>
+      </c>
       <c r="I101" s="23">
         <v>4</v>
       </c>
-      <c r="J101" s="23"/>
+      <c r="J101" s="23">
+        <v>4</v>
+      </c>
       <c r="K101" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L101" s="63" t="s">
         <v>56</v>
       </c>
+      <c r="M101" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N101" s="61"/>
+      <c r="O101" s="101"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" s="91">
+        <v>44543</v>
+      </c>
+      <c r="F102" s="91">
+        <v>44544</v>
+      </c>
+      <c r="G102" s="91"/>
+      <c r="H102" s="91"/>
+      <c r="I102" s="82">
+        <v>4</v>
+      </c>
+      <c r="J102" s="82"/>
+      <c r="K102" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="61"/>
+      <c r="O102" s="101"/>
+    </row>
+    <row r="103" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="105"/>
+      <c r="B103" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E103" s="91">
+        <v>44544</v>
+      </c>
+      <c r="F103" s="91">
+        <v>44545</v>
+      </c>
+      <c r="G103" s="91"/>
+      <c r="H103" s="91"/>
+      <c r="I103" s="82">
+        <v>4</v>
+      </c>
+      <c r="J103" s="82"/>
+      <c r="K103" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L103" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" s="61"/>
+      <c r="O103" s="101"/>
+    </row>
+    <row r="104" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="105"/>
+      <c r="B104" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="91">
+        <v>44545</v>
+      </c>
+      <c r="F104" s="91">
+        <v>44546</v>
+      </c>
+      <c r="G104" s="91"/>
+      <c r="H104" s="91"/>
+      <c r="I104" s="82">
+        <v>4</v>
+      </c>
+      <c r="J104" s="82"/>
+      <c r="K104" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="61"/>
+      <c r="O104" s="101"/>
+    </row>
+    <row r="105" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="105"/>
+      <c r="B105" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="91">
+        <v>44546</v>
+      </c>
+      <c r="F105" s="91">
+        <v>44547</v>
+      </c>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="82">
+        <v>4</v>
+      </c>
+      <c r="J105" s="82"/>
+      <c r="K105" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="N105" s="61"/>
+      <c r="O105" s="101"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="91">
+        <v>44547</v>
+      </c>
+      <c r="F106" s="91">
+        <v>44548</v>
+      </c>
+      <c r="G106" s="91"/>
+      <c r="H106" s="91"/>
+      <c r="I106" s="82">
+        <v>4</v>
+      </c>
+      <c r="J106" s="82"/>
+      <c r="K106" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L106" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="M106" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="N106" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="O106" s="101"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="105"/>
+      <c r="B107" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E107" s="91">
+        <v>44548</v>
+      </c>
+      <c r="F107" s="91">
+        <v>44549</v>
+      </c>
+      <c r="G107" s="91"/>
+      <c r="H107" s="91"/>
+      <c r="I107" s="82">
+        <v>6</v>
+      </c>
+      <c r="J107" s="82"/>
+      <c r="K107" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L107" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="105"/>
+      <c r="B108" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" s="91">
+        <v>44548</v>
+      </c>
+      <c r="F108" s="91">
+        <v>44549</v>
+      </c>
+      <c r="G108" s="91"/>
+      <c r="H108" s="91"/>
+      <c r="I108" s="82">
+        <v>6</v>
+      </c>
+      <c r="J108" s="82"/>
+      <c r="K108" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="91">
+        <v>44543</v>
+      </c>
+      <c r="F109" s="91">
+        <v>44543</v>
+      </c>
+      <c r="G109" s="91"/>
+      <c r="H109" s="91"/>
+      <c r="I109" s="82">
+        <v>1</v>
+      </c>
+      <c r="J109" s="82"/>
+      <c r="K109" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="105"/>
+      <c r="B110" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="91">
+        <v>44546</v>
+      </c>
+      <c r="F110" s="91">
+        <v>44546</v>
+      </c>
+      <c r="G110" s="91"/>
+      <c r="H110" s="91"/>
+      <c r="I110" s="82">
+        <v>1</v>
+      </c>
+      <c r="J110" s="82"/>
+      <c r="K110" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="105"/>
+      <c r="B111" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="91">
+        <v>44543</v>
+      </c>
+      <c r="F111" s="91">
+        <v>44549</v>
+      </c>
+      <c r="G111" s="91"/>
+      <c r="H111" s="91"/>
+      <c r="I111" s="82">
+        <v>3</v>
+      </c>
+      <c r="J111" s="82"/>
+      <c r="K111" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="105"/>
+      <c r="B112" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112" s="91">
+        <v>44549</v>
+      </c>
+      <c r="F112" s="91">
+        <v>44549</v>
+      </c>
+      <c r="G112" s="91"/>
+      <c r="H112" s="91"/>
+      <c r="I112" s="82">
+        <v>1</v>
+      </c>
+      <c r="J112" s="82"/>
+      <c r="K112" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="105"/>
+      <c r="B113" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="91">
+        <v>44543</v>
+      </c>
+      <c r="F113" s="91">
+        <v>44549</v>
+      </c>
+      <c r="G113" s="91"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="82">
+        <v>4</v>
+      </c>
+      <c r="J113" s="82"/>
+      <c r="K113" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="L113" s="63" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L101">
-    <extLst/>
-  </autoFilter>
-  <mergeCells count="23">
+  <autoFilter ref="A1:L101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="26">
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A101"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6425,14 +6433,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
-  </woBookProps>
-</woProps>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6442,10 +6446,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6458,7 +6466,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6476,7 +6484,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
+++ b/PM_LSN_KYGA/PM_项目管理各模块负责人及完成情况.xlsx
@@ -1,38 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu_rself\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644C9660-8ADA-4D00-9E56-8AB904C1A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$112</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="235">
   <si>
     <t>流程</t>
   </si>
@@ -688,9 +673,6 @@
     <t>客户验收计划</t>
   </si>
   <si>
-    <t>未完成</t>
-  </si>
-  <si>
     <t>OutPut11.2</t>
   </si>
   <si>
@@ -712,7 +694,7 @@
     <t>发布版本产物</t>
   </si>
   <si>
-    <t>0/7</t>
+    <t>6/7</t>
   </si>
   <si>
     <t>OutPut12.2</t>
@@ -736,26 +718,56 @@
     <t>week_OutPut11.2</t>
   </si>
   <si>
-    <t>12/16小组会议记录</t>
-  </si>
-  <si>
     <t>week_OutPut11.3</t>
   </si>
   <si>
     <t>week_OutPut11.4</t>
-  </si>
-  <si>
-    <t>week_OutPut11.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="186" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="37">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="[$-804]aaa"/>
+    <numFmt numFmtId="180" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="185" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="186" formatCode="m/d"/>
+    <numFmt numFmtId="187" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="188" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="189" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="190" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0;\¥\-#,##0"/>
+    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="mmmmm"/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="#\ ??"/>
+    <numFmt numFmtId="197" formatCode="yy/m/d"/>
+    <numFmt numFmtId="198" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="199" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,16 +806,109 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,13 +919,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -829,7 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,12 +1007,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -972,17 +1270,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -990,7 +1524,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1012,10 +1546,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,7 +1558,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,7 +1567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,7 +1579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,7 +1588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,7 +1597,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,55 +1624,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,25 +1756,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1249,10 +1765,7 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,9 +1776,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1280,38 +1790,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1569,39 +2103,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M111" sqref="M111"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O99" sqref="O99:O105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.3984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73046875" style="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="8" width="12.3833333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1328125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.265625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="10.86328125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="18.265625" style="4" customWidth="1"/>
-    <col min="17" max="18" width="10.86328125" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="8.73046875" style="4"/>
+    <col min="12" max="12" width="20.1166666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="4" customWidth="1"/>
+    <col min="14" max="15" width="10.875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="4" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" ht="27" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +2174,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1677,8 +2212,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
@@ -1713,8 +2248,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="102"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
@@ -1749,8 +2284,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
@@ -1785,8 +2320,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1823,8 +2358,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8"/>
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1859,8 +2394,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
       <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
@@ -1895,8 +2430,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="102" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1933,8 +2468,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
@@ -1969,8 +2504,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
@@ -2005,8 +2540,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
@@ -2041,8 +2576,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
@@ -2077,8 +2612,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -2115,8 +2650,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="8"/>
       <c r="B15" s="16" t="s">
         <v>48</v>
       </c>
@@ -2151,8 +2686,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+    <row r="16" spans="1:12">
+      <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
         <v>50</v>
       </c>
@@ -2187,8 +2722,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="102"/>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
@@ -2223,8 +2758,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="102"/>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
         <v>54</v>
       </c>
@@ -2259,8 +2794,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:12">
+      <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -2297,8 +2832,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="102"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8"/>
       <c r="B20" s="16" t="s">
         <v>59</v>
       </c>
@@ -2333,8 +2868,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
@@ -2369,8 +2904,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="102"/>
+    <row r="22" spans="1:12">
+      <c r="A22" s="8"/>
       <c r="B22" s="16" t="s">
         <v>63</v>
       </c>
@@ -2405,8 +2940,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="102"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="8"/>
       <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2976,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -2479,8 +3014,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="102"/>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8"/>
       <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
@@ -2515,8 +3050,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="102"/>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8"/>
       <c r="B26" s="16" t="s">
         <v>72</v>
       </c>
@@ -2551,8 +3086,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="102"/>
+    <row r="27" spans="1:12">
+      <c r="A27" s="8"/>
       <c r="B27" s="16" t="s">
         <v>73</v>
       </c>
@@ -2587,8 +3122,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="102"/>
+    <row r="28" spans="1:12">
+      <c r="A28" s="8"/>
       <c r="B28" s="16" t="s">
         <v>74</v>
       </c>
@@ -2623,8 +3158,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="102" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2661,8 +3196,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102"/>
+    <row r="30" ht="13.15" customHeight="1" spans="1:12">
+      <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
         <v>79</v>
       </c>
@@ -2697,8 +3232,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="102"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>82</v>
       </c>
@@ -2733,8 +3268,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="102"/>
+    <row r="32" spans="1:12">
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>85</v>
       </c>
@@ -2769,8 +3304,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
         <v>88</v>
       </c>
@@ -2805,8 +3340,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="102"/>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>90</v>
       </c>
@@ -2847,8 +3382,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
+    <row r="35" spans="1:18">
+      <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>94</v>
       </c>
@@ -2901,8 +3436,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
+    <row r="36" spans="1:18">
+      <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>99</v>
       </c>
@@ -2955,8 +3490,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="102"/>
+    <row r="37" spans="1:18">
+      <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>101</v>
       </c>
@@ -3009,8 +3544,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="102" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -3065,8 +3600,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="102"/>
+    <row r="39" spans="1:18">
+      <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>105</v>
       </c>
@@ -3119,8 +3654,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="102"/>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>107</v>
       </c>
@@ -3173,8 +3708,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="102"/>
+    <row r="41" spans="1:18">
+      <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>108</v>
       </c>
@@ -3227,8 +3762,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="103"/>
+    <row r="42" spans="1:18">
+      <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>109</v>
       </c>
@@ -3285,8 +3820,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+    <row r="43" spans="1:18">
+      <c r="A43" s="23" t="s">
         <v>110</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -3337,8 +3872,8 @@
       </c>
       <c r="R43" s="67"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
+    <row r="44" spans="1:12">
+      <c r="A44" s="23"/>
       <c r="B44" s="23" t="s">
         <v>116</v>
       </c>
@@ -3373,8 +3908,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
+    <row r="45" spans="1:12">
+      <c r="A45" s="23"/>
       <c r="B45" s="23" t="s">
         <v>118</v>
       </c>
@@ -3409,8 +3944,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
+    <row r="46" spans="1:12">
+      <c r="A46" s="23"/>
       <c r="B46" s="23" t="s">
         <v>120</v>
       </c>
@@ -3445,8 +3980,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="104" t="s">
+    <row r="47" spans="1:12">
+      <c r="A47" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3483,8 +4018,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="104"/>
+    <row r="48" spans="1:12">
+      <c r="A48" s="23"/>
       <c r="B48" s="23" t="s">
         <v>125</v>
       </c>
@@ -3519,8 +4054,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="104" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="23" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="26" t="s">
@@ -3555,8 +4090,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
+    <row r="50" spans="1:16">
+      <c r="A50" s="23"/>
       <c r="B50" s="26" t="s">
         <v>130</v>
       </c>
@@ -3595,8 +4130,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="104"/>
+    <row r="51" spans="1:18">
+      <c r="A51" s="23"/>
       <c r="B51" s="23" t="s">
         <v>134</v>
       </c>
@@ -3649,8 +4184,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
+    <row r="52" spans="1:18">
+      <c r="A52" s="23"/>
       <c r="B52" s="23" t="s">
         <v>135</v>
       </c>
@@ -3703,8 +4238,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="104"/>
+    <row r="53" spans="1:18">
+      <c r="A53" s="23"/>
       <c r="B53" s="23" t="s">
         <v>136</v>
       </c>
@@ -3757,8 +4292,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="105" t="s">
+    <row r="54" spans="1:18">
+      <c r="A54" s="29" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="23" t="s">
@@ -3813,8 +4348,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
+    <row r="55" spans="1:18">
+      <c r="A55" s="23"/>
       <c r="B55" s="23" t="s">
         <v>118</v>
       </c>
@@ -3867,8 +4402,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="104"/>
+    <row r="56" spans="1:18">
+      <c r="A56" s="23"/>
       <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
@@ -3921,8 +4456,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="105" t="s">
+    <row r="57" spans="1:18">
+      <c r="A57" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -3977,8 +4512,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="106"/>
+    <row r="58" spans="1:18">
+      <c r="A58" s="30"/>
       <c r="B58" s="30" t="s">
         <v>125</v>
       </c>
@@ -4034,8 +4569,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="104" t="s">
+    <row r="59" spans="1:18">
+      <c r="A59" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -4086,8 +4621,8 @@
       </c>
       <c r="R59" s="67"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="104"/>
+    <row r="60" spans="1:12">
+      <c r="A60" s="23"/>
       <c r="B60" s="32" t="s">
         <v>141</v>
       </c>
@@ -4122,8 +4657,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="104"/>
+    <row r="61" spans="1:12">
+      <c r="A61" s="23"/>
       <c r="B61" s="35" t="s">
         <v>143</v>
       </c>
@@ -4158,8 +4693,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="104"/>
+    <row r="62" spans="1:12">
+      <c r="A62" s="23"/>
       <c r="B62" s="35" t="s">
         <v>144</v>
       </c>
@@ -4194,8 +4729,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="104"/>
+    <row r="63" spans="1:12">
+      <c r="A63" s="23"/>
       <c r="B63" s="35" t="s">
         <v>145</v>
       </c>
@@ -4230,7 +4765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="29" t="s">
         <v>122</v>
       </c>
@@ -4268,8 +4803,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="105" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B65" s="35" t="s">
@@ -4306,8 +4841,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="105"/>
+    <row r="66" spans="1:12">
+      <c r="A66" s="29"/>
       <c r="B66" s="35" t="s">
         <v>150</v>
       </c>
@@ -4342,8 +4877,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="105" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="29" t="s">
         <v>133</v>
       </c>
       <c r="B67" s="35" t="s">
@@ -4380,8 +4915,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="105"/>
+    <row r="68" spans="1:16">
+      <c r="A68" s="29"/>
       <c r="B68" s="35" t="s">
         <v>154</v>
       </c>
@@ -4422,8 +4957,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="105"/>
+    <row r="69" spans="1:18">
+      <c r="A69" s="29"/>
       <c r="B69" s="35" t="s">
         <v>158</v>
       </c>
@@ -4476,8 +5011,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="105"/>
+    <row r="70" spans="1:18">
+      <c r="A70" s="29"/>
       <c r="B70" s="35" t="s">
         <v>159</v>
       </c>
@@ -4530,8 +5065,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="105"/>
+    <row r="71" spans="1:18">
+      <c r="A71" s="29"/>
       <c r="B71" s="35" t="s">
         <v>160</v>
       </c>
@@ -4584,7 +5119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18">
       <c r="A72" s="29" t="s">
         <v>146</v>
       </c>
@@ -4597,22 +5132,22 @@
       <c r="D72" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="87">
+      <c r="E72" s="81">
         <v>44515</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="81">
         <v>44528</v>
       </c>
-      <c r="G72" s="87">
+      <c r="G72" s="81">
         <v>44515</v>
       </c>
-      <c r="H72" s="87">
+      <c r="H72" s="81">
         <v>44536</v>
       </c>
-      <c r="I72" s="92">
+      <c r="I72" s="85">
         <v>72</v>
       </c>
-      <c r="J72" s="92">
+      <c r="J72" s="85">
         <v>76</v>
       </c>
       <c r="K72" s="35" t="s">
@@ -4640,8 +5175,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="105" t="s">
+    <row r="73" spans="1:18">
+      <c r="A73" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B73" s="35" t="s">
@@ -4696,8 +5231,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="105"/>
+    <row r="74" spans="1:18">
+      <c r="A74" s="29"/>
       <c r="B74" s="35" t="s">
         <v>165</v>
       </c>
@@ -4750,8 +5285,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="105"/>
+    <row r="75" spans="1:18">
+      <c r="A75" s="29"/>
       <c r="B75" s="35" t="s">
         <v>167</v>
       </c>
@@ -4804,8 +5339,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="105"/>
+    <row r="76" spans="1:18">
+      <c r="A76" s="29"/>
       <c r="B76" s="35" t="s">
         <v>168</v>
       </c>
@@ -4862,8 +5397,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="105"/>
+    <row r="77" spans="1:18">
+      <c r="A77" s="29"/>
       <c r="B77" s="35" t="s">
         <v>169</v>
       </c>
@@ -4910,9 +5445,9 @@
       <c r="Q77" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="R77" s="99"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R77" s="91"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="29" t="s">
         <v>146</v>
       </c>
@@ -4925,22 +5460,22 @@
       <c r="D78" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="87">
+      <c r="E78" s="81">
         <v>44515</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="81">
         <v>44528</v>
       </c>
-      <c r="G78" s="87">
+      <c r="G78" s="81">
         <v>44515</v>
       </c>
       <c r="H78" s="48">
         <v>44536</v>
       </c>
-      <c r="I78" s="93">
+      <c r="I78" s="86">
         <v>72</v>
       </c>
-      <c r="J78" s="93">
+      <c r="J78" s="86">
         <v>71</v>
       </c>
       <c r="K78" s="35" t="s">
@@ -4950,8 +5485,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="105" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="35" t="s">
@@ -4988,8 +5523,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="105"/>
+    <row r="80" spans="1:12">
+      <c r="A80" s="29"/>
       <c r="B80" s="35" t="s">
         <v>173</v>
       </c>
@@ -5024,8 +5559,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="105"/>
+    <row r="81" spans="1:12">
+      <c r="A81" s="29"/>
       <c r="B81" s="35" t="s">
         <v>175</v>
       </c>
@@ -5038,13 +5573,13 @@
       <c r="E81" s="50">
         <v>44522</v>
       </c>
-      <c r="F81" s="88" t="s">
+      <c r="F81" s="82" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="50">
         <v>44522</v>
       </c>
-      <c r="H81" s="88" t="s">
+      <c r="H81" s="82" t="s">
         <v>176</v>
       </c>
       <c r="I81" s="23">
@@ -5060,8 +5595,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="105"/>
+    <row r="82" spans="1:16">
+      <c r="A82" s="29"/>
       <c r="B82" s="35" t="s">
         <v>177</v>
       </c>
@@ -5102,8 +5637,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="105"/>
+    <row r="83" spans="1:18">
+      <c r="A83" s="29"/>
       <c r="B83" s="35" t="s">
         <v>180</v>
       </c>
@@ -5122,7 +5657,7 @@
       <c r="G83" s="50">
         <v>44522</v>
       </c>
-      <c r="H83" s="88" t="s">
+      <c r="H83" s="82" t="s">
         <v>176</v>
       </c>
       <c r="I83" s="23">
@@ -5156,7 +5691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18">
       <c r="A84" s="74" t="s">
         <v>146</v>
       </c>
@@ -5169,13 +5704,13 @@
       <c r="D84" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="87">
+      <c r="E84" s="81">
         <v>44515</v>
       </c>
       <c r="F84" s="48">
         <v>44535</v>
       </c>
-      <c r="G84" s="89" t="s">
+      <c r="G84" s="83" t="s">
         <v>181</v>
       </c>
       <c r="H84" s="48">
@@ -5208,12 +5743,12 @@
       <c r="Q84" s="61">
         <v>8</v>
       </c>
-      <c r="R84" s="101">
+      <c r="R84" s="61">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="105" t="s">
+    <row r="85" spans="1:18">
+      <c r="A85" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B85" s="35" t="s">
@@ -5252,7 +5787,7 @@
       <c r="M85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="96">
+      <c r="N85" s="88">
         <v>12</v>
       </c>
       <c r="O85" s="61">
@@ -5261,15 +5796,15 @@
       <c r="P85" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Q85" s="96">
+      <c r="Q85" s="88">
         <v>6</v>
       </c>
-      <c r="R85" s="101">
+      <c r="R85" s="61">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="105"/>
+    <row r="86" spans="1:18">
+      <c r="A86" s="29"/>
       <c r="B86" s="76" t="s">
         <v>184</v>
       </c>
@@ -5285,18 +5820,18 @@
       <c r="F86" s="49">
         <v>44532</v>
       </c>
-      <c r="G86" s="90" t="s">
+      <c r="G86" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="H86" s="90"/>
+      <c r="H86" s="84"/>
       <c r="I86" s="26">
         <v>1</v>
       </c>
       <c r="J86" s="26"/>
-      <c r="K86" s="94" t="s">
+      <c r="K86" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="L86" s="94" t="s">
+      <c r="L86" s="87" t="s">
         <v>22</v>
       </c>
       <c r="M86" s="23" t="s">
@@ -5314,12 +5849,12 @@
       <c r="Q86" s="61">
         <v>8</v>
       </c>
-      <c r="R86" s="101">
+      <c r="R86" s="61">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="105"/>
+    <row r="87" spans="1:18">
+      <c r="A87" s="29"/>
       <c r="B87" s="35" t="s">
         <v>187</v>
       </c>
@@ -5368,12 +5903,12 @@
       <c r="Q87" s="61">
         <v>8</v>
       </c>
-      <c r="R87" s="101">
+      <c r="R87" s="61">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="105"/>
+    <row r="88" spans="1:18">
+      <c r="A88" s="29"/>
       <c r="B88" s="35" t="s">
         <v>188</v>
       </c>
@@ -5422,12 +5957,12 @@
       <c r="Q88" s="61">
         <v>10</v>
       </c>
-      <c r="R88" s="101">
+      <c r="R88" s="61">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="105"/>
+    <row r="89" spans="1:18">
+      <c r="A89" s="29"/>
       <c r="B89" s="35" t="s">
         <v>189</v>
       </c>
@@ -5461,7 +5996,7 @@
       <c r="L89" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M89" s="97" t="s">
+      <c r="M89" s="89" t="s">
         <v>25</v>
       </c>
       <c r="N89" s="61">
@@ -5470,18 +6005,18 @@
       <c r="O89" s="61">
         <v>12</v>
       </c>
-      <c r="P89" s="97" t="s">
+      <c r="P89" s="89" t="s">
         <v>25</v>
       </c>
       <c r="Q89" s="61">
         <v>8</v>
       </c>
-      <c r="R89" s="101">
+      <c r="R89" s="61">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="105" t="s">
+    <row r="90" spans="1:18">
+      <c r="A90" s="29" t="s">
         <v>146</v>
       </c>
       <c r="B90" s="35" t="s">
@@ -5505,7 +6040,7 @@
       <c r="H90" s="50">
         <v>44536</v>
       </c>
-      <c r="I90" s="88" t="s">
+      <c r="I90" s="82" t="s">
         <v>190</v>
       </c>
       <c r="J90" s="23">
@@ -5517,7 +6052,7 @@
       <c r="L90" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="M90" s="98" t="s">
+      <c r="M90" s="90" t="s">
         <v>56</v>
       </c>
       <c r="N90" s="61">
@@ -5527,20 +6062,20 @@
         <f>SUM(O84:O89)</f>
         <v>109</v>
       </c>
-      <c r="P90" s="98" t="s">
+      <c r="P90" s="90" t="s">
         <v>56</v>
       </c>
       <c r="Q90" s="61">
         <f>SUM(Q84:Q89)</f>
         <v>48</v>
       </c>
-      <c r="R90" s="101">
+      <c r="R90" s="61">
         <f>SUM(R84:R89)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="104"/>
+    <row r="91" spans="1:18">
+      <c r="A91" s="23"/>
       <c r="B91" s="35" t="s">
         <v>191</v>
       </c>
@@ -5580,17 +6115,17 @@
       <c r="N91" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="O91" s="99"/>
+      <c r="O91" s="91"/>
       <c r="P91" s="68" t="s">
         <v>113</v>
       </c>
       <c r="Q91" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="R91" s="101"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="105" t="s">
+      <c r="R91" s="61"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="29" t="s">
         <v>195</v>
       </c>
       <c r="B92" s="35" t="s">
@@ -5626,13 +6161,13 @@
       <c r="L92" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M92" s="96"/>
-      <c r="N92" s="100"/>
-      <c r="P92" s="96"/>
-      <c r="Q92" s="100"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="104"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="92"/>
+      <c r="P92" s="88"/>
+      <c r="Q92" s="92"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="23"/>
       <c r="B93" s="35" t="s">
         <v>198</v>
       </c>
@@ -5666,13 +6201,13 @@
       <c r="L93" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M93" s="96"/>
-      <c r="N93" s="100"/>
-      <c r="P93" s="96"/>
-      <c r="Q93" s="100"/>
-    </row>
-    <row r="94" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="105" t="s">
+      <c r="M93" s="88"/>
+      <c r="N93" s="92"/>
+      <c r="P93" s="88"/>
+      <c r="Q93" s="92"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="29" t="s">
         <v>200</v>
       </c>
       <c r="B94" s="35" t="s">
@@ -5708,13 +6243,13 @@
       <c r="L94" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="M94" s="96"/>
-      <c r="N94" s="100"/>
-      <c r="P94" s="96"/>
-      <c r="Q94" s="100"/>
-    </row>
-    <row r="95" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="104"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="92"/>
+      <c r="P94" s="88"/>
+      <c r="Q94" s="92"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="23"/>
       <c r="B95" s="35" t="s">
         <v>203</v>
       </c>
@@ -5748,13 +6283,13 @@
       <c r="L95" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M95" s="96"/>
-      <c r="N95" s="100"/>
-      <c r="P95" s="96"/>
-      <c r="Q95" s="100"/>
-    </row>
-    <row r="96" spans="1:18" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="104"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="92"/>
+      <c r="P95" s="88"/>
+      <c r="Q95" s="92"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="23"/>
       <c r="B96" s="35" t="s">
         <v>205</v>
       </c>
@@ -5788,13 +6323,13 @@
       <c r="L96" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M96" s="96"/>
-      <c r="N96" s="100"/>
-      <c r="P96" s="96"/>
-      <c r="Q96" s="100"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="105" t="s">
+      <c r="M96" s="88"/>
+      <c r="N96" s="92"/>
+      <c r="P96" s="88"/>
+      <c r="Q96" s="92"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="29" t="s">
         <v>179</v>
       </c>
       <c r="B97" s="35" t="s">
@@ -5834,8 +6369,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="104"/>
+    <row r="98" spans="1:15">
+      <c r="A98" s="23"/>
       <c r="B98" s="76" t="s">
         <v>210</v>
       </c>
@@ -5851,7 +6386,7 @@
       <c r="F98" s="49">
         <v>44539</v>
       </c>
-      <c r="G98" s="90" t="s">
+      <c r="G98" s="84" t="s">
         <v>186</v>
       </c>
       <c r="H98" s="49"/>
@@ -5859,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="J98" s="26"/>
-      <c r="K98" s="94" t="s">
+      <c r="K98" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="L98" s="94" t="s">
+      <c r="L98" s="87" t="s">
         <v>16</v>
       </c>
       <c r="M98" s="66" t="s">
@@ -5875,8 +6410,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="104"/>
+    <row r="99" spans="1:15">
+      <c r="A99" s="23"/>
       <c r="B99" s="35" t="s">
         <v>212</v>
       </c>
@@ -5913,11 +6448,15 @@
       <c r="M99" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="N99" s="61"/>
-      <c r="O99" s="101"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="104"/>
+      <c r="N99" s="61">
+        <v>4</v>
+      </c>
+      <c r="O99" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="23"/>
       <c r="B100" s="35" t="s">
         <v>213</v>
       </c>
@@ -5954,11 +6493,15 @@
       <c r="M100" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N100" s="96"/>
-      <c r="O100" s="101"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="104"/>
+      <c r="N100" s="61">
+        <v>4</v>
+      </c>
+      <c r="O100" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="23"/>
       <c r="B101" s="35" t="s">
         <v>214</v>
       </c>
@@ -5995,69 +6538,89 @@
       <c r="M101" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="61"/>
-      <c r="O101" s="101"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="105" t="s">
+      <c r="N101" s="61">
+        <v>6</v>
+      </c>
+      <c r="O101" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="B102" s="82" t="s">
+      <c r="B102" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="83" t="s">
+      <c r="C102" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D102" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E102" s="91">
+      <c r="D102" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="50">
         <v>44543</v>
       </c>
-      <c r="F102" s="91">
+      <c r="F102" s="50">
         <v>44544</v>
       </c>
-      <c r="G102" s="91"/>
-      <c r="H102" s="91"/>
-      <c r="I102" s="82">
+      <c r="G102" s="50">
+        <v>44543</v>
+      </c>
+      <c r="H102" s="50">
+        <v>44544</v>
+      </c>
+      <c r="I102" s="23">
         <v>4</v>
       </c>
-      <c r="J102" s="82"/>
-      <c r="K102" s="81" t="s">
+      <c r="J102" s="23">
+        <v>4</v>
+      </c>
+      <c r="K102" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L102" s="95" t="s">
+      <c r="L102" s="69" t="s">
         <v>149</v>
       </c>
       <c r="M102" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N102" s="61"/>
-      <c r="O102" s="101"/>
-    </row>
-    <row r="103" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="105"/>
-      <c r="B103" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="85" t="s">
+      <c r="N102" s="61">
+        <v>6</v>
+      </c>
+      <c r="O102" s="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="29"/>
+      <c r="B103" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="D103" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E103" s="91">
+      <c r="D103" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="50">
         <v>44544</v>
       </c>
-      <c r="F103" s="91">
+      <c r="F103" s="50">
         <v>44545</v>
       </c>
-      <c r="G103" s="91"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="82">
+      <c r="G103" s="50">
+        <v>44544</v>
+      </c>
+      <c r="H103" s="50">
+        <v>44545</v>
+      </c>
+      <c r="I103" s="23">
         <v>4</v>
       </c>
-      <c r="J103" s="82"/>
+      <c r="J103" s="23">
+        <v>4</v>
+      </c>
       <c r="K103" s="29" t="s">
         <v>16</v>
       </c>
@@ -6067,105 +6630,137 @@
       <c r="M103" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N103" s="61"/>
-      <c r="O103" s="101"/>
-    </row>
-    <row r="104" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="105"/>
-      <c r="B104" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="85" t="s">
+      <c r="N103" s="61">
+        <v>12</v>
+      </c>
+      <c r="O103" s="61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="29"/>
+      <c r="B104" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="D104" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" s="91">
+      <c r="D104" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="50">
         <v>44545</v>
       </c>
-      <c r="F104" s="91">
+      <c r="F104" s="50">
         <v>44546</v>
       </c>
-      <c r="G104" s="91"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="82">
+      <c r="G104" s="50">
+        <v>44545</v>
+      </c>
+      <c r="H104" s="50">
+        <v>44546</v>
+      </c>
+      <c r="I104" s="23">
         <v>4</v>
       </c>
-      <c r="J104" s="82"/>
+      <c r="J104" s="23">
+        <v>4</v>
+      </c>
       <c r="K104" s="29" t="s">
         <v>19</v>
       </c>
       <c r="L104" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M104" s="97" t="s">
+      <c r="M104" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="N104" s="61"/>
-      <c r="O104" s="101"/>
-    </row>
-    <row r="105" spans="1:15" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="105"/>
-      <c r="B105" s="82" t="s">
+      <c r="N104" s="61">
+        <v>4</v>
+      </c>
+      <c r="O104" s="61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="29"/>
+      <c r="B105" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="85" t="s">
+      <c r="D105" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="50">
+        <v>44546</v>
+      </c>
+      <c r="F105" s="50">
+        <v>44547</v>
+      </c>
+      <c r="G105" s="50">
+        <v>44546</v>
+      </c>
+      <c r="H105" s="50">
+        <v>44547</v>
+      </c>
+      <c r="I105" s="23">
+        <v>4</v>
+      </c>
+      <c r="J105" s="23">
+        <v>4</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L105" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M105" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="N105" s="61">
+        <f>SUM(N99:N104)</f>
+        <v>36</v>
+      </c>
+      <c r="O105" s="61">
+        <f>SUM(O99:O104)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D105" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="91">
-        <v>44546</v>
-      </c>
-      <c r="F105" s="91">
+      <c r="B106" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="50">
         <v>44547</v>
       </c>
-      <c r="G105" s="91"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="82">
+      <c r="F106" s="50">
+        <v>44548</v>
+      </c>
+      <c r="G106" s="50">
+        <v>44547</v>
+      </c>
+      <c r="H106" s="50">
+        <v>44548</v>
+      </c>
+      <c r="I106" s="23">
         <v>4</v>
       </c>
-      <c r="J105" s="82"/>
-      <c r="K105" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L105" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="M105" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="N105" s="61"/>
-      <c r="O105" s="101"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="105" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="C106" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E106" s="91">
-        <v>44547</v>
-      </c>
-      <c r="F106" s="91">
-        <v>44548</v>
-      </c>
-      <c r="G106" s="91"/>
-      <c r="H106" s="91"/>
-      <c r="I106" s="82">
+      <c r="J106" s="23">
         <v>4</v>
       </c>
-      <c r="J106" s="82"/>
-      <c r="K106" s="81" t="s">
+      <c r="K106" s="29" t="s">
         <v>37</v>
       </c>
       <c r="L106" s="63" t="s">
@@ -6175,256 +6770,264 @@
         <v>113</v>
       </c>
       <c r="N106" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="O106" s="61"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="29"/>
+      <c r="B107" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="O106" s="101"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="105"/>
-      <c r="B107" s="81" t="s">
+      <c r="C107" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E107" s="91">
+      <c r="D107" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="50">
         <v>44548</v>
       </c>
-      <c r="F107" s="91">
+      <c r="F107" s="50">
         <v>44549</v>
       </c>
-      <c r="G107" s="91"/>
-      <c r="H107" s="91"/>
-      <c r="I107" s="82">
+      <c r="G107" s="50">
+        <v>44548</v>
+      </c>
+      <c r="H107" s="50">
+        <v>44549</v>
+      </c>
+      <c r="I107" s="23">
         <v>6</v>
       </c>
-      <c r="J107" s="82"/>
-      <c r="K107" s="81" t="s">
+      <c r="J107" s="23">
+        <v>6</v>
+      </c>
+      <c r="K107" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L107" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="105"/>
-      <c r="B108" s="81" t="s">
+    <row r="108" spans="1:12">
+      <c r="A108" s="29"/>
+      <c r="B108" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="D108" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E108" s="91">
+      <c r="D108" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="50">
         <v>44548</v>
       </c>
-      <c r="F108" s="91">
+      <c r="F108" s="50">
         <v>44549</v>
       </c>
-      <c r="G108" s="91"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="82">
+      <c r="G108" s="50">
+        <v>44548</v>
+      </c>
+      <c r="H108" s="50">
+        <v>44549</v>
+      </c>
+      <c r="I108" s="23">
         <v>6</v>
       </c>
-      <c r="J108" s="82"/>
-      <c r="K108" s="81" t="s">
+      <c r="J108" s="23">
+        <v>6</v>
+      </c>
+      <c r="K108" s="29" t="s">
         <v>22</v>
       </c>
       <c r="L108" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="105" t="s">
+    <row r="109" spans="1:12">
+      <c r="A109" s="29" t="s">
         <v>209</v>
       </c>
       <c r="B109" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="73" t="s">
+      <c r="D109" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="50">
+        <v>44543</v>
+      </c>
+      <c r="F109" s="50">
+        <v>44543</v>
+      </c>
+      <c r="G109" s="50">
+        <v>44543</v>
+      </c>
+      <c r="H109" s="50">
+        <v>44543</v>
+      </c>
+      <c r="I109" s="23">
+        <v>1</v>
+      </c>
+      <c r="J109" s="23">
+        <v>1</v>
+      </c>
+      <c r="K109" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="29"/>
+      <c r="B110" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D109" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="91">
+      <c r="C110" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="50">
         <v>44543</v>
       </c>
-      <c r="F109" s="91">
+      <c r="F110" s="50">
+        <v>44549</v>
+      </c>
+      <c r="G110" s="50">
         <v>44543</v>
       </c>
-      <c r="G109" s="91"/>
-      <c r="H109" s="91"/>
-      <c r="I109" s="82">
-        <v>1</v>
-      </c>
-      <c r="J109" s="82"/>
-      <c r="K109" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="L109" s="81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="105"/>
-      <c r="B110" s="35" t="s">
+      <c r="H110" s="50">
+        <v>44549</v>
+      </c>
+      <c r="I110" s="23">
+        <v>3</v>
+      </c>
+      <c r="J110" s="23">
+        <v>3</v>
+      </c>
+      <c r="K110" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="29"/>
+      <c r="B111" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C111" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="50">
+        <v>44549</v>
+      </c>
+      <c r="F111" s="50">
+        <v>44549</v>
+      </c>
+      <c r="G111" s="50">
+        <v>44549</v>
+      </c>
+      <c r="H111" s="50">
+        <v>44549</v>
+      </c>
+      <c r="I111" s="23">
+        <v>1</v>
+      </c>
+      <c r="J111" s="23">
+        <v>1</v>
+      </c>
+      <c r="K111" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="29"/>
+      <c r="B112" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="D110" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E110" s="91">
-        <v>44546</v>
-      </c>
-      <c r="F110" s="91">
-        <v>44546</v>
-      </c>
-      <c r="G110" s="91"/>
-      <c r="H110" s="91"/>
-      <c r="I110" s="82">
-        <v>1</v>
-      </c>
-      <c r="J110" s="82"/>
-      <c r="K110" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="L110" s="81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="105"/>
-      <c r="B111" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D111" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E111" s="91">
+      <c r="C112" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="50">
         <v>44543</v>
       </c>
-      <c r="F111" s="91">
+      <c r="F112" s="50">
         <v>44549</v>
       </c>
-      <c r="G111" s="91"/>
-      <c r="H111" s="91"/>
-      <c r="I111" s="82">
-        <v>3</v>
-      </c>
-      <c r="J111" s="82"/>
-      <c r="K111" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="L111" s="81" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="105"/>
-      <c r="B112" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E112" s="91">
+      <c r="G112" s="50">
+        <v>44543</v>
+      </c>
+      <c r="H112" s="50">
         <v>44549</v>
       </c>
-      <c r="F112" s="91">
-        <v>44549</v>
-      </c>
-      <c r="G112" s="91"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="82">
-        <v>1</v>
-      </c>
-      <c r="J112" s="82"/>
-      <c r="K112" s="81" t="s">
+      <c r="I112" s="23">
+        <v>4</v>
+      </c>
+      <c r="J112" s="23">
+        <v>4</v>
+      </c>
+      <c r="K112" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L112" s="81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="105"/>
-      <c r="B113" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D113" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="E113" s="91">
-        <v>44543</v>
-      </c>
-      <c r="F113" s="91">
-        <v>44549</v>
-      </c>
-      <c r="G113" s="91"/>
-      <c r="H113" s="91"/>
-      <c r="I113" s="82">
-        <v>4</v>
-      </c>
-      <c r="J113" s="82"/>
-      <c r="K113" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L113" s="63" t="s">
+      <c r="L112" s="63" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
-  <autoFilter ref="A1:L101" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L112">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="26">
-    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A96"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="A102:A105"/>
     <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A109:A112"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -6433,10 +7036,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6446,14 +7053,10 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
-  </woBookProps>
-</woProps>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6466,7 +7069,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6484,7 +7087,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
